--- a/Finance/Excel_101_For_Financial_Modeling/TheModellers_Excel Practice Materials (For Upload v3).xlsx
+++ b/Finance/Excel_101_For_Financial_Modeling/TheModellers_Excel Practice Materials (For Upload v3).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" firstSheet="4" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="P1" sheetId="7" r:id="rId1"/>
@@ -34,6 +34,9 @@
     <sheet name="A4" sheetId="29" r:id="rId20"/>
     <sheet name="A5" sheetId="25" r:id="rId21"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'P13'!$B$3:$F$41</definedName>
+  </definedNames>
   <calcPr calcId="162913" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1732,7 +1735,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="233">
+  <cellXfs count="234">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1870,9 +1873,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2269,18 +2269,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2316,12 +2304,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="5" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2410,12 +2392,6 @@
     <xf numFmtId="181" fontId="3" fillId="5" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="181" fontId="2" fillId="8" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2427,6 +2403,36 @@
     </xf>
     <xf numFmtId="181" fontId="2" fillId="8" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2801,7 +2807,7 @@
         <v>2</v>
       </c>
       <c r="S3" s="8"/>
-      <c r="T3" s="180" t="s">
+      <c r="T3" s="226" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2859,7 +2865,7 @@
       <c r="S4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="181"/>
+      <c r="T4" s="227"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1">
       <c r="B5" s="17"/>
@@ -5396,7 +5402,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T86"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -5425,24 +5433,24 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="46" t="s">
+      <c r="H3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46" t="s">
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46" t="s">
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="46"/>
+      <c r="S3" s="6"/>
       <c r="T3" s="45" t="s">
         <v>3</v>
       </c>
@@ -5501,7 +5509,7 @@
       <c r="S4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="47"/>
+      <c r="T4" s="46"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1">
       <c r="B5" s="17"/>
@@ -8016,9 +8024,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T86"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="2.69921875" style="3" customWidth="1"/>
     <col min="2" max="2" width="2.69921875" style="30" customWidth="1"/>
@@ -8026,9 +8036,9 @@
     <col min="7" max="7" width="29.3984375" style="11" customWidth="1"/>
     <col min="8" max="10" width="8.8984375" style="3"/>
     <col min="11" max="17" width="8.8984375" style="11"/>
-    <col min="18" max="18" width="8.8984375" style="11" customWidth="1"/>
-    <col min="19" max="19" width="8.8984375" style="11"/>
-    <col min="20" max="20" width="13.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.8984375" style="11" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="0" style="11" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="13.59765625" style="11" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="21" max="16384" width="8.8984375" style="11"/>
   </cols>
   <sheetData>
@@ -8063,7 +8073,7 @@
         <v>2</v>
       </c>
       <c r="S3" s="7"/>
-      <c r="T3" s="182" t="s">
+      <c r="T3" s="232" t="s">
         <v>3</v>
       </c>
     </row>
@@ -8118,10 +8128,10 @@
       <c r="R4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="183"/>
+      <c r="T4" s="233"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1">
       <c r="B5" s="17"/>
@@ -8257,7 +8267,7 @@
       <c r="S9" s="24"/>
       <c r="T9" s="17"/>
     </row>
-    <row r="10" spans="1:20" ht="15" customHeight="1">
+    <row r="10" spans="1:20" ht="15" customHeight="1" outlineLevel="1">
       <c r="B10" s="20"/>
       <c r="C10" s="20" t="s">
         <v>10</v>
@@ -8290,7 +8300,7 @@
       <c r="S10" s="24"/>
       <c r="T10" s="17"/>
     </row>
-    <row r="11" spans="1:20" ht="15" customHeight="1">
+    <row r="11" spans="1:20" ht="15" customHeight="1" outlineLevel="1">
       <c r="B11" s="17"/>
       <c r="C11" s="17" t="s">
         <v>11</v>
@@ -8719,7 +8729,7 @@
       <c r="S23" s="24"/>
       <c r="T23" s="17"/>
     </row>
-    <row r="25" spans="1:20" ht="15" customHeight="1">
+    <row r="25" spans="1:20" ht="15" customHeight="1" outlineLevel="1">
       <c r="A25" s="3" t="s">
         <v>78</v>
       </c>
@@ -8745,7 +8755,7 @@
       <c r="S25" s="19"/>
       <c r="T25" s="19"/>
     </row>
-    <row r="26" spans="1:20" ht="15" customHeight="1">
+    <row r="26" spans="1:20" ht="15" customHeight="1" outlineLevel="1">
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -8766,7 +8776,7 @@
       <c r="S26" s="24"/>
       <c r="T26" s="17"/>
     </row>
-    <row r="27" spans="1:20" ht="15" customHeight="1">
+    <row r="27" spans="1:20" ht="15" customHeight="1" outlineLevel="1">
       <c r="B27" s="20"/>
       <c r="C27" s="20" t="s">
         <v>25</v>
@@ -10637,9 +10647,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T35"/>
+  <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -10686,7 +10698,7 @@
         <v>2</v>
       </c>
       <c r="S3" s="8"/>
-      <c r="T3" s="180" t="s">
+      <c r="T3" s="226" t="s">
         <v>3</v>
       </c>
     </row>
@@ -10744,7 +10756,7 @@
       <c r="S4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="181"/>
+      <c r="T4" s="227"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1">
       <c r="B5" s="17"/>
@@ -11258,330 +11270,506 @@
       <c r="S20" s="24"/>
       <c r="T20" s="17"/>
     </row>
-    <row r="21" spans="1:20" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A21" s="50"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51" t="s">
+    <row r="21" spans="1:20" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A21" s="49"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="52">
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="51">
         <f>+H19+H20</f>
         <v>4.2214</v>
       </c>
-      <c r="I21" s="52">
+      <c r="I21" s="51">
         <f t="shared" ref="I21:L21" si="4">+I19+I20</f>
         <v>5.7110999999999974</v>
       </c>
-      <c r="J21" s="52">
+      <c r="J21" s="51">
         <f t="shared" si="4"/>
         <v>4.2314999999999996</v>
       </c>
-      <c r="K21" s="52">
+      <c r="K21" s="51">
         <f t="shared" si="4"/>
         <v>1.0740999999999983</v>
       </c>
-      <c r="L21" s="52">
+      <c r="L21" s="51">
         <f t="shared" si="4"/>
         <v>5.1984999999999975</v>
       </c>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="52"/>
-      <c r="R21" s="52"/>
-      <c r="S21" s="52"/>
-      <c r="T21" s="51"/>
-    </row>
-    <row r="22" spans="1:20" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="54"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="56" t="s">
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="51"/>
+      <c r="S21" s="51"/>
+      <c r="T21" s="50"/>
+    </row>
+    <row r="22" spans="1:20" s="58" customFormat="1" ht="15" customHeight="1">
+      <c r="A22" s="53"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="57">
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="56">
         <v>1.4325999999999999</v>
       </c>
-      <c r="I22" s="57">
+      <c r="I22" s="56">
         <v>1.262</v>
       </c>
-      <c r="J22" s="57">
+      <c r="J22" s="56">
         <v>0.87160000000000004</v>
       </c>
-      <c r="K22" s="57">
+      <c r="K22" s="56">
         <v>0.2397</v>
       </c>
-      <c r="L22" s="57">
+      <c r="L22" s="56">
         <v>1.1565999999999999</v>
       </c>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="58"/>
-      <c r="Q22" s="58"/>
-      <c r="R22" s="58"/>
-      <c r="S22" s="58"/>
-      <c r="T22" s="55"/>
-    </row>
-    <row r="23" spans="1:20" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A23" s="54"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51" t="s">
+      <c r="M22" s="57"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="57"/>
+      <c r="R22" s="57"/>
+      <c r="S22" s="57"/>
+      <c r="T22" s="54"/>
+    </row>
+    <row r="23" spans="1:20" s="58" customFormat="1" ht="15" customHeight="1">
+      <c r="A23" s="53"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="52">
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="51">
         <f>+H21-H22</f>
         <v>2.7888000000000002</v>
       </c>
-      <c r="I23" s="52">
+      <c r="I23" s="51">
         <f t="shared" ref="I23:L23" si="5">+I21-I22</f>
         <v>4.4490999999999978</v>
       </c>
-      <c r="J23" s="52">
+      <c r="J23" s="51">
         <f t="shared" si="5"/>
         <v>3.3598999999999997</v>
       </c>
-      <c r="K23" s="52">
+      <c r="K23" s="51">
         <f t="shared" si="5"/>
         <v>0.83439999999999825</v>
       </c>
-      <c r="L23" s="52">
+      <c r="L23" s="51">
         <f t="shared" si="5"/>
         <v>4.0418999999999974</v>
       </c>
-      <c r="M23" s="58"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="58"/>
-      <c r="P23" s="58"/>
-      <c r="Q23" s="58"/>
-      <c r="R23" s="58"/>
-      <c r="S23" s="58"/>
-      <c r="T23" s="55"/>
-    </row>
-    <row r="24" spans="1:20" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A24" s="54"/>
-      <c r="B24" s="60"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-    </row>
-    <row r="25" spans="1:20" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A25" s="54" t="s">
+      <c r="M23" s="57"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="57"/>
+      <c r="Q23" s="57"/>
+      <c r="R23" s="57"/>
+      <c r="S23" s="57"/>
+      <c r="T23" s="54"/>
+    </row>
+    <row r="24" spans="1:20" s="58" customFormat="1" ht="15" customHeight="1">
+      <c r="A24" s="53"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="57"/>
+      <c r="R24" s="57"/>
+      <c r="S24" s="57"/>
+      <c r="T24" s="54"/>
+    </row>
+    <row r="25" spans="1:20" s="58" customFormat="1" ht="15" customHeight="1">
+      <c r="A25" s="53"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="57"/>
+      <c r="Q25" s="57"/>
+      <c r="R25" s="57"/>
+      <c r="S25" s="57"/>
+      <c r="T25" s="54"/>
+    </row>
+    <row r="26" spans="1:20" s="58" customFormat="1" ht="15" customHeight="1">
+      <c r="A26" s="53"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="57"/>
+      <c r="S26" s="57"/>
+      <c r="T26" s="54"/>
+    </row>
+    <row r="27" spans="1:20" s="58" customFormat="1" ht="15" customHeight="1">
+      <c r="A27" s="53"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="57"/>
+      <c r="S27" s="57"/>
+      <c r="T27" s="54"/>
+    </row>
+    <row r="28" spans="1:20" s="58" customFormat="1" ht="15" customHeight="1">
+      <c r="A28" s="53"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="57"/>
+      <c r="S28" s="57"/>
+      <c r="T28" s="54"/>
+    </row>
+    <row r="29" spans="1:20" s="58" customFormat="1" ht="15" customHeight="1">
+      <c r="A29" s="53"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="57"/>
+      <c r="R29" s="57"/>
+      <c r="S29" s="57"/>
+      <c r="T29" s="54"/>
+    </row>
+    <row r="30" spans="1:20" s="58" customFormat="1" ht="15" customHeight="1">
+      <c r="A30" s="53"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="57"/>
+      <c r="P30" s="57"/>
+      <c r="Q30" s="57"/>
+      <c r="R30" s="57"/>
+      <c r="S30" s="57"/>
+      <c r="T30" s="54"/>
+    </row>
+    <row r="31" spans="1:20" s="58" customFormat="1" ht="15" customHeight="1">
+      <c r="A31" s="53"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="57"/>
+      <c r="R31" s="57"/>
+      <c r="S31" s="57"/>
+      <c r="T31" s="54"/>
+    </row>
+    <row r="32" spans="1:20" s="58" customFormat="1" ht="15" customHeight="1">
+      <c r="A32" s="53"/>
+      <c r="B32" s="59"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="53"/>
+    </row>
+    <row r="33" spans="1:20" s="58" customFormat="1" ht="15" customHeight="1">
+      <c r="A33" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="61" t="s">
+      <c r="B33" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="62"/>
-      <c r="N25" s="62"/>
-      <c r="O25" s="62"/>
-      <c r="P25" s="62"/>
-      <c r="Q25" s="62"/>
-      <c r="R25" s="62"/>
-      <c r="S25" s="62"/>
-      <c r="T25" s="62"/>
-    </row>
-    <row r="26" spans="1:20" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A26" s="54"/>
-      <c r="B26" s="60"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
-    </row>
-    <row r="27" spans="1:20" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="50"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="53" t="s">
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="61"/>
+      <c r="N33" s="61"/>
+      <c r="O33" s="61"/>
+      <c r="P33" s="61"/>
+      <c r="Q33" s="61"/>
+      <c r="R33" s="61"/>
+      <c r="S33" s="61"/>
+      <c r="T33" s="61"/>
+    </row>
+    <row r="34" spans="1:20" s="58" customFormat="1" ht="15" customHeight="1">
+      <c r="A34" s="53"/>
+      <c r="B34" s="59"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="53"/>
+    </row>
+    <row r="35" spans="1:20" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A35" s="49"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="67">
+      <c r="H35" s="66">
         <f>+H8</f>
         <v>22.386800000000001</v>
       </c>
-      <c r="I27" s="67">
-        <f t="shared" ref="I27:L27" si="6">+I8</f>
+      <c r="I35" s="66">
+        <f t="shared" ref="I35:L35" si="6">+I8</f>
         <v>24.7195</v>
       </c>
-      <c r="J27" s="67">
+      <c r="J35" s="66">
         <f t="shared" si="6"/>
         <v>26.508599999999998</v>
       </c>
-      <c r="K27" s="67">
+      <c r="K35" s="66">
         <f t="shared" si="6"/>
         <v>23.518000000000001</v>
       </c>
-      <c r="L27" s="67">
+      <c r="L35" s="66">
         <f t="shared" si="6"/>
         <v>29.060599999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:20" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A28" s="50"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="70" t="s">
+    <row r="36" spans="1:20" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A36" s="49"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="69" t="s">
         <v>149</v>
       </c>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="71">
+      <c r="D36" s="69"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="70">
         <f>+H14</f>
         <v>3.8967999999999998</v>
       </c>
-      <c r="I28" s="71">
-        <f t="shared" ref="I28:L28" si="7">+I14</f>
+      <c r="I36" s="70">
+        <f t="shared" ref="I36:L36" si="7">+I14</f>
         <v>3.8100999999999976</v>
       </c>
-      <c r="J28" s="71">
+      <c r="J36" s="70">
         <f t="shared" si="7"/>
         <v>3.9156999999999997</v>
       </c>
-      <c r="K28" s="71">
+      <c r="K36" s="70">
         <f t="shared" si="7"/>
         <v>1.5998999999999981</v>
       </c>
-      <c r="L28" s="71">
+      <c r="L36" s="70">
         <f t="shared" si="7"/>
         <v>4.7015999999999982</v>
       </c>
     </row>
-    <row r="29" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1">
-      <c r="A29" s="64"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72" t="s">
+    <row r="37" spans="1:20" s="65" customFormat="1" ht="15" customHeight="1">
+      <c r="A37" s="63"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71" t="s">
         <v>150</v>
       </c>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="73">
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="72">
         <f>+H14/H8</f>
         <v>0.17406686082870262</v>
       </c>
-      <c r="I29" s="73">
-        <f t="shared" ref="I29:L29" si="8">+I14/I8</f>
+      <c r="I37" s="72">
+        <f t="shared" ref="I37:L37" si="8">+I14/I8</f>
         <v>0.1541333764841521</v>
       </c>
-      <c r="J29" s="73">
+      <c r="J37" s="72">
         <f t="shared" si="8"/>
         <v>0.1477143266713444</v>
       </c>
-      <c r="K29" s="73">
+      <c r="K37" s="72">
         <f t="shared" si="8"/>
         <v>6.8028743940811209E-2</v>
       </c>
-      <c r="L29" s="73">
+      <c r="L37" s="72">
         <f t="shared" si="8"/>
         <v>0.16178606085215028</v>
       </c>
     </row>
-    <row r="30" spans="1:20" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A30" s="54"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="53" t="s">
+    <row r="38" spans="1:20" s="58" customFormat="1" ht="15" customHeight="1">
+      <c r="A38" s="53"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="53"/>
-      <c r="H30" s="68">
+      <c r="D38" s="52"/>
+      <c r="H38" s="67">
         <f>+H23</f>
         <v>2.7888000000000002</v>
       </c>
-      <c r="I30" s="68">
-        <f t="shared" ref="I30:L30" si="9">+I23</f>
+      <c r="I38" s="67">
+        <f t="shared" ref="I38:L38" si="9">+I23</f>
         <v>4.4490999999999978</v>
       </c>
-      <c r="J30" s="68">
+      <c r="J38" s="67">
         <f t="shared" si="9"/>
         <v>3.3598999999999997</v>
       </c>
-      <c r="K30" s="68">
+      <c r="K38" s="67">
         <f t="shared" si="9"/>
         <v>0.83439999999999825</v>
       </c>
-      <c r="L30" s="68">
+      <c r="L38" s="67">
         <f t="shared" si="9"/>
         <v>4.0418999999999974</v>
       </c>
     </row>
-    <row r="31" spans="1:20" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A31" s="54"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="66" t="s">
+    <row r="39" spans="1:20" s="58" customFormat="1" ht="15" customHeight="1">
+      <c r="A39" s="53"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="H31" s="69">
+      <c r="H39" s="68">
         <f>+H23/H8</f>
         <v>0.12457340933049833</v>
       </c>
-      <c r="I31" s="69">
-        <f t="shared" ref="I31:L31" si="10">+I23/I8</f>
+      <c r="I39" s="68">
+        <f t="shared" ref="I39:L39" si="10">+I23/I8</f>
         <v>0.17998341390400283</v>
       </c>
-      <c r="J31" s="69">
+      <c r="J39" s="68">
         <f t="shared" si="10"/>
         <v>0.12674754607938554</v>
       </c>
-      <c r="K31" s="69">
+      <c r="K39" s="68">
         <f t="shared" si="10"/>
         <v>3.5479207415596486E-2</v>
       </c>
-      <c r="L31" s="69">
+      <c r="L39" s="68">
         <f t="shared" si="10"/>
         <v>0.13908522191558323</v>
       </c>
     </row>
-    <row r="32" spans="1:20" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="54"/>
-      <c r="B32" s="60"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="54"/>
-    </row>
-    <row r="33" spans="1:10" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A33" s="54"/>
-      <c r="B33" s="60"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="54"/>
-    </row>
-    <row r="34" spans="1:10" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A34" s="54"/>
-      <c r="B34" s="60"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="54"/>
-    </row>
-    <row r="35" spans="1:10" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A35" s="54"/>
-      <c r="B35" s="60"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
+    <row r="40" spans="1:20" s="58" customFormat="1" ht="15" customHeight="1">
+      <c r="A40" s="53"/>
+      <c r="B40" s="59"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="53"/>
+    </row>
+    <row r="41" spans="1:20" s="58" customFormat="1" ht="15" customHeight="1">
+      <c r="A41" s="53"/>
+      <c r="B41" s="59"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="53"/>
+    </row>
+    <row r="42" spans="1:20" s="58" customFormat="1" ht="15" customHeight="1">
+      <c r="A42" s="53"/>
+      <c r="B42" s="59"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="53"/>
+    </row>
+    <row r="43" spans="1:20" s="58" customFormat="1" ht="15" customHeight="1">
+      <c r="A43" s="53"/>
+      <c r="B43" s="59"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11597,7 +11785,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -11619,684 +11809,684 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="54"/>
-      <c r="B3" s="77" t="s">
+    <row r="3" spans="1:10" s="58" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="53"/>
+      <c r="B3" s="76" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="77" t="s">
         <v>152</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="77" t="s">
         <v>153</v>
       </c>
-      <c r="E3" s="78" t="s">
+      <c r="E3" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="F3" s="79" t="s">
+      <c r="F3" s="78" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-    </row>
-    <row r="4" spans="1:10" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="54"/>
-      <c r="B4" s="75">
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+    </row>
+    <row r="4" spans="1:10" s="58" customFormat="1" ht="15" customHeight="1">
+      <c r="A4" s="53"/>
+      <c r="B4" s="74">
         <v>44938</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F4" s="76">
+      <c r="F4" s="75">
         <v>5</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-    </row>
-    <row r="5" spans="1:10" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="54"/>
-      <c r="B5" s="75">
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+    </row>
+    <row r="5" spans="1:10" s="58" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="53"/>
+      <c r="B5" s="74">
         <v>44938</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="F5" s="76">
+      <c r="F5" s="75">
         <v>4.5</v>
       </c>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-    </row>
-    <row r="6" spans="1:10" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="54"/>
-      <c r="B6" s="75">
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+    </row>
+    <row r="6" spans="1:10" s="58" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="53"/>
+      <c r="B6" s="74">
         <v>44938</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F6" s="76">
+      <c r="F6" s="75">
         <v>5</v>
       </c>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1">
-      <c r="B7" s="75">
+      <c r="B7" s="74">
         <v>44938</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="E7" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="F7" s="76">
+      <c r="F7" s="75">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1">
-      <c r="B8" s="75">
+      <c r="B8" s="74">
         <v>44938</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F8" s="76">
+      <c r="F8" s="75">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1">
-      <c r="B9" s="75">
+      <c r="B9" s="74">
         <v>44938</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="F9" s="76">
+      <c r="F9" s="75">
         <v>4.5</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1">
-      <c r="B10" s="75">
+      <c r="B10" s="74">
         <v>44938</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="E10" s="59" t="s">
+      <c r="E10" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F10" s="76">
+      <c r="F10" s="75">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1">
-      <c r="B11" s="75">
+      <c r="B11" s="74">
         <v>44938</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D11" s="59" t="s">
+      <c r="D11" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E11" s="59" t="s">
+      <c r="E11" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F11" s="76">
+      <c r="F11" s="75">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1">
-      <c r="B12" s="75">
+      <c r="B12" s="74">
         <v>44938</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="E12" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F12" s="76">
+      <c r="F12" s="75">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
-      <c r="B13" s="75">
+      <c r="B13" s="74">
         <v>44939</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E13" s="59" t="s">
+      <c r="E13" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F13" s="76">
+      <c r="F13" s="75">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1">
-      <c r="B14" s="75">
+      <c r="B14" s="74">
         <v>44939</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E14" s="59" t="s">
+      <c r="E14" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="F14" s="76">
+      <c r="F14" s="75">
         <v>4.5</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1">
-      <c r="B15" s="75">
+      <c r="B15" s="74">
         <v>44939</v>
       </c>
-      <c r="C15" s="59" t="s">
+      <c r="C15" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D15" s="59" t="s">
+      <c r="D15" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="E15" s="59" t="s">
+      <c r="E15" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="F15" s="76">
+      <c r="F15" s="75">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1">
-      <c r="B16" s="75">
+      <c r="B16" s="74">
         <v>44939</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D16" s="59" t="s">
+      <c r="D16" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E16" s="59" t="s">
+      <c r="E16" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F16" s="76">
+      <c r="F16" s="75">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="15" customHeight="1">
-      <c r="B17" s="75">
+      <c r="B17" s="74">
         <v>44939</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D17" s="59" t="s">
+      <c r="D17" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E17" s="59" t="s">
+      <c r="E17" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="F17" s="76">
+      <c r="F17" s="75">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="15" customHeight="1">
-      <c r="B18" s="75">
+      <c r="B18" s="74">
         <v>44939</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D18" s="59" t="s">
+      <c r="D18" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="E18" s="59" t="s">
+      <c r="E18" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F18" s="76">
+      <c r="F18" s="75">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15" customHeight="1">
-      <c r="B19" s="75">
+      <c r="B19" s="74">
         <v>44939</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D19" s="59" t="s">
+      <c r="D19" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E19" s="59" t="s">
+      <c r="E19" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="F19" s="76">
+      <c r="F19" s="75">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="15" customHeight="1">
-      <c r="B20" s="75">
+      <c r="B20" s="74">
         <v>44939</v>
       </c>
-      <c r="C20" s="59" t="s">
+      <c r="C20" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D20" s="59" t="s">
+      <c r="D20" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E20" s="59" t="s">
+      <c r="E20" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F20" s="76">
+      <c r="F20" s="75">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="15" customHeight="1">
-      <c r="B21" s="75">
+      <c r="B21" s="74">
         <v>44939</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D21" s="59" t="s">
+      <c r="D21" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="E21" s="59" t="s">
+      <c r="E21" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F21" s="76">
+      <c r="F21" s="75">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="15" customHeight="1">
-      <c r="B22" s="75">
+      <c r="B22" s="74">
         <v>44939</v>
       </c>
-      <c r="C22" s="59" t="s">
+      <c r="C22" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D22" s="59" t="s">
+      <c r="D22" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E22" s="59" t="s">
+      <c r="E22" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="F22" s="76">
+      <c r="F22" s="75">
         <v>4.5</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15" customHeight="1">
-      <c r="B23" s="75">
+      <c r="B23" s="74">
         <v>44939</v>
       </c>
-      <c r="C23" s="59" t="s">
+      <c r="C23" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D23" s="59" t="s">
+      <c r="D23" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="E23" s="59" t="s">
+      <c r="E23" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F23" s="76">
+      <c r="F23" s="75">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="15" customHeight="1">
-      <c r="B24" s="75">
+      <c r="B24" s="74">
         <v>44939</v>
       </c>
-      <c r="C24" s="59" t="s">
+      <c r="C24" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D24" s="59" t="s">
+      <c r="D24" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="E24" s="59" t="s">
+      <c r="E24" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="F24" s="76">
+      <c r="F24" s="75">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="15" customHeight="1">
-      <c r="B25" s="75">
+      <c r="B25" s="74">
         <v>44940</v>
       </c>
-      <c r="C25" s="59" t="s">
+      <c r="C25" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D25" s="59" t="s">
+      <c r="D25" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E25" s="59" t="s">
+      <c r="E25" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="F25" s="76">
+      <c r="F25" s="75">
         <v>4.5</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="15" customHeight="1">
-      <c r="B26" s="75">
+      <c r="B26" s="74">
         <v>44940</v>
       </c>
-      <c r="C26" s="59" t="s">
+      <c r="C26" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D26" s="59" t="s">
+      <c r="D26" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="E26" s="59" t="s">
+      <c r="E26" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F26" s="76">
+      <c r="F26" s="75">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="15" customHeight="1">
-      <c r="B27" s="75">
+      <c r="B27" s="74">
         <v>44940</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D27" s="59" t="s">
+      <c r="D27" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E27" s="59" t="s">
+      <c r="E27" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F27" s="76">
+      <c r="F27" s="75">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="15" customHeight="1">
-      <c r="B28" s="75">
+      <c r="B28" s="74">
         <v>44940</v>
       </c>
-      <c r="C28" s="59" t="s">
+      <c r="C28" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D28" s="59" t="s">
+      <c r="D28" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E28" s="59" t="s">
+      <c r="E28" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="F28" s="76">
+      <c r="F28" s="75">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="15" customHeight="1">
-      <c r="B29" s="75">
+      <c r="B29" s="74">
         <v>44940</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D29" s="59" t="s">
+      <c r="D29" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="E29" s="59" t="s">
+      <c r="E29" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F29" s="76">
+      <c r="F29" s="75">
         <v>5</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="15" customHeight="1">
-      <c r="B30" s="75">
+      <c r="B30" s="74">
         <v>44940</v>
       </c>
-      <c r="C30" s="59" t="s">
+      <c r="C30" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D30" s="59" t="s">
+      <c r="D30" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="E30" s="59" t="s">
+      <c r="E30" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="F30" s="76">
+      <c r="F30" s="75">
         <v>4.5</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="15" customHeight="1">
-      <c r="B31" s="75">
+      <c r="B31" s="74">
         <v>44941</v>
       </c>
-      <c r="C31" s="59" t="s">
+      <c r="C31" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D31" s="59" t="s">
+      <c r="D31" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E31" s="59" t="s">
+      <c r="E31" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F31" s="76">
+      <c r="F31" s="75">
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="15" customHeight="1">
-      <c r="B32" s="75">
+      <c r="B32" s="74">
         <v>44941</v>
       </c>
-      <c r="C32" s="59" t="s">
+      <c r="C32" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D32" s="59" t="s">
+      <c r="D32" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="E32" s="59" t="s">
+      <c r="E32" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="F32" s="76">
+      <c r="F32" s="75">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="15" customHeight="1">
-      <c r="B33" s="75">
+      <c r="B33" s="74">
         <v>44941</v>
       </c>
-      <c r="C33" s="59" t="s">
+      <c r="C33" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D33" s="59" t="s">
+      <c r="D33" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E33" s="59" t="s">
+      <c r="E33" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F33" s="76">
+      <c r="F33" s="75">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="15" customHeight="1">
-      <c r="B34" s="75">
+      <c r="B34" s="74">
         <v>44941</v>
       </c>
-      <c r="C34" s="59" t="s">
+      <c r="C34" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D34" s="59" t="s">
+      <c r="D34" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="E34" s="59" t="s">
+      <c r="E34" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="F34" s="76">
+      <c r="F34" s="75">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="15" customHeight="1">
-      <c r="B35" s="75">
+      <c r="B35" s="74">
         <v>44941</v>
       </c>
-      <c r="C35" s="59" t="s">
+      <c r="C35" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D35" s="59" t="s">
+      <c r="D35" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E35" s="59" t="s">
+      <c r="E35" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F35" s="76">
+      <c r="F35" s="75">
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="15" customHeight="1">
-      <c r="B36" s="75">
+      <c r="B36" s="74">
         <v>44941</v>
       </c>
-      <c r="C36" s="59" t="s">
+      <c r="C36" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D36" s="59" t="s">
+      <c r="D36" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E36" s="59" t="s">
+      <c r="E36" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="F36" s="76">
+      <c r="F36" s="75">
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="15" customHeight="1">
-      <c r="B37" s="75">
+      <c r="B37" s="74">
         <v>44941</v>
       </c>
-      <c r="C37" s="59" t="s">
+      <c r="C37" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D37" s="59" t="s">
+      <c r="D37" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E37" s="59" t="s">
+      <c r="E37" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F37" s="76">
+      <c r="F37" s="75">
         <v>5</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="15" customHeight="1">
-      <c r="B38" s="75">
+      <c r="B38" s="74">
         <v>44941</v>
       </c>
-      <c r="C38" s="59" t="s">
+      <c r="C38" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D38" s="59" t="s">
+      <c r="D38" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="E38" s="59" t="s">
+      <c r="E38" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="F38" s="76">
+      <c r="F38" s="75">
         <v>4.5</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="15" customHeight="1">
-      <c r="B39" s="75">
+      <c r="B39" s="74">
         <v>44941</v>
       </c>
-      <c r="C39" s="59" t="s">
+      <c r="C39" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D39" s="59" t="s">
+      <c r="D39" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="E39" s="59" t="s">
+      <c r="E39" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F39" s="76">
+      <c r="F39" s="75">
         <v>5</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="15" customHeight="1">
-      <c r="B40" s="75">
+      <c r="B40" s="74">
         <v>44941</v>
       </c>
-      <c r="C40" s="59" t="s">
+      <c r="C40" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D40" s="59" t="s">
+      <c r="D40" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E40" s="59" t="s">
+      <c r="E40" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="F40" s="76">
+      <c r="F40" s="75">
         <v>3</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="15" customHeight="1">
-      <c r="B41" s="75">
+      <c r="B41" s="74">
         <v>44941</v>
       </c>
-      <c r="C41" s="59" t="s">
+      <c r="C41" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D41" s="59" t="s">
+      <c r="D41" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="E41" s="59" t="s">
+      <c r="E41" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="F41" s="76">
+      <c r="F41" s="75">
         <v>3</v>
       </c>
     </row>
@@ -12311,7 +12501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T86"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD23"/>
     </sheetView>
   </sheetViews>
@@ -12360,7 +12550,7 @@
         <v>2</v>
       </c>
       <c r="S3" s="8"/>
-      <c r="T3" s="180" t="s">
+      <c r="T3" s="226" t="s">
         <v>3</v>
       </c>
     </row>
@@ -12418,7 +12608,7 @@
       <c r="S4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="181"/>
+      <c r="T4" s="227"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1">
       <c r="B5" s="17"/>
@@ -14983,15 +15173,15 @@
       <c r="A4" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="83" t="s">
         <v>178</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
       <c r="K4" s="17"/>
@@ -15158,22 +15348,22 @@
       <c r="B10" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="80">
+      <c r="C10" s="79">
         <v>6387</v>
       </c>
-      <c r="D10" s="80">
+      <c r="D10" s="79">
         <v>191</v>
       </c>
-      <c r="E10" s="80">
+      <c r="E10" s="79">
         <v>-100</v>
       </c>
-      <c r="F10" s="80">
+      <c r="F10" s="79">
         <v>19</v>
       </c>
-      <c r="G10" s="80">
+      <c r="G10" s="79">
         <v>110</v>
       </c>
-      <c r="H10" s="80">
+      <c r="H10" s="79">
         <v>6497</v>
       </c>
       <c r="I10" s="17"/>
@@ -15193,22 +15383,22 @@
       <c r="B11" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="80">
+      <c r="C11" s="79">
         <v>444</v>
       </c>
-      <c r="D11" s="80">
+      <c r="D11" s="79">
         <v>48</v>
       </c>
-      <c r="E11" s="80">
+      <c r="E11" s="79">
         <v>-28</v>
       </c>
-      <c r="F11" s="80">
+      <c r="F11" s="79">
         <v>4</v>
       </c>
-      <c r="G11" s="80">
+      <c r="G11" s="79">
         <v>24</v>
       </c>
-      <c r="H11" s="80">
+      <c r="H11" s="79">
         <v>468</v>
       </c>
       <c r="I11" s="17"/>
@@ -15228,22 +15418,22 @@
       <c r="B12" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="80">
+      <c r="C12" s="79">
         <v>6831</v>
       </c>
-      <c r="D12" s="80">
+      <c r="D12" s="79">
         <v>239</v>
       </c>
-      <c r="E12" s="80">
+      <c r="E12" s="79">
         <v>-128</v>
       </c>
-      <c r="F12" s="80">
+      <c r="F12" s="79">
         <v>23</v>
       </c>
-      <c r="G12" s="80">
+      <c r="G12" s="79">
         <v>134</v>
       </c>
-      <c r="H12" s="80">
+      <c r="H12" s="79">
         <v>6965</v>
       </c>
       <c r="I12" s="17"/>
@@ -15286,22 +15476,22 @@
       <c r="B14" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="80">
+      <c r="C14" s="79">
         <v>1468</v>
       </c>
-      <c r="D14" s="80">
+      <c r="D14" s="79">
         <v>166</v>
       </c>
-      <c r="E14" s="80">
+      <c r="E14" s="79">
         <v>-23</v>
       </c>
       <c r="F14" s="42">
         <v>0</v>
       </c>
-      <c r="G14" s="80">
+      <c r="G14" s="79">
         <v>143</v>
       </c>
-      <c r="H14" s="80">
+      <c r="H14" s="79">
         <v>1611</v>
       </c>
       <c r="I14" s="17"/>
@@ -15321,22 +15511,22 @@
       <c r="B15" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="80">
+      <c r="C15" s="79">
         <v>752</v>
       </c>
-      <c r="D15" s="80">
+      <c r="D15" s="79">
         <v>7</v>
       </c>
-      <c r="E15" s="80">
+      <c r="E15" s="79">
         <v>-13</v>
       </c>
       <c r="F15" s="42">
         <v>0</v>
       </c>
-      <c r="G15" s="80">
+      <c r="G15" s="79">
         <v>-6</v>
       </c>
-      <c r="H15" s="80">
+      <c r="H15" s="79">
         <v>746</v>
       </c>
       <c r="I15" s="17"/>
@@ -15356,22 +15546,22 @@
       <c r="B16" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="80">
+      <c r="C16" s="79">
         <v>737</v>
       </c>
-      <c r="D16" s="80">
+      <c r="D16" s="79">
         <v>68</v>
       </c>
-      <c r="E16" s="80">
+      <c r="E16" s="79">
         <v>-14</v>
       </c>
       <c r="F16" s="42">
         <v>0</v>
       </c>
-      <c r="G16" s="80">
+      <c r="G16" s="79">
         <v>54</v>
       </c>
-      <c r="H16" s="80">
+      <c r="H16" s="79">
         <v>791</v>
       </c>
       <c r="I16" s="17"/>
@@ -15391,22 +15581,22 @@
       <c r="B17" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="80">
+      <c r="C17" s="79">
         <v>662</v>
       </c>
-      <c r="D17" s="80">
+      <c r="D17" s="79">
         <v>35</v>
       </c>
-      <c r="E17" s="80">
+      <c r="E17" s="79">
         <v>-6</v>
       </c>
       <c r="F17" s="42">
         <v>0</v>
       </c>
-      <c r="G17" s="80">
+      <c r="G17" s="79">
         <v>29</v>
       </c>
-      <c r="H17" s="80">
+      <c r="H17" s="79">
         <v>691</v>
       </c>
       <c r="I17" s="17"/>
@@ -15426,22 +15616,22 @@
       <c r="B18" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="C18" s="80">
+      <c r="C18" s="79">
         <v>530</v>
       </c>
-      <c r="D18" s="80">
+      <c r="D18" s="79">
         <v>36</v>
       </c>
-      <c r="E18" s="80">
+      <c r="E18" s="79">
         <v>-7</v>
       </c>
       <c r="F18" s="42">
         <v>0</v>
       </c>
-      <c r="G18" s="80">
+      <c r="G18" s="79">
         <v>29</v>
       </c>
-      <c r="H18" s="80">
+      <c r="H18" s="79">
         <v>559</v>
       </c>
       <c r="I18" s="17"/>
@@ -15461,22 +15651,22 @@
       <c r="B19" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="80">
+      <c r="C19" s="79">
         <v>501</v>
       </c>
-      <c r="D19" s="80">
+      <c r="D19" s="79">
         <v>28</v>
       </c>
-      <c r="E19" s="80">
+      <c r="E19" s="79">
         <v>-6</v>
       </c>
       <c r="F19" s="42">
         <v>0</v>
       </c>
-      <c r="G19" s="80">
+      <c r="G19" s="79">
         <v>22</v>
       </c>
-      <c r="H19" s="80">
+      <c r="H19" s="79">
         <v>523</v>
       </c>
       <c r="I19" s="17"/>
@@ -15496,10 +15686,10 @@
       <c r="B20" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="C20" s="80">
+      <c r="C20" s="79">
         <v>458</v>
       </c>
-      <c r="D20" s="80">
+      <c r="D20" s="79">
         <v>29</v>
       </c>
       <c r="E20" s="42">
@@ -15508,10 +15698,10 @@
       <c r="F20" s="42">
         <v>0</v>
       </c>
-      <c r="G20" s="80">
+      <c r="G20" s="79">
         <v>29</v>
       </c>
-      <c r="H20" s="80">
+      <c r="H20" s="79">
         <v>487</v>
       </c>
       <c r="I20" s="17"/>
@@ -15531,22 +15721,22 @@
       <c r="B21" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="80">
+      <c r="C21" s="79">
         <v>405</v>
       </c>
-      <c r="D21" s="80">
+      <c r="D21" s="79">
         <v>26</v>
       </c>
-      <c r="E21" s="80">
+      <c r="E21" s="79">
         <v>-6</v>
       </c>
       <c r="F21" s="42">
         <v>0</v>
       </c>
-      <c r="G21" s="80">
+      <c r="G21" s="79">
         <v>20</v>
       </c>
-      <c r="H21" s="80">
+      <c r="H21" s="79">
         <v>425</v>
       </c>
       <c r="I21" s="17"/>
@@ -15566,10 +15756,10 @@
       <c r="B22" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="80">
+      <c r="C22" s="79">
         <v>396</v>
       </c>
-      <c r="D22" s="80">
+      <c r="D22" s="79">
         <v>5</v>
       </c>
       <c r="E22" s="42">
@@ -15578,10 +15768,10 @@
       <c r="F22" s="42">
         <v>0</v>
       </c>
-      <c r="G22" s="80">
+      <c r="G22" s="79">
         <v>5</v>
       </c>
-      <c r="H22" s="80">
+      <c r="H22" s="79">
         <v>401</v>
       </c>
       <c r="I22" s="17"/>
@@ -15601,22 +15791,22 @@
       <c r="B23" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="80">
+      <c r="C23" s="79">
         <v>3283</v>
       </c>
-      <c r="D23" s="80">
+      <c r="D23" s="79">
         <v>313</v>
       </c>
-      <c r="E23" s="80">
+      <c r="E23" s="79">
         <v>-97</v>
       </c>
-      <c r="F23" s="80">
+      <c r="F23" s="79">
         <v>2</v>
       </c>
-      <c r="G23" s="80">
+      <c r="G23" s="79">
         <v>218</v>
       </c>
-      <c r="H23" s="80">
+      <c r="H23" s="79">
         <v>3501</v>
       </c>
       <c r="I23" s="17"/>
@@ -15636,22 +15826,22 @@
       <c r="B24" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="80">
+      <c r="C24" s="79">
         <v>9192</v>
       </c>
-      <c r="D24" s="80">
+      <c r="D24" s="79">
         <v>713</v>
       </c>
-      <c r="E24" s="80">
+      <c r="E24" s="79">
         <v>-172</v>
       </c>
-      <c r="F24" s="80">
+      <c r="F24" s="79">
         <v>2</v>
       </c>
-      <c r="G24" s="80">
+      <c r="G24" s="79">
         <v>543</v>
       </c>
-      <c r="H24" s="80">
+      <c r="H24" s="79">
         <v>9735</v>
       </c>
       <c r="I24" s="17"/>
@@ -15692,22 +15882,22 @@
       <c r="B26" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="C26" s="80">
+      <c r="C26" s="79">
         <v>16023</v>
       </c>
-      <c r="D26" s="80">
+      <c r="D26" s="79">
         <v>952</v>
       </c>
-      <c r="E26" s="80">
+      <c r="E26" s="79">
         <v>-300</v>
       </c>
-      <c r="F26" s="80">
+      <c r="F26" s="79">
         <v>25</v>
       </c>
-      <c r="G26" s="80">
+      <c r="G26" s="79">
         <v>677</v>
       </c>
-      <c r="H26" s="80">
+      <c r="H26" s="79">
         <v>16700</v>
       </c>
       <c r="I26" s="17"/>
@@ -15748,15 +15938,15 @@
       <c r="A28" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="84" t="s">
+      <c r="B28" s="83" t="s">
         <v>179</v>
       </c>
-      <c r="C28" s="85"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="85"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="84"/>
       <c r="I28" s="17"/>
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
@@ -15792,25 +15982,25 @@
       <c r="T29" s="17"/>
     </row>
     <row r="30" spans="1:20" ht="15" customHeight="1">
-      <c r="B30" s="81" t="s">
+      <c r="B30" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="82" t="s">
+      <c r="C30" s="81" t="s">
         <v>183</v>
       </c>
-      <c r="D30" s="82" t="s">
+      <c r="D30" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="E30" s="82" t="s">
+      <c r="E30" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="F30" s="82" t="s">
+      <c r="F30" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="G30" s="82" t="s">
+      <c r="G30" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="H30" s="83" t="s">
+      <c r="H30" s="82" t="s">
         <v>183</v>
       </c>
       <c r="I30" s="17"/>
@@ -15827,25 +16017,25 @@
       <c r="T30" s="17"/>
     </row>
     <row r="31" spans="1:20" ht="15" customHeight="1">
-      <c r="B31" s="81" t="s">
+      <c r="B31" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="82" t="s">
+      <c r="C31" s="81" t="s">
         <v>184</v>
       </c>
-      <c r="D31" s="82" t="s">
+      <c r="D31" s="81" t="s">
         <v>180</v>
       </c>
-      <c r="E31" s="82" t="s">
+      <c r="E31" s="81" t="s">
         <v>181</v>
       </c>
-      <c r="F31" s="82" t="s">
+      <c r="F31" s="81" t="s">
         <v>182</v>
       </c>
-      <c r="G31" s="82" t="s">
+      <c r="G31" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="H31" s="83" t="s">
+      <c r="H31" s="82" t="s">
         <v>185</v>
       </c>
       <c r="I31" s="17"/>
@@ -15863,15 +16053,15 @@
     </row>
     <row r="32" spans="1:20" s="39" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="38"/>
-      <c r="B32" s="86" t="s">
+      <c r="B32" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="87"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="87"/>
-      <c r="G32" s="87"/>
-      <c r="H32" s="88"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="86"/>
+      <c r="H32" s="87"/>
       <c r="I32" s="20"/>
       <c r="J32" s="20"/>
       <c r="K32" s="20"/>
@@ -15886,25 +16076,25 @@
       <c r="T32" s="20"/>
     </row>
     <row r="33" spans="1:20" ht="15" customHeight="1">
-      <c r="B33" s="101" t="s">
+      <c r="B33" s="100" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="102">
+      <c r="C33" s="101">
         <v>6387</v>
       </c>
-      <c r="D33" s="102">
+      <c r="D33" s="101">
         <v>191</v>
       </c>
-      <c r="E33" s="102">
+      <c r="E33" s="101">
         <v>-100</v>
       </c>
-      <c r="F33" s="102">
+      <c r="F33" s="101">
         <v>19</v>
       </c>
-      <c r="G33" s="102">
+      <c r="G33" s="101">
         <v>110</v>
       </c>
-      <c r="H33" s="103">
+      <c r="H33" s="102">
         <v>6497</v>
       </c>
       <c r="I33" s="17"/>
@@ -15921,25 +16111,25 @@
       <c r="T33" s="17"/>
     </row>
     <row r="34" spans="1:20" ht="15" customHeight="1">
-      <c r="B34" s="89" t="s">
+      <c r="B34" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="C34" s="90">
+      <c r="C34" s="89">
         <v>444</v>
       </c>
-      <c r="D34" s="90">
+      <c r="D34" s="89">
         <v>48</v>
       </c>
-      <c r="E34" s="90">
+      <c r="E34" s="89">
         <v>-28</v>
       </c>
-      <c r="F34" s="90">
+      <c r="F34" s="89">
         <v>4</v>
       </c>
-      <c r="G34" s="90">
+      <c r="G34" s="89">
         <v>24</v>
       </c>
-      <c r="H34" s="91">
+      <c r="H34" s="90">
         <v>468</v>
       </c>
       <c r="I34" s="17"/>
@@ -15956,25 +16146,25 @@
       <c r="T34" s="17"/>
     </row>
     <row r="35" spans="1:20" ht="15" customHeight="1">
-      <c r="B35" s="104" t="s">
+      <c r="B35" s="103" t="s">
         <v>186</v>
       </c>
-      <c r="C35" s="105">
+      <c r="C35" s="104">
         <v>6831</v>
       </c>
-      <c r="D35" s="105">
+      <c r="D35" s="104">
         <v>239</v>
       </c>
-      <c r="E35" s="105">
+      <c r="E35" s="104">
         <v>-128</v>
       </c>
-      <c r="F35" s="105">
+      <c r="F35" s="104">
         <v>23</v>
       </c>
-      <c r="G35" s="105">
+      <c r="G35" s="104">
         <v>134</v>
       </c>
-      <c r="H35" s="106">
+      <c r="H35" s="105">
         <v>6965</v>
       </c>
       <c r="I35" s="17"/>
@@ -15992,15 +16182,15 @@
     </row>
     <row r="36" spans="1:20" s="39" customFormat="1" ht="15" customHeight="1">
       <c r="A36" s="38"/>
-      <c r="B36" s="92" t="s">
+      <c r="B36" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="C36" s="93"/>
-      <c r="D36" s="93"/>
-      <c r="E36" s="93"/>
-      <c r="F36" s="93"/>
-      <c r="G36" s="93"/>
-      <c r="H36" s="94"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="92"/>
+      <c r="F36" s="92"/>
+      <c r="G36" s="92"/>
+      <c r="H36" s="93"/>
       <c r="I36" s="20"/>
       <c r="J36" s="20"/>
       <c r="K36" s="20"/>
@@ -16015,25 +16205,25 @@
       <c r="T36" s="20"/>
     </row>
     <row r="37" spans="1:20" ht="15" customHeight="1">
-      <c r="B37" s="107" t="s">
+      <c r="B37" s="106" t="s">
         <v>100</v>
       </c>
-      <c r="C37" s="108">
+      <c r="C37" s="107">
         <v>1468</v>
       </c>
-      <c r="D37" s="108">
+      <c r="D37" s="107">
         <v>166</v>
       </c>
-      <c r="E37" s="108">
+      <c r="E37" s="107">
         <v>-23</v>
       </c>
-      <c r="F37" s="108">
+      <c r="F37" s="107">
         <v>0</v>
       </c>
-      <c r="G37" s="108">
+      <c r="G37" s="107">
         <v>143</v>
       </c>
-      <c r="H37" s="109">
+      <c r="H37" s="108">
         <v>1611</v>
       </c>
       <c r="I37" s="17"/>
@@ -16050,25 +16240,25 @@
       <c r="T37" s="17"/>
     </row>
     <row r="38" spans="1:20" ht="15" customHeight="1">
-      <c r="B38" s="95" t="s">
+      <c r="B38" s="94" t="s">
         <v>101</v>
       </c>
-      <c r="C38" s="96">
+      <c r="C38" s="95">
         <v>752</v>
       </c>
-      <c r="D38" s="96">
+      <c r="D38" s="95">
         <v>7</v>
       </c>
-      <c r="E38" s="96">
+      <c r="E38" s="95">
         <v>-13</v>
       </c>
-      <c r="F38" s="96">
+      <c r="F38" s="95">
         <v>0</v>
       </c>
-      <c r="G38" s="96">
+      <c r="G38" s="95">
         <v>-6</v>
       </c>
-      <c r="H38" s="97">
+      <c r="H38" s="96">
         <v>746</v>
       </c>
       <c r="I38" s="17"/>
@@ -16085,25 +16275,25 @@
       <c r="T38" s="17"/>
     </row>
     <row r="39" spans="1:20" ht="15" customHeight="1">
-      <c r="B39" s="107" t="s">
+      <c r="B39" s="106" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="108">
+      <c r="C39" s="107">
         <v>737</v>
       </c>
-      <c r="D39" s="108">
+      <c r="D39" s="107">
         <v>68</v>
       </c>
-      <c r="E39" s="108">
+      <c r="E39" s="107">
         <v>-14</v>
       </c>
-      <c r="F39" s="108">
+      <c r="F39" s="107">
         <v>0</v>
       </c>
-      <c r="G39" s="108">
+      <c r="G39" s="107">
         <v>54</v>
       </c>
-      <c r="H39" s="109">
+      <c r="H39" s="108">
         <v>791</v>
       </c>
       <c r="I39" s="17"/>
@@ -16120,25 +16310,25 @@
       <c r="T39" s="17"/>
     </row>
     <row r="40" spans="1:20" ht="15" customHeight="1">
-      <c r="B40" s="95" t="s">
+      <c r="B40" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="C40" s="96">
+      <c r="C40" s="95">
         <v>662</v>
       </c>
-      <c r="D40" s="96">
+      <c r="D40" s="95">
         <v>35</v>
       </c>
-      <c r="E40" s="96">
+      <c r="E40" s="95">
         <v>-6</v>
       </c>
-      <c r="F40" s="96">
+      <c r="F40" s="95">
         <v>0</v>
       </c>
-      <c r="G40" s="96">
+      <c r="G40" s="95">
         <v>29</v>
       </c>
-      <c r="H40" s="97">
+      <c r="H40" s="96">
         <v>691</v>
       </c>
       <c r="I40" s="17"/>
@@ -16155,25 +16345,25 @@
       <c r="T40" s="17"/>
     </row>
     <row r="41" spans="1:20" ht="15" customHeight="1">
-      <c r="B41" s="107" t="s">
+      <c r="B41" s="106" t="s">
         <v>104</v>
       </c>
-      <c r="C41" s="108">
+      <c r="C41" s="107">
         <v>530</v>
       </c>
-      <c r="D41" s="108">
+      <c r="D41" s="107">
         <v>36</v>
       </c>
-      <c r="E41" s="108">
+      <c r="E41" s="107">
         <v>-7</v>
       </c>
-      <c r="F41" s="108">
+      <c r="F41" s="107">
         <v>0</v>
       </c>
-      <c r="G41" s="108">
+      <c r="G41" s="107">
         <v>29</v>
       </c>
-      <c r="H41" s="109">
+      <c r="H41" s="108">
         <v>559</v>
       </c>
       <c r="I41" s="17"/>
@@ -16190,164 +16380,164 @@
       <c r="T41" s="17"/>
     </row>
     <row r="42" spans="1:20" ht="15" customHeight="1">
-      <c r="B42" s="95" t="s">
+      <c r="B42" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="96">
+      <c r="C42" s="95">
         <v>501</v>
       </c>
-      <c r="D42" s="96">
+      <c r="D42" s="95">
         <v>28</v>
       </c>
-      <c r="E42" s="96">
+      <c r="E42" s="95">
         <v>-6</v>
       </c>
-      <c r="F42" s="96">
+      <c r="F42" s="95">
         <v>0</v>
       </c>
-      <c r="G42" s="96">
+      <c r="G42" s="95">
         <v>22</v>
       </c>
-      <c r="H42" s="97">
+      <c r="H42" s="96">
         <v>523</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="15" customHeight="1">
-      <c r="B43" s="107" t="s">
+      <c r="B43" s="106" t="s">
         <v>106</v>
       </c>
-      <c r="C43" s="108">
+      <c r="C43" s="107">
         <v>458</v>
       </c>
-      <c r="D43" s="108">
+      <c r="D43" s="107">
         <v>29</v>
       </c>
-      <c r="E43" s="108">
+      <c r="E43" s="107">
         <v>0</v>
       </c>
-      <c r="F43" s="108">
+      <c r="F43" s="107">
         <v>0</v>
       </c>
-      <c r="G43" s="108">
+      <c r="G43" s="107">
         <v>29</v>
       </c>
-      <c r="H43" s="109">
+      <c r="H43" s="108">
         <v>487</v>
       </c>
     </row>
     <row r="44" spans="1:20" ht="15" customHeight="1">
-      <c r="B44" s="95" t="s">
+      <c r="B44" s="94" t="s">
         <v>107</v>
       </c>
-      <c r="C44" s="96">
+      <c r="C44" s="95">
         <v>405</v>
       </c>
-      <c r="D44" s="96">
+      <c r="D44" s="95">
         <v>26</v>
       </c>
-      <c r="E44" s="96">
+      <c r="E44" s="95">
         <v>-6</v>
       </c>
-      <c r="F44" s="96">
+      <c r="F44" s="95">
         <v>0</v>
       </c>
-      <c r="G44" s="96">
+      <c r="G44" s="95">
         <v>20</v>
       </c>
-      <c r="H44" s="97">
+      <c r="H44" s="96">
         <v>425</v>
       </c>
     </row>
     <row r="45" spans="1:20" ht="15" customHeight="1">
-      <c r="B45" s="107" t="s">
+      <c r="B45" s="106" t="s">
         <v>108</v>
       </c>
-      <c r="C45" s="108">
+      <c r="C45" s="107">
         <v>396</v>
       </c>
-      <c r="D45" s="108">
+      <c r="D45" s="107">
         <v>5</v>
       </c>
-      <c r="E45" s="108">
+      <c r="E45" s="107">
         <v>0</v>
       </c>
-      <c r="F45" s="108">
+      <c r="F45" s="107">
         <v>0</v>
       </c>
-      <c r="G45" s="108">
+      <c r="G45" s="107">
         <v>5</v>
       </c>
-      <c r="H45" s="109">
+      <c r="H45" s="108">
         <v>401</v>
       </c>
     </row>
     <row r="46" spans="1:20" ht="15" customHeight="1">
-      <c r="B46" s="95" t="s">
+      <c r="B46" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="C46" s="96">
+      <c r="C46" s="95">
         <v>3283</v>
       </c>
-      <c r="D46" s="96">
+      <c r="D46" s="95">
         <v>313</v>
       </c>
-      <c r="E46" s="96">
+      <c r="E46" s="95">
         <v>-97</v>
       </c>
-      <c r="F46" s="96">
+      <c r="F46" s="95">
         <v>2</v>
       </c>
-      <c r="G46" s="96">
+      <c r="G46" s="95">
         <v>218</v>
       </c>
-      <c r="H46" s="97">
+      <c r="H46" s="96">
         <v>3501</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="15" customHeight="1">
-      <c r="B47" s="110" t="s">
+      <c r="B47" s="109" t="s">
         <v>187</v>
       </c>
-      <c r="C47" s="111">
+      <c r="C47" s="110">
         <v>9192</v>
       </c>
-      <c r="D47" s="111">
+      <c r="D47" s="110">
         <v>713</v>
       </c>
-      <c r="E47" s="111">
+      <c r="E47" s="110">
         <v>-172</v>
       </c>
-      <c r="F47" s="111">
+      <c r="F47" s="110">
         <v>2</v>
       </c>
-      <c r="G47" s="111">
+      <c r="G47" s="110">
         <v>543</v>
       </c>
-      <c r="H47" s="112">
+      <c r="H47" s="111">
         <v>9735</v>
       </c>
     </row>
     <row r="48" spans="1:20" s="39" customFormat="1" ht="15" customHeight="1">
       <c r="A48" s="38"/>
-      <c r="B48" s="98" t="s">
+      <c r="B48" s="97" t="s">
         <v>111</v>
       </c>
-      <c r="C48" s="99">
+      <c r="C48" s="98">
         <v>16023</v>
       </c>
-      <c r="D48" s="99">
+      <c r="D48" s="98">
         <v>952</v>
       </c>
-      <c r="E48" s="99">
+      <c r="E48" s="98">
         <v>-300</v>
       </c>
-      <c r="F48" s="99">
+      <c r="F48" s="98">
         <v>25</v>
       </c>
-      <c r="G48" s="99">
+      <c r="G48" s="98">
         <v>677</v>
       </c>
-      <c r="H48" s="100">
+      <c r="H48" s="99">
         <v>16700</v>
       </c>
       <c r="I48" s="38"/>
@@ -16368,15 +16558,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="2.69921875" style="113" customWidth="1"/>
-    <col min="2" max="2" width="2.69921875" style="114" customWidth="1"/>
-    <col min="3" max="6" width="2.69921875" style="113" customWidth="1"/>
-    <col min="7" max="7" width="29.3984375" style="113" customWidth="1"/>
-    <col min="8" max="17" width="8.8984375" style="113"/>
-    <col min="18" max="18" width="8.8984375" style="113" customWidth="1"/>
-    <col min="19" max="19" width="8.8984375" style="113"/>
-    <col min="20" max="20" width="13.59765625" style="113" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.8984375" style="113"/>
+    <col min="1" max="1" width="2.69921875" style="112" customWidth="1"/>
+    <col min="2" max="2" width="2.69921875" style="113" customWidth="1"/>
+    <col min="3" max="6" width="2.69921875" style="112" customWidth="1"/>
+    <col min="7" max="7" width="29.3984375" style="112" customWidth="1"/>
+    <col min="8" max="17" width="8.8984375" style="112"/>
+    <col min="18" max="18" width="8.8984375" style="112" customWidth="1"/>
+    <col min="19" max="19" width="8.8984375" style="112"/>
+    <col min="20" max="20" width="13.59765625" style="112" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.8984375" style="112"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1">
@@ -16881,77 +17071,77 @@
     </row>
     <row r="24" spans="1:20" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="3"/>
-      <c r="B24" s="121"/>
-      <c r="C24" s="121"/>
-      <c r="D24" s="121"/>
-      <c r="E24" s="121"/>
-      <c r="F24" s="121"/>
-      <c r="G24" s="121"/>
-      <c r="H24" s="122" t="s">
+      <c r="B24" s="120"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="120"/>
+      <c r="H24" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="I24" s="122"/>
-      <c r="J24" s="123"/>
-      <c r="K24" s="124"/>
-      <c r="L24" s="125"/>
+      <c r="I24" s="121"/>
+      <c r="J24" s="122"/>
+      <c r="K24" s="123"/>
+      <c r="L24" s="124"/>
     </row>
     <row r="25" spans="1:20" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="3"/>
-      <c r="B25" s="126" t="s">
+      <c r="B25" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="126"/>
-      <c r="D25" s="126"/>
-      <c r="E25" s="126"/>
-      <c r="F25" s="126"/>
-      <c r="G25" s="126"/>
-      <c r="H25" s="127">
+      <c r="C25" s="125"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="125"/>
+      <c r="F25" s="125"/>
+      <c r="G25" s="125"/>
+      <c r="H25" s="126">
         <v>2017</v>
       </c>
-      <c r="I25" s="127">
+      <c r="I25" s="126">
         <f t="shared" ref="I25" si="0">+H25+1</f>
         <v>2018</v>
       </c>
-      <c r="J25" s="127">
+      <c r="J25" s="126">
         <f t="shared" ref="J25" si="1">+I25+1</f>
         <v>2019</v>
       </c>
-      <c r="K25" s="127">
+      <c r="K25" s="126">
         <f t="shared" ref="K25" si="2">+J25+1</f>
         <v>2020</v>
       </c>
-      <c r="L25" s="127">
+      <c r="L25" s="126">
         <f t="shared" ref="L25" si="3">+K25+1</f>
         <v>2021</v>
       </c>
     </row>
     <row r="26" spans="1:20" s="39" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="38"/>
-      <c r="B26" s="115" t="s">
+      <c r="B26" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="115"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="115"/>
-      <c r="H26" s="116">
+      <c r="C26" s="114"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="114"/>
+      <c r="H26" s="115">
         <f>+H5</f>
         <v>22.386800000000001</v>
       </c>
-      <c r="I26" s="116">
+      <c r="I26" s="115">
         <f t="shared" ref="I26:L26" si="4">+I5</f>
         <v>24.7195</v>
       </c>
-      <c r="J26" s="116">
+      <c r="J26" s="115">
         <f t="shared" si="4"/>
         <v>26.508599999999998</v>
       </c>
-      <c r="K26" s="116">
+      <c r="K26" s="115">
         <f t="shared" si="4"/>
         <v>23.518000000000001</v>
       </c>
-      <c r="L26" s="116">
+      <c r="L26" s="115">
         <f t="shared" si="4"/>
         <v>29.060599999999997</v>
       </c>
@@ -16966,31 +17156,31 @@
     </row>
     <row r="27" spans="1:20" s="39" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A27" s="38"/>
-      <c r="B27" s="117" t="s">
+      <c r="B27" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="117"/>
-      <c r="D27" s="132"/>
-      <c r="E27" s="132"/>
-      <c r="F27" s="132"/>
-      <c r="G27" s="132"/>
-      <c r="H27" s="118">
+      <c r="C27" s="116"/>
+      <c r="D27" s="131"/>
+      <c r="E27" s="131"/>
+      <c r="F27" s="131"/>
+      <c r="G27" s="131"/>
+      <c r="H27" s="117">
         <f>+H7</f>
         <v>6.8346</v>
       </c>
-      <c r="I27" s="118">
+      <c r="I27" s="117">
         <f t="shared" ref="I27:L27" si="5">+I7</f>
         <v>7.3166000000000002</v>
       </c>
-      <c r="J27" s="118">
+      <c r="J27" s="117">
         <f t="shared" si="5"/>
         <v>7.4881000000000002</v>
       </c>
-      <c r="K27" s="118">
+      <c r="K27" s="117">
         <f t="shared" si="5"/>
         <v>5.1411000000000007</v>
       </c>
-      <c r="L27" s="118">
+      <c r="L27" s="117">
         <f t="shared" si="5"/>
         <v>8.4353999999999996</v>
       </c>
@@ -17005,31 +17195,31 @@
     </row>
     <row r="28" spans="1:20" s="39" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A28" s="38"/>
-      <c r="B28" s="119"/>
-      <c r="C28" s="128" t="s">
+      <c r="B28" s="118"/>
+      <c r="C28" s="127" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="132"/>
-      <c r="E28" s="132"/>
-      <c r="F28" s="132"/>
-      <c r="G28" s="132"/>
-      <c r="H28" s="129">
+      <c r="D28" s="131"/>
+      <c r="E28" s="131"/>
+      <c r="F28" s="131"/>
+      <c r="G28" s="131"/>
+      <c r="H28" s="128">
         <f>+H7/H5</f>
         <v>0.30529597798702807</v>
       </c>
-      <c r="I28" s="129">
+      <c r="I28" s="128">
         <f t="shared" ref="I28:L28" si="6">+I7/I5</f>
         <v>0.29598495115192458</v>
       </c>
-      <c r="J28" s="129">
+      <c r="J28" s="128">
         <f t="shared" si="6"/>
         <v>0.28247813916992981</v>
       </c>
-      <c r="K28" s="129">
+      <c r="K28" s="128">
         <f t="shared" si="6"/>
         <v>0.21860277234458714</v>
       </c>
-      <c r="L28" s="129">
+      <c r="L28" s="128">
         <f t="shared" si="6"/>
         <v>0.29026929932623552</v>
       </c>
@@ -17044,31 +17234,31 @@
     </row>
     <row r="29" spans="1:20" s="39" customFormat="1" ht="15" customHeight="1" collapsed="1">
       <c r="A29" s="38"/>
-      <c r="B29" s="117" t="s">
+      <c r="B29" s="116" t="s">
         <v>149</v>
       </c>
-      <c r="C29" s="117"/>
-      <c r="D29" s="117"/>
-      <c r="E29" s="117"/>
-      <c r="F29" s="117"/>
-      <c r="G29" s="117"/>
-      <c r="H29" s="118">
+      <c r="C29" s="116"/>
+      <c r="D29" s="116"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="116"/>
+      <c r="G29" s="116"/>
+      <c r="H29" s="117">
         <f>+H11</f>
         <v>3.8968000000000003</v>
       </c>
-      <c r="I29" s="118">
+      <c r="I29" s="117">
         <f t="shared" ref="I29:L29" si="7">+I11</f>
         <v>3.8100999999999998</v>
       </c>
-      <c r="J29" s="118">
+      <c r="J29" s="117">
         <f t="shared" si="7"/>
         <v>3.9156999999999997</v>
       </c>
-      <c r="K29" s="118">
+      <c r="K29" s="117">
         <f t="shared" si="7"/>
         <v>1.5999000000000001</v>
       </c>
-      <c r="L29" s="118">
+      <c r="L29" s="117">
         <f t="shared" si="7"/>
         <v>4.7016</v>
       </c>
@@ -17081,33 +17271,33 @@
       <c r="S29" s="11"/>
       <c r="T29" s="11"/>
     </row>
-    <row r="30" spans="1:20" s="49" customFormat="1" ht="15" customHeight="1">
-      <c r="A30" s="48"/>
-      <c r="B30" s="119"/>
-      <c r="C30" s="128" t="s">
+    <row r="30" spans="1:20" s="48" customFormat="1" ht="15" customHeight="1">
+      <c r="A30" s="47"/>
+      <c r="B30" s="118"/>
+      <c r="C30" s="127" t="s">
         <v>150</v>
       </c>
-      <c r="D30" s="128"/>
-      <c r="E30" s="128"/>
-      <c r="F30" s="128"/>
-      <c r="G30" s="128"/>
-      <c r="H30" s="129">
+      <c r="D30" s="127"/>
+      <c r="E30" s="127"/>
+      <c r="F30" s="127"/>
+      <c r="G30" s="127"/>
+      <c r="H30" s="128">
         <f>+H29/H26</f>
         <v>0.17406686082870262</v>
       </c>
-      <c r="I30" s="129">
+      <c r="I30" s="128">
         <f>+I29/I26</f>
         <v>0.15413337648415218</v>
       </c>
-      <c r="J30" s="129">
+      <c r="J30" s="128">
         <f>+J29/J26</f>
         <v>0.1477143266713444</v>
       </c>
-      <c r="K30" s="129">
+      <c r="K30" s="128">
         <f>+K29/K26</f>
         <v>6.8028743940811293E-2</v>
       </c>
-      <c r="L30" s="129">
+      <c r="L30" s="128">
         <f>+L29/L26</f>
         <v>0.16178606085215036</v>
       </c>
@@ -17122,31 +17312,31 @@
     </row>
     <row r="31" spans="1:20" s="39" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="38"/>
-      <c r="B31" s="117" t="s">
+      <c r="B31" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="117"/>
-      <c r="D31" s="117"/>
-      <c r="E31" s="117"/>
-      <c r="F31" s="117"/>
-      <c r="G31" s="117"/>
-      <c r="H31" s="118">
+      <c r="C31" s="116"/>
+      <c r="D31" s="116"/>
+      <c r="E31" s="116"/>
+      <c r="F31" s="116"/>
+      <c r="G31" s="116"/>
+      <c r="H31" s="117">
         <f>+H20</f>
         <v>2.8849</v>
       </c>
-      <c r="I31" s="118">
+      <c r="I31" s="117">
         <f t="shared" ref="I31:L31" si="8">+I20</f>
         <v>4.5179999999999998</v>
       </c>
-      <c r="J31" s="118">
+      <c r="J31" s="117">
         <f t="shared" si="8"/>
         <v>3.5945999999999998</v>
       </c>
-      <c r="K31" s="118">
+      <c r="K31" s="117">
         <f t="shared" si="8"/>
         <v>0.92470000000000008</v>
       </c>
-      <c r="L31" s="118">
+      <c r="L31" s="117">
         <f t="shared" si="8"/>
         <v>4.2003000000000004</v>
       </c>
@@ -17159,33 +17349,33 @@
       <c r="S31" s="11"/>
       <c r="T31" s="11"/>
     </row>
-    <row r="32" spans="1:20" s="49" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="48"/>
-      <c r="B32" s="120"/>
-      <c r="C32" s="130" t="s">
+    <row r="32" spans="1:20" s="48" customFormat="1" ht="15" customHeight="1">
+      <c r="A32" s="47"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="129" t="s">
         <v>151</v>
       </c>
-      <c r="D32" s="130"/>
-      <c r="E32" s="130"/>
-      <c r="F32" s="130"/>
-      <c r="G32" s="130"/>
-      <c r="H32" s="131">
+      <c r="D32" s="129"/>
+      <c r="E32" s="129"/>
+      <c r="F32" s="129"/>
+      <c r="G32" s="129"/>
+      <c r="H32" s="130">
         <f>+H31/H26</f>
         <v>0.12886611753354654</v>
       </c>
-      <c r="I32" s="131">
+      <c r="I32" s="130">
         <f>+I31/I26</f>
         <v>0.18277068710936709</v>
       </c>
-      <c r="J32" s="131">
+      <c r="J32" s="130">
         <f>+J31/J26</f>
         <v>0.13560127656685</v>
       </c>
-      <c r="K32" s="131">
+      <c r="K32" s="130">
         <f>+K31/K26</f>
         <v>3.9318819627519347E-2</v>
       </c>
-      <c r="L32" s="131">
+      <c r="L32" s="130">
         <f>+L31/L26</f>
         <v>0.14453590084168946</v>
       </c>
@@ -17338,11 +17528,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.69921875" style="113" customWidth="1"/>
-    <col min="2" max="2" width="2.69921875" style="114" customWidth="1"/>
-    <col min="3" max="6" width="2.69921875" style="113" customWidth="1"/>
-    <col min="7" max="7" width="29.3984375" style="113" customWidth="1"/>
-    <col min="8" max="16384" width="8.8984375" style="113"/>
+    <col min="1" max="1" width="2.69921875" style="112" customWidth="1"/>
+    <col min="2" max="2" width="2.69921875" style="113" customWidth="1"/>
+    <col min="3" max="6" width="2.69921875" style="112" customWidth="1"/>
+    <col min="7" max="7" width="29.3984375" style="112" customWidth="1"/>
+    <col min="8" max="16384" width="8.8984375" style="112"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1">
@@ -17360,120 +17550,120 @@
     </row>
     <row r="3" spans="1:12" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="3"/>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="145" t="s">
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="144" t="s">
         <v>199</v>
       </c>
-      <c r="I3" s="145" t="s">
+      <c r="I3" s="144" t="s">
         <v>200</v>
       </c>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:12" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="B4" s="146" t="s">
+      <c r="B4" s="145" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="147"/>
-      <c r="D4" s="147"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="147"/>
-      <c r="G4" s="147"/>
-      <c r="H4" s="147"/>
-      <c r="I4" s="147"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:12" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="138"/>
-      <c r="C5" s="139" t="s">
+      <c r="B5" s="137"/>
+      <c r="C5" s="138" t="s">
         <v>202</v>
       </c>
-      <c r="D5" s="138"/>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138"/>
-      <c r="G5" s="139"/>
-      <c r="H5" s="148">
+      <c r="D5" s="137"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="137"/>
+      <c r="G5" s="138"/>
+      <c r="H5" s="147">
         <v>41.2</v>
       </c>
-      <c r="I5" s="148">
+      <c r="I5" s="147">
         <v>21.4</v>
       </c>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:12" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="138"/>
-      <c r="C6" s="139" t="s">
+      <c r="B6" s="137"/>
+      <c r="C6" s="138" t="s">
         <v>203</v>
       </c>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="148">
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="147">
         <v>35.799999999999997</v>
       </c>
-      <c r="I6" s="148">
+      <c r="I6" s="147">
         <v>16.8</v>
       </c>
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:12" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="138"/>
-      <c r="C7" s="139" t="s">
+      <c r="B7" s="137"/>
+      <c r="C7" s="138" t="s">
         <v>204</v>
       </c>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="139"/>
-      <c r="H7" s="148">
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="147">
         <v>22.2</v>
       </c>
-      <c r="I7" s="148">
+      <c r="I7" s="147">
         <v>11.8</v>
       </c>
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:12" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="138"/>
-      <c r="C8" s="139" t="s">
+      <c r="B8" s="137"/>
+      <c r="C8" s="138" t="s">
         <v>205</v>
       </c>
-      <c r="D8" s="138"/>
-      <c r="E8" s="138"/>
-      <c r="F8" s="138"/>
-      <c r="G8" s="139"/>
-      <c r="H8" s="148">
+      <c r="D8" s="137"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="137"/>
+      <c r="G8" s="138"/>
+      <c r="H8" s="147">
         <v>31.4</v>
       </c>
-      <c r="I8" s="148">
+      <c r="I8" s="147">
         <v>22.5</v>
       </c>
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:12" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="149"/>
-      <c r="C9" s="150" t="s">
+      <c r="B9" s="148"/>
+      <c r="C9" s="149" t="s">
         <v>206</v>
       </c>
-      <c r="D9" s="149"/>
-      <c r="E9" s="149"/>
-      <c r="F9" s="149"/>
-      <c r="G9" s="150"/>
-      <c r="H9" s="151">
+      <c r="D9" s="148"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="148"/>
+      <c r="G9" s="149"/>
+      <c r="H9" s="150">
         <v>29.3</v>
       </c>
-      <c r="I9" s="151">
+      <c r="I9" s="150">
         <v>15.8</v>
       </c>
       <c r="J9" s="3"/>
@@ -17492,74 +17682,74 @@
     </row>
     <row r="11" spans="1:12" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="3"/>
-      <c r="B11" s="176" t="s">
+      <c r="B11" s="175" t="s">
         <v>192</v>
       </c>
-      <c r="C11" s="177"/>
-      <c r="D11" s="177"/>
-      <c r="E11" s="177"/>
-      <c r="F11" s="177"/>
-      <c r="G11" s="177"/>
-      <c r="H11" s="177"/>
-      <c r="I11" s="177"/>
+      <c r="C11" s="176"/>
+      <c r="D11" s="176"/>
+      <c r="E11" s="176"/>
+      <c r="F11" s="176"/>
+      <c r="G11" s="176"/>
+      <c r="H11" s="176"/>
+      <c r="I11" s="176"/>
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1">
-      <c r="B12" s="139"/>
-      <c r="C12" s="139" t="s">
+      <c r="B12" s="138"/>
+      <c r="C12" s="138" t="s">
         <v>195</v>
       </c>
-      <c r="D12" s="142"/>
-      <c r="E12" s="142"/>
-      <c r="F12" s="142"/>
-      <c r="G12" s="139"/>
-      <c r="H12" s="178"/>
-      <c r="I12" s="142"/>
+      <c r="D12" s="141"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="141"/>
+      <c r="G12" s="138"/>
+      <c r="H12" s="177"/>
+      <c r="I12" s="141"/>
       <c r="J12" s="3"/>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1">
-      <c r="B13" s="138"/>
-      <c r="C13" s="138" t="s">
+      <c r="B13" s="137"/>
+      <c r="C13" s="137" t="s">
         <v>197</v>
       </c>
-      <c r="D13" s="144"/>
-      <c r="E13" s="144"/>
-      <c r="F13" s="144"/>
-      <c r="G13" s="138"/>
-      <c r="H13" s="144"/>
-      <c r="I13" s="144"/>
+      <c r="D13" s="143"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="143"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="143"/>
+      <c r="I13" s="143"/>
       <c r="J13" s="3"/>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
     </row>
     <row r="14" spans="1:12" ht="15" customHeight="1">
-      <c r="B14" s="139"/>
-      <c r="C14" s="139" t="s">
+      <c r="B14" s="138"/>
+      <c r="C14" s="138" t="s">
         <v>198</v>
       </c>
-      <c r="D14" s="142"/>
-      <c r="E14" s="142"/>
-      <c r="F14" s="142"/>
-      <c r="G14" s="139"/>
-      <c r="H14" s="142"/>
-      <c r="I14" s="142"/>
+      <c r="D14" s="141"/>
+      <c r="E14" s="141"/>
+      <c r="F14" s="141"/>
+      <c r="G14" s="138"/>
+      <c r="H14" s="141"/>
+      <c r="I14" s="141"/>
       <c r="J14" s="3"/>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1">
-      <c r="B15" s="150"/>
-      <c r="C15" s="150" t="s">
+      <c r="B15" s="149"/>
+      <c r="C15" s="149" t="s">
         <v>196</v>
       </c>
-      <c r="D15" s="179"/>
-      <c r="E15" s="179"/>
-      <c r="F15" s="179"/>
-      <c r="G15" s="150"/>
-      <c r="H15" s="179"/>
-      <c r="I15" s="179"/>
+      <c r="D15" s="178"/>
+      <c r="E15" s="178"/>
+      <c r="F15" s="178"/>
+      <c r="G15" s="149"/>
+      <c r="H15" s="178"/>
+      <c r="I15" s="178"/>
       <c r="J15" s="3"/>
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
@@ -17620,724 +17810,724 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.69921875" style="54" customWidth="1"/>
-    <col min="2" max="2" width="12.69921875" style="60" customWidth="1"/>
-    <col min="3" max="3" width="12.69921875" style="59" customWidth="1"/>
-    <col min="4" max="4" width="16.8984375" style="59" customWidth="1"/>
-    <col min="5" max="5" width="10" style="59" customWidth="1"/>
-    <col min="6" max="7" width="12.69921875" style="59" customWidth="1"/>
-    <col min="8" max="8" width="1.69921875" style="59" customWidth="1"/>
-    <col min="9" max="9" width="22.09765625" style="54" customWidth="1"/>
-    <col min="10" max="11" width="10.69921875" style="54" customWidth="1"/>
-    <col min="12" max="20" width="12.69921875" style="59" customWidth="1"/>
-    <col min="21" max="21" width="13.59765625" style="59" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.8984375" style="59"/>
+    <col min="1" max="1" width="2.69921875" style="53" customWidth="1"/>
+    <col min="2" max="2" width="12.69921875" style="59" customWidth="1"/>
+    <col min="3" max="3" width="12.69921875" style="58" customWidth="1"/>
+    <col min="4" max="4" width="16.8984375" style="58" customWidth="1"/>
+    <col min="5" max="5" width="10" style="58" customWidth="1"/>
+    <col min="6" max="7" width="12.69921875" style="58" customWidth="1"/>
+    <col min="8" max="8" width="1.69921875" style="58" customWidth="1"/>
+    <col min="9" max="9" width="22.09765625" style="53" customWidth="1"/>
+    <col min="10" max="11" width="10.69921875" style="53" customWidth="1"/>
+    <col min="12" max="20" width="12.69921875" style="58" customWidth="1"/>
+    <col min="21" max="21" width="13.59765625" style="58" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.8984375" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="156" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="154"/>
-      <c r="B1" s="155" t="s">
+    <row r="1" spans="1:11" s="155" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="153"/>
+      <c r="B1" s="154" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1">
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="76" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="77" t="s">
         <v>152</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="77" t="s">
         <v>153</v>
       </c>
-      <c r="E3" s="78" t="s">
+      <c r="E3" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="F3" s="79" t="s">
+      <c r="F3" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="157"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="153" t="s">
+      <c r="H3" s="156"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="152" t="s">
         <v>210</v>
       </c>
-      <c r="K3" s="153" t="s">
+      <c r="K3" s="152" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1">
-      <c r="B4" s="75">
+      <c r="B4" s="74">
         <v>44938</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F4" s="76">
+      <c r="F4" s="75">
         <v>5</v>
       </c>
-      <c r="H4" s="165" t="s">
+      <c r="H4" s="164" t="s">
         <v>208</v>
       </c>
-      <c r="I4" s="166"/>
-      <c r="J4" s="167"/>
-      <c r="K4" s="167"/>
+      <c r="I4" s="165"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="166"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1">
-      <c r="B5" s="75">
+      <c r="B5" s="74">
         <v>44938</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="F5" s="76">
+      <c r="F5" s="75">
         <v>4.5</v>
       </c>
-      <c r="H5" s="159"/>
-      <c r="I5" s="160" t="s">
+      <c r="H5" s="158"/>
+      <c r="I5" s="159" t="s">
         <v>157</v>
       </c>
-      <c r="J5" s="161"/>
-      <c r="K5" s="161"/>
+      <c r="J5" s="160"/>
+      <c r="K5" s="160"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1">
-      <c r="B6" s="75">
+      <c r="B6" s="74">
         <v>44938</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F6" s="76">
+      <c r="F6" s="75">
         <v>5</v>
       </c>
-      <c r="H6" s="159"/>
-      <c r="I6" s="159" t="s">
+      <c r="H6" s="158"/>
+      <c r="I6" s="158" t="s">
         <v>159</v>
       </c>
-      <c r="J6" s="161"/>
-      <c r="K6" s="161"/>
+      <c r="J6" s="160"/>
+      <c r="K6" s="160"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1">
-      <c r="B7" s="75">
+      <c r="B7" s="74">
         <v>44938</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="E7" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="F7" s="76">
+      <c r="F7" s="75">
         <v>3</v>
       </c>
-      <c r="H7" s="159"/>
-      <c r="I7" s="159" t="s">
+      <c r="H7" s="158"/>
+      <c r="I7" s="158" t="s">
         <v>160</v>
       </c>
-      <c r="J7" s="161"/>
-      <c r="K7" s="161"/>
+      <c r="J7" s="160"/>
+      <c r="K7" s="160"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1">
-      <c r="B8" s="75">
+      <c r="B8" s="74">
         <v>44938</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F8" s="76">
+      <c r="F8" s="75">
         <v>5</v>
       </c>
-      <c r="H8" s="162"/>
-      <c r="I8" s="162" t="s">
+      <c r="H8" s="161"/>
+      <c r="I8" s="161" t="s">
         <v>161</v>
       </c>
-      <c r="J8" s="163"/>
-      <c r="K8" s="163"/>
+      <c r="J8" s="162"/>
+      <c r="K8" s="162"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1">
-      <c r="B9" s="75">
+      <c r="B9" s="74">
         <v>44938</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="F9" s="76">
+      <c r="F9" s="75">
         <v>4.5</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
-      <c r="B10" s="75">
+      <c r="B10" s="74">
         <v>44938</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="E10" s="59" t="s">
+      <c r="E10" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F10" s="76">
+      <c r="F10" s="75">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
-      <c r="B11" s="75">
+      <c r="B11" s="74">
         <v>44938</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D11" s="59" t="s">
+      <c r="D11" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E11" s="59" t="s">
+      <c r="E11" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F11" s="76">
+      <c r="F11" s="75">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
-      <c r="B12" s="75">
+      <c r="B12" s="74">
         <v>44938</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="E12" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F12" s="76">
+      <c r="F12" s="75">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1">
-      <c r="B13" s="75">
+      <c r="B13" s="74">
         <v>44939</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E13" s="59" t="s">
+      <c r="E13" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F13" s="76">
+      <c r="F13" s="75">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1">
-      <c r="B14" s="75">
+      <c r="B14" s="74">
         <v>44939</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E14" s="59" t="s">
+      <c r="E14" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="F14" s="76">
+      <c r="F14" s="75">
         <v>4.5</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1">
-      <c r="B15" s="75">
+      <c r="B15" s="74">
         <v>44939</v>
       </c>
-      <c r="C15" s="59" t="s">
+      <c r="C15" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D15" s="59" t="s">
+      <c r="D15" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="E15" s="59" t="s">
+      <c r="E15" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="F15" s="76">
+      <c r="F15" s="75">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1">
-      <c r="B16" s="75">
+      <c r="B16" s="74">
         <v>44939</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D16" s="59" t="s">
+      <c r="D16" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E16" s="59" t="s">
+      <c r="E16" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F16" s="76">
+      <c r="F16" s="75">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="15" customHeight="1">
-      <c r="B17" s="75">
+      <c r="B17" s="74">
         <v>44939</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D17" s="59" t="s">
+      <c r="D17" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E17" s="59" t="s">
+      <c r="E17" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="F17" s="76">
+      <c r="F17" s="75">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="15" customHeight="1">
-      <c r="B18" s="75">
+      <c r="B18" s="74">
         <v>44939</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D18" s="59" t="s">
+      <c r="D18" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="E18" s="59" t="s">
+      <c r="E18" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F18" s="76">
+      <c r="F18" s="75">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15" customHeight="1">
-      <c r="B19" s="75">
+      <c r="B19" s="74">
         <v>44939</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D19" s="59" t="s">
+      <c r="D19" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E19" s="59" t="s">
+      <c r="E19" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="F19" s="76">
+      <c r="F19" s="75">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="15" customHeight="1">
-      <c r="B20" s="75">
+      <c r="B20" s="74">
         <v>44939</v>
       </c>
-      <c r="C20" s="59" t="s">
+      <c r="C20" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D20" s="59" t="s">
+      <c r="D20" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E20" s="59" t="s">
+      <c r="E20" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F20" s="76">
+      <c r="F20" s="75">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="15" customHeight="1">
-      <c r="B21" s="75">
+      <c r="B21" s="74">
         <v>44939</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D21" s="59" t="s">
+      <c r="D21" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="E21" s="59" t="s">
+      <c r="E21" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F21" s="76">
+      <c r="F21" s="75">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="15" customHeight="1">
-      <c r="B22" s="75">
+      <c r="B22" s="74">
         <v>44939</v>
       </c>
-      <c r="C22" s="59" t="s">
+      <c r="C22" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D22" s="59" t="s">
+      <c r="D22" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E22" s="59" t="s">
+      <c r="E22" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="F22" s="76">
+      <c r="F22" s="75">
         <v>4.5</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15" customHeight="1">
-      <c r="B23" s="75">
+      <c r="B23" s="74">
         <v>44939</v>
       </c>
-      <c r="C23" s="59" t="s">
+      <c r="C23" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D23" s="59" t="s">
+      <c r="D23" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="E23" s="59" t="s">
+      <c r="E23" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F23" s="76">
+      <c r="F23" s="75">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="15" customHeight="1">
-      <c r="B24" s="75">
+      <c r="B24" s="74">
         <v>44939</v>
       </c>
-      <c r="C24" s="59" t="s">
+      <c r="C24" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D24" s="59" t="s">
+      <c r="D24" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="E24" s="59" t="s">
+      <c r="E24" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="F24" s="76">
+      <c r="F24" s="75">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="15" customHeight="1">
-      <c r="B25" s="75">
+      <c r="B25" s="74">
         <v>44940</v>
       </c>
-      <c r="C25" s="59" t="s">
+      <c r="C25" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D25" s="59" t="s">
+      <c r="D25" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E25" s="59" t="s">
+      <c r="E25" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="F25" s="76">
+      <c r="F25" s="75">
         <v>4.5</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="15" customHeight="1">
-      <c r="B26" s="75">
+      <c r="B26" s="74">
         <v>44940</v>
       </c>
-      <c r="C26" s="59" t="s">
+      <c r="C26" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D26" s="59" t="s">
+      <c r="D26" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="E26" s="59" t="s">
+      <c r="E26" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F26" s="76">
+      <c r="F26" s="75">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="15" customHeight="1">
-      <c r="B27" s="75">
+      <c r="B27" s="74">
         <v>44940</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D27" s="59" t="s">
+      <c r="D27" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E27" s="59" t="s">
+      <c r="E27" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F27" s="76">
+      <c r="F27" s="75">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="15" customHeight="1">
-      <c r="B28" s="75">
+      <c r="B28" s="74">
         <v>44940</v>
       </c>
-      <c r="C28" s="59" t="s">
+      <c r="C28" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D28" s="59" t="s">
+      <c r="D28" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E28" s="59" t="s">
+      <c r="E28" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="F28" s="76">
+      <c r="F28" s="75">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="15" customHeight="1">
-      <c r="B29" s="75">
+      <c r="B29" s="74">
         <v>44940</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D29" s="59" t="s">
+      <c r="D29" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="E29" s="59" t="s">
+      <c r="E29" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F29" s="76">
+      <c r="F29" s="75">
         <v>5</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="15" customHeight="1">
-      <c r="B30" s="75">
+      <c r="B30" s="74">
         <v>44940</v>
       </c>
-      <c r="C30" s="59" t="s">
+      <c r="C30" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D30" s="59" t="s">
+      <c r="D30" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="E30" s="59" t="s">
+      <c r="E30" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="F30" s="76">
+      <c r="F30" s="75">
         <v>4.5</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="15" customHeight="1">
-      <c r="B31" s="75">
+      <c r="B31" s="74">
         <v>44941</v>
       </c>
-      <c r="C31" s="59" t="s">
+      <c r="C31" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D31" s="59" t="s">
+      <c r="D31" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E31" s="59" t="s">
+      <c r="E31" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F31" s="76">
+      <c r="F31" s="75">
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="15" customHeight="1">
-      <c r="B32" s="75">
+      <c r="B32" s="74">
         <v>44941</v>
       </c>
-      <c r="C32" s="59" t="s">
+      <c r="C32" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D32" s="59" t="s">
+      <c r="D32" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="E32" s="59" t="s">
+      <c r="E32" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="F32" s="76">
+      <c r="F32" s="75">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="15" customHeight="1">
-      <c r="B33" s="75">
+      <c r="B33" s="74">
         <v>44941</v>
       </c>
-      <c r="C33" s="59" t="s">
+      <c r="C33" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D33" s="59" t="s">
+      <c r="D33" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E33" s="59" t="s">
+      <c r="E33" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F33" s="76">
+      <c r="F33" s="75">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="15" customHeight="1">
-      <c r="B34" s="75">
+      <c r="B34" s="74">
         <v>44941</v>
       </c>
-      <c r="C34" s="59" t="s">
+      <c r="C34" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D34" s="59" t="s">
+      <c r="D34" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="E34" s="59" t="s">
+      <c r="E34" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="F34" s="76">
+      <c r="F34" s="75">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="15" customHeight="1">
-      <c r="B35" s="75">
+      <c r="B35" s="74">
         <v>44941</v>
       </c>
-      <c r="C35" s="59" t="s">
+      <c r="C35" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D35" s="59" t="s">
+      <c r="D35" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E35" s="59" t="s">
+      <c r="E35" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F35" s="76">
+      <c r="F35" s="75">
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="15" customHeight="1">
-      <c r="B36" s="75">
+      <c r="B36" s="74">
         <v>44941</v>
       </c>
-      <c r="C36" s="59" t="s">
+      <c r="C36" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D36" s="59" t="s">
+      <c r="D36" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E36" s="59" t="s">
+      <c r="E36" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="F36" s="76">
+      <c r="F36" s="75">
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="15" customHeight="1">
-      <c r="B37" s="75">
+      <c r="B37" s="74">
         <v>44941</v>
       </c>
-      <c r="C37" s="59" t="s">
+      <c r="C37" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D37" s="59" t="s">
+      <c r="D37" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E37" s="59" t="s">
+      <c r="E37" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F37" s="76">
+      <c r="F37" s="75">
         <v>5</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="15" customHeight="1">
-      <c r="B38" s="75">
+      <c r="B38" s="74">
         <v>44941</v>
       </c>
-      <c r="C38" s="59" t="s">
+      <c r="C38" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D38" s="59" t="s">
+      <c r="D38" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="E38" s="59" t="s">
+      <c r="E38" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="F38" s="76">
+      <c r="F38" s="75">
         <v>4.5</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="15" customHeight="1">
-      <c r="B39" s="75">
+      <c r="B39" s="74">
         <v>44941</v>
       </c>
-      <c r="C39" s="59" t="s">
+      <c r="C39" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D39" s="59" t="s">
+      <c r="D39" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="E39" s="59" t="s">
+      <c r="E39" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F39" s="76">
+      <c r="F39" s="75">
         <v>5</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="15" customHeight="1">
-      <c r="B40" s="75">
+      <c r="B40" s="74">
         <v>44941</v>
       </c>
-      <c r="C40" s="59" t="s">
+      <c r="C40" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D40" s="59" t="s">
+      <c r="D40" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E40" s="59" t="s">
+      <c r="E40" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="F40" s="76">
+      <c r="F40" s="75">
         <v>3</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="15" customHeight="1">
-      <c r="B41" s="75">
+      <c r="B41" s="74">
         <v>44941</v>
       </c>
-      <c r="C41" s="59" t="s">
+      <c r="C41" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D41" s="59" t="s">
+      <c r="D41" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="E41" s="59" t="s">
+      <c r="E41" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="F41" s="76">
+      <c r="F41" s="75">
         <v>3</v>
       </c>
     </row>
@@ -18358,737 +18548,737 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.69921875" style="54" customWidth="1"/>
-    <col min="2" max="2" width="12.69921875" style="60" customWidth="1"/>
-    <col min="3" max="3" width="12.69921875" style="59" customWidth="1"/>
-    <col min="4" max="4" width="16.8984375" style="59" customWidth="1"/>
-    <col min="5" max="5" width="10" style="59" customWidth="1"/>
-    <col min="6" max="7" width="12.69921875" style="59" customWidth="1"/>
-    <col min="8" max="8" width="1.69921875" style="59" customWidth="1"/>
-    <col min="9" max="9" width="22.09765625" style="54" customWidth="1"/>
-    <col min="10" max="10" width="10.69921875" style="54" customWidth="1"/>
-    <col min="11" max="11" width="10.69921875" style="59" customWidth="1"/>
-    <col min="12" max="12" width="10.69921875" style="54" customWidth="1"/>
-    <col min="13" max="13" width="10.69921875" style="59" customWidth="1"/>
-    <col min="14" max="20" width="12.69921875" style="59" customWidth="1"/>
-    <col min="21" max="21" width="13.59765625" style="59" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.8984375" style="59"/>
+    <col min="1" max="1" width="2.69921875" style="53" customWidth="1"/>
+    <col min="2" max="2" width="12.69921875" style="59" customWidth="1"/>
+    <col min="3" max="3" width="12.69921875" style="58" customWidth="1"/>
+    <col min="4" max="4" width="16.8984375" style="58" customWidth="1"/>
+    <col min="5" max="5" width="10" style="58" customWidth="1"/>
+    <col min="6" max="7" width="12.69921875" style="58" customWidth="1"/>
+    <col min="8" max="8" width="1.69921875" style="58" customWidth="1"/>
+    <col min="9" max="9" width="22.09765625" style="53" customWidth="1"/>
+    <col min="10" max="10" width="10.69921875" style="53" customWidth="1"/>
+    <col min="11" max="11" width="10.69921875" style="58" customWidth="1"/>
+    <col min="12" max="12" width="10.69921875" style="53" customWidth="1"/>
+    <col min="13" max="13" width="10.69921875" style="58" customWidth="1"/>
+    <col min="14" max="20" width="12.69921875" style="58" customWidth="1"/>
+    <col min="21" max="21" width="13.59765625" style="58" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.8984375" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="156" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="154"/>
-      <c r="B1" s="155" t="s">
+    <row r="1" spans="1:13" s="155" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="153"/>
+      <c r="B1" s="154" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1">
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="76" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="77" t="s">
         <v>152</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="77" t="s">
         <v>153</v>
       </c>
-      <c r="E3" s="78" t="s">
+      <c r="E3" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="F3" s="79" t="s">
+      <c r="F3" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="157"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="153" t="s">
+      <c r="H3" s="156"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="152" t="s">
         <v>214</v>
       </c>
-      <c r="K3" s="153" t="s">
+      <c r="K3" s="152" t="s">
         <v>215</v>
       </c>
-      <c r="L3" s="153" t="s">
+      <c r="L3" s="152" t="s">
         <v>213</v>
       </c>
-      <c r="M3" s="153" t="s">
+      <c r="M3" s="152" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1">
-      <c r="B4" s="75">
+      <c r="B4" s="74">
         <v>44938</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F4" s="76">
+      <c r="F4" s="75">
         <v>5</v>
       </c>
-      <c r="H4" s="165" t="s">
+      <c r="H4" s="164" t="s">
         <v>208</v>
       </c>
-      <c r="I4" s="166"/>
-      <c r="J4" s="167"/>
-      <c r="K4" s="165"/>
-      <c r="L4" s="167"/>
-      <c r="M4" s="165"/>
+      <c r="I4" s="165"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="164"/>
+      <c r="L4" s="166"/>
+      <c r="M4" s="164"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1">
-      <c r="B5" s="75">
+      <c r="B5" s="74">
         <v>44938</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="F5" s="76">
+      <c r="F5" s="75">
         <v>4.5</v>
       </c>
-      <c r="H5" s="159"/>
-      <c r="I5" s="160" t="s">
+      <c r="H5" s="158"/>
+      <c r="I5" s="159" t="s">
         <v>157</v>
       </c>
-      <c r="J5" s="161"/>
-      <c r="K5" s="159"/>
-      <c r="L5" s="159"/>
-      <c r="M5" s="161"/>
+      <c r="J5" s="160"/>
+      <c r="K5" s="158"/>
+      <c r="L5" s="158"/>
+      <c r="M5" s="160"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1">
-      <c r="B6" s="75">
+      <c r="B6" s="74">
         <v>44938</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F6" s="76">
+      <c r="F6" s="75">
         <v>5</v>
       </c>
-      <c r="H6" s="159"/>
-      <c r="I6" s="159" t="s">
+      <c r="H6" s="158"/>
+      <c r="I6" s="158" t="s">
         <v>159</v>
       </c>
-      <c r="J6" s="161"/>
-      <c r="K6" s="159"/>
-      <c r="L6" s="159"/>
-      <c r="M6" s="161"/>
+      <c r="J6" s="160"/>
+      <c r="K6" s="158"/>
+      <c r="L6" s="158"/>
+      <c r="M6" s="160"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1">
-      <c r="B7" s="75">
+      <c r="B7" s="74">
         <v>44938</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="E7" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="F7" s="76">
+      <c r="F7" s="75">
         <v>3</v>
       </c>
-      <c r="H7" s="159"/>
-      <c r="I7" s="159" t="s">
+      <c r="H7" s="158"/>
+      <c r="I7" s="158" t="s">
         <v>160</v>
       </c>
-      <c r="J7" s="161"/>
-      <c r="K7" s="159"/>
-      <c r="L7" s="159"/>
-      <c r="M7" s="161"/>
+      <c r="J7" s="160"/>
+      <c r="K7" s="158"/>
+      <c r="L7" s="158"/>
+      <c r="M7" s="160"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1">
-      <c r="B8" s="75">
+      <c r="B8" s="74">
         <v>44938</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F8" s="76">
+      <c r="F8" s="75">
         <v>5</v>
       </c>
-      <c r="H8" s="162"/>
-      <c r="I8" s="162" t="s">
+      <c r="H8" s="161"/>
+      <c r="I8" s="161" t="s">
         <v>161</v>
       </c>
-      <c r="J8" s="163"/>
-      <c r="K8" s="162"/>
-      <c r="L8" s="162"/>
-      <c r="M8" s="164"/>
+      <c r="J8" s="162"/>
+      <c r="K8" s="161"/>
+      <c r="L8" s="161"/>
+      <c r="M8" s="163"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1">
-      <c r="B9" s="75">
+      <c r="B9" s="74">
         <v>44938</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="F9" s="76">
+      <c r="F9" s="75">
         <v>4.5</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1">
-      <c r="B10" s="75">
+      <c r="B10" s="74">
         <v>44938</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="E10" s="59" t="s">
+      <c r="E10" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F10" s="76">
+      <c r="F10" s="75">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1">
-      <c r="B11" s="75">
+      <c r="B11" s="74">
         <v>44938</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D11" s="59" t="s">
+      <c r="D11" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E11" s="59" t="s">
+      <c r="E11" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F11" s="76">
+      <c r="F11" s="75">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1">
-      <c r="B12" s="75">
+      <c r="B12" s="74">
         <v>44938</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="E12" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F12" s="76">
+      <c r="F12" s="75">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1">
-      <c r="B13" s="75">
+      <c r="B13" s="74">
         <v>44939</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E13" s="59" t="s">
+      <c r="E13" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F13" s="76">
+      <c r="F13" s="75">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1">
-      <c r="B14" s="75">
+      <c r="B14" s="74">
         <v>44939</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E14" s="59" t="s">
+      <c r="E14" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="F14" s="76">
+      <c r="F14" s="75">
         <v>4.5</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1">
-      <c r="B15" s="75">
+      <c r="B15" s="74">
         <v>44939</v>
       </c>
-      <c r="C15" s="59" t="s">
+      <c r="C15" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D15" s="59" t="s">
+      <c r="D15" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="E15" s="59" t="s">
+      <c r="E15" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="F15" s="76">
+      <c r="F15" s="75">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1">
-      <c r="B16" s="75">
+      <c r="B16" s="74">
         <v>44939</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D16" s="59" t="s">
+      <c r="D16" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E16" s="59" t="s">
+      <c r="E16" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F16" s="76">
+      <c r="F16" s="75">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="15" customHeight="1">
-      <c r="B17" s="75">
+      <c r="B17" s="74">
         <v>44939</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D17" s="59" t="s">
+      <c r="D17" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E17" s="59" t="s">
+      <c r="E17" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="F17" s="76">
+      <c r="F17" s="75">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="15" customHeight="1">
-      <c r="B18" s="75">
+      <c r="B18" s="74">
         <v>44939</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D18" s="59" t="s">
+      <c r="D18" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="E18" s="59" t="s">
+      <c r="E18" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F18" s="76">
+      <c r="F18" s="75">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15" customHeight="1">
-      <c r="B19" s="75">
+      <c r="B19" s="74">
         <v>44939</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D19" s="59" t="s">
+      <c r="D19" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E19" s="59" t="s">
+      <c r="E19" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="F19" s="76">
+      <c r="F19" s="75">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="15" customHeight="1">
-      <c r="B20" s="75">
+      <c r="B20" s="74">
         <v>44939</v>
       </c>
-      <c r="C20" s="59" t="s">
+      <c r="C20" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D20" s="59" t="s">
+      <c r="D20" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E20" s="59" t="s">
+      <c r="E20" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F20" s="76">
+      <c r="F20" s="75">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="15" customHeight="1">
-      <c r="B21" s="75">
+      <c r="B21" s="74">
         <v>44939</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D21" s="59" t="s">
+      <c r="D21" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="E21" s="59" t="s">
+      <c r="E21" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F21" s="76">
+      <c r="F21" s="75">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="15" customHeight="1">
-      <c r="B22" s="75">
+      <c r="B22" s="74">
         <v>44939</v>
       </c>
-      <c r="C22" s="59" t="s">
+      <c r="C22" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D22" s="59" t="s">
+      <c r="D22" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E22" s="59" t="s">
+      <c r="E22" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="F22" s="76">
+      <c r="F22" s="75">
         <v>4.5</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15" customHeight="1">
-      <c r="B23" s="75">
+      <c r="B23" s="74">
         <v>44939</v>
       </c>
-      <c r="C23" s="59" t="s">
+      <c r="C23" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D23" s="59" t="s">
+      <c r="D23" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="E23" s="59" t="s">
+      <c r="E23" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F23" s="76">
+      <c r="F23" s="75">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="15" customHeight="1">
-      <c r="B24" s="75">
+      <c r="B24" s="74">
         <v>44939</v>
       </c>
-      <c r="C24" s="59" t="s">
+      <c r="C24" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D24" s="59" t="s">
+      <c r="D24" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="E24" s="59" t="s">
+      <c r="E24" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="F24" s="76">
+      <c r="F24" s="75">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="15" customHeight="1">
-      <c r="B25" s="75">
+      <c r="B25" s="74">
         <v>44940</v>
       </c>
-      <c r="C25" s="59" t="s">
+      <c r="C25" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D25" s="59" t="s">
+      <c r="D25" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E25" s="59" t="s">
+      <c r="E25" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="F25" s="76">
+      <c r="F25" s="75">
         <v>4.5</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="15" customHeight="1">
-      <c r="B26" s="75">
+      <c r="B26" s="74">
         <v>44940</v>
       </c>
-      <c r="C26" s="59" t="s">
+      <c r="C26" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D26" s="59" t="s">
+      <c r="D26" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="E26" s="59" t="s">
+      <c r="E26" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F26" s="76">
+      <c r="F26" s="75">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="15" customHeight="1">
-      <c r="B27" s="75">
+      <c r="B27" s="74">
         <v>44940</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D27" s="59" t="s">
+      <c r="D27" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E27" s="59" t="s">
+      <c r="E27" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F27" s="76">
+      <c r="F27" s="75">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="15" customHeight="1">
-      <c r="B28" s="75">
+      <c r="B28" s="74">
         <v>44940</v>
       </c>
-      <c r="C28" s="59" t="s">
+      <c r="C28" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D28" s="59" t="s">
+      <c r="D28" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E28" s="59" t="s">
+      <c r="E28" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="F28" s="76"/>
+      <c r="F28" s="75"/>
     </row>
     <row r="29" spans="2:6" ht="15" customHeight="1">
-      <c r="B29" s="75">
+      <c r="B29" s="74">
         <v>44940</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D29" s="59" t="s">
+      <c r="D29" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="E29" s="59" t="s">
+      <c r="E29" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F29" s="76"/>
+      <c r="F29" s="75"/>
     </row>
     <row r="30" spans="2:6" ht="15" customHeight="1">
-      <c r="B30" s="75">
+      <c r="B30" s="74">
         <v>44940</v>
       </c>
-      <c r="C30" s="59" t="s">
+      <c r="C30" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D30" s="59" t="s">
+      <c r="D30" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="E30" s="59" t="s">
+      <c r="E30" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="F30" s="76"/>
+      <c r="F30" s="75"/>
     </row>
     <row r="31" spans="2:6" ht="15" customHeight="1">
-      <c r="B31" s="75">
+      <c r="B31" s="74">
         <v>44941</v>
       </c>
-      <c r="C31" s="59" t="s">
+      <c r="C31" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D31" s="59" t="s">
+      <c r="D31" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E31" s="59" t="s">
+      <c r="E31" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F31" s="76">
+      <c r="F31" s="75">
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="15" customHeight="1">
-      <c r="B32" s="75">
+      <c r="B32" s="74">
         <v>44941</v>
       </c>
-      <c r="C32" s="59" t="s">
+      <c r="C32" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D32" s="59" t="s">
+      <c r="D32" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="E32" s="59" t="s">
+      <c r="E32" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="F32" s="76">
+      <c r="F32" s="75">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="15" customHeight="1">
-      <c r="B33" s="75">
+      <c r="B33" s="74">
         <v>44941</v>
       </c>
-      <c r="C33" s="59" t="s">
+      <c r="C33" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D33" s="59" t="s">
+      <c r="D33" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E33" s="59" t="s">
+      <c r="E33" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F33" s="76">
+      <c r="F33" s="75">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="15" customHeight="1">
-      <c r="B34" s="75">
+      <c r="B34" s="74">
         <v>44941</v>
       </c>
-      <c r="C34" s="59" t="s">
+      <c r="C34" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D34" s="59" t="s">
+      <c r="D34" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="E34" s="59" t="s">
+      <c r="E34" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="F34" s="76">
+      <c r="F34" s="75">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="15" customHeight="1">
-      <c r="B35" s="75">
+      <c r="B35" s="74">
         <v>44941</v>
       </c>
-      <c r="C35" s="59" t="s">
+      <c r="C35" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D35" s="59" t="s">
+      <c r="D35" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E35" s="59" t="s">
+      <c r="E35" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F35" s="76">
+      <c r="F35" s="75">
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="15" customHeight="1">
-      <c r="B36" s="75">
+      <c r="B36" s="74">
         <v>44941</v>
       </c>
-      <c r="C36" s="59" t="s">
+      <c r="C36" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D36" s="59" t="s">
+      <c r="D36" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E36" s="59" t="s">
+      <c r="E36" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="F36" s="76">
+      <c r="F36" s="75">
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="15" customHeight="1">
-      <c r="B37" s="75">
+      <c r="B37" s="74">
         <v>44941</v>
       </c>
-      <c r="C37" s="59" t="s">
+      <c r="C37" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D37" s="59" t="s">
+      <c r="D37" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E37" s="59" t="s">
+      <c r="E37" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F37" s="76">
+      <c r="F37" s="75">
         <v>5</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="15" customHeight="1">
-      <c r="B38" s="75">
+      <c r="B38" s="74">
         <v>44941</v>
       </c>
-      <c r="C38" s="59" t="s">
+      <c r="C38" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D38" s="59" t="s">
+      <c r="D38" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="E38" s="59" t="s">
+      <c r="E38" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="F38" s="76" t="s">
+      <c r="F38" s="75" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="15" customHeight="1">
-      <c r="B39" s="75">
+      <c r="B39" s="74">
         <v>44941</v>
       </c>
-      <c r="C39" s="59" t="s">
+      <c r="C39" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D39" s="59" t="s">
+      <c r="D39" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="E39" s="59" t="s">
+      <c r="E39" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F39" s="76" t="s">
+      <c r="F39" s="75" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="15" customHeight="1">
-      <c r="B40" s="75">
+      <c r="B40" s="74">
         <v>44941</v>
       </c>
-      <c r="C40" s="59" t="s">
+      <c r="C40" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D40" s="59" t="s">
+      <c r="D40" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E40" s="59" t="s">
+      <c r="E40" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="F40" s="76" t="s">
+      <c r="F40" s="75" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="15" customHeight="1">
-      <c r="B41" s="75">
+      <c r="B41" s="74">
         <v>44941</v>
       </c>
-      <c r="C41" s="59" t="s">
+      <c r="C41" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D41" s="59" t="s">
+      <c r="D41" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="E41" s="59" t="s">
+      <c r="E41" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="F41" s="76">
+      <c r="F41" s="75">
         <v>3</v>
       </c>
     </row>
@@ -19127,92 +19317,92 @@
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="189" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="188"/>
-      <c r="B3" s="190"/>
-      <c r="C3" s="190"/>
-      <c r="D3" s="190"/>
-      <c r="E3" s="190"/>
-      <c r="F3" s="190"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="191" t="s">
+    <row r="3" spans="1:20" s="184" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="183"/>
+      <c r="B3" s="185"/>
+      <c r="C3" s="185"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="185"/>
+      <c r="F3" s="185"/>
+      <c r="G3" s="185"/>
+      <c r="H3" s="186" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="191"/>
-      <c r="J3" s="192"/>
-      <c r="K3" s="193"/>
-      <c r="L3" s="194"/>
-      <c r="M3" s="193" t="s">
+      <c r="I3" s="186"/>
+      <c r="J3" s="187"/>
+      <c r="K3" s="188"/>
+      <c r="L3" s="189"/>
+      <c r="M3" s="188" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="193"/>
-      <c r="O3" s="193"/>
-      <c r="P3" s="193"/>
-      <c r="Q3" s="193"/>
-      <c r="R3" s="195" t="s">
+      <c r="N3" s="188"/>
+      <c r="O3" s="188"/>
+      <c r="P3" s="188"/>
+      <c r="Q3" s="188"/>
+      <c r="R3" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="193"/>
-      <c r="T3" s="196" t="s">
+      <c r="S3" s="188"/>
+      <c r="T3" s="228" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="189" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="188"/>
-      <c r="B4" s="190" t="s">
+    <row r="4" spans="1:20" s="184" customFormat="1" ht="15" customHeight="1">
+      <c r="A4" s="183"/>
+      <c r="B4" s="185" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="190"/>
-      <c r="D4" s="190"/>
-      <c r="E4" s="190"/>
-      <c r="F4" s="190"/>
-      <c r="G4" s="190"/>
-      <c r="H4" s="198">
+      <c r="C4" s="185"/>
+      <c r="D4" s="185"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="185"/>
+      <c r="G4" s="185"/>
+      <c r="H4" s="191">
         <v>2017</v>
       </c>
-      <c r="I4" s="198">
+      <c r="I4" s="191">
         <f t="shared" ref="I4:Q4" si="0">+H4+1</f>
         <v>2018</v>
       </c>
-      <c r="J4" s="198">
+      <c r="J4" s="191">
         <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="K4" s="198">
+      <c r="K4" s="191">
         <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="L4" s="198">
+      <c r="L4" s="191">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="M4" s="199">
+      <c r="M4" s="192">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="N4" s="200">
+      <c r="N4" s="193">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="O4" s="200">
+      <c r="O4" s="193">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="P4" s="200">
+      <c r="P4" s="193">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="Q4" s="201">
+      <c r="Q4" s="194">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="R4" s="200" t="s">
+      <c r="R4" s="193" t="s">
         <v>5</v>
       </c>
-      <c r="S4" s="200" t="s">
+      <c r="S4" s="193" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="197"/>
+      <c r="T4" s="229"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1">
       <c r="B5" s="17"/>
@@ -21733,1244 +21923,1244 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.69921875" style="54" customWidth="1"/>
-    <col min="2" max="2" width="12.69921875" style="60" customWidth="1"/>
-    <col min="3" max="6" width="9.69921875" style="59" customWidth="1"/>
-    <col min="7" max="7" width="12.69921875" style="59" customWidth="1"/>
-    <col min="8" max="8" width="1.69921875" style="59" customWidth="1"/>
-    <col min="9" max="9" width="22.09765625" style="54" customWidth="1"/>
-    <col min="10" max="11" width="10.69921875" style="54" customWidth="1"/>
-    <col min="12" max="20" width="12.69921875" style="59" customWidth="1"/>
-    <col min="21" max="21" width="13.59765625" style="59" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.8984375" style="59"/>
+    <col min="1" max="1" width="2.69921875" style="53" customWidth="1"/>
+    <col min="2" max="2" width="12.69921875" style="59" customWidth="1"/>
+    <col min="3" max="6" width="9.69921875" style="58" customWidth="1"/>
+    <col min="7" max="7" width="12.69921875" style="58" customWidth="1"/>
+    <col min="8" max="8" width="1.69921875" style="58" customWidth="1"/>
+    <col min="9" max="9" width="22.09765625" style="53" customWidth="1"/>
+    <col min="10" max="11" width="10.69921875" style="53" customWidth="1"/>
+    <col min="12" max="20" width="12.69921875" style="58" customWidth="1"/>
+    <col min="21" max="21" width="13.59765625" style="58" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.8984375" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="156" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="154"/>
-      <c r="B1" s="155" t="s">
+    <row r="1" spans="1:11" s="155" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="153"/>
+      <c r="B1" s="154" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1">
-      <c r="C3" s="175">
+      <c r="C3" s="174">
         <v>1</v>
       </c>
-      <c r="D3" s="175">
+      <c r="D3" s="174">
         <v>2</v>
       </c>
-      <c r="E3" s="175">
+      <c r="E3" s="174">
         <v>3</v>
       </c>
-      <c r="F3" s="175">
+      <c r="F3" s="174">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1">
-      <c r="A4" s="174">
+      <c r="A4" s="173">
         <v>1</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="76" t="s">
         <v>154</v>
       </c>
-      <c r="C4" s="153" t="s">
+      <c r="C4" s="152" t="s">
         <v>218</v>
       </c>
-      <c r="D4" s="153" t="s">
+      <c r="D4" s="152" t="s">
         <v>219</v>
       </c>
-      <c r="E4" s="153" t="s">
+      <c r="E4" s="152" t="s">
         <v>220</v>
       </c>
-      <c r="F4" s="79" t="s">
+      <c r="F4" s="78" t="s">
         <v>221</v>
       </c>
-      <c r="H4" s="173" t="s">
+      <c r="H4" s="172" t="s">
         <v>223</v>
       </c>
-      <c r="I4" s="152"/>
-      <c r="J4" s="153" t="s">
+      <c r="I4" s="151"/>
+      <c r="J4" s="152" t="s">
         <v>220</v>
       </c>
-      <c r="K4" s="153" t="s">
+      <c r="K4" s="152" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1">
-      <c r="A5" s="174">
+      <c r="A5" s="173">
         <f>+A4+1</f>
         <v>2</v>
       </c>
-      <c r="B5" s="75">
+      <c r="B5" s="74">
         <v>44938</v>
       </c>
-      <c r="C5" s="171">
+      <c r="C5" s="170">
         <v>149.320007</v>
       </c>
-      <c r="D5" s="172">
+      <c r="D5" s="171">
         <v>168.80349699999999</v>
       </c>
-      <c r="E5" s="172">
+      <c r="E5" s="171">
         <v>43.560001</v>
       </c>
-      <c r="F5" s="68">
+      <c r="F5" s="67">
         <v>171.39999399999999</v>
       </c>
-      <c r="H5" s="165" t="s">
+      <c r="H5" s="164" t="s">
         <v>222</v>
       </c>
-      <c r="I5" s="166"/>
-      <c r="J5" s="167"/>
-      <c r="K5" s="167"/>
+      <c r="I5" s="165"/>
+      <c r="J5" s="166"/>
+      <c r="K5" s="166"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1">
-      <c r="A6" s="174">
+      <c r="A6" s="173">
         <f t="shared" ref="A6:A52" si="0">+A5+1</f>
         <v>3</v>
       </c>
-      <c r="B6" s="75">
+      <c r="B6" s="74">
         <f>+B5+1</f>
         <v>44939</v>
       </c>
-      <c r="C6" s="171">
+      <c r="C6" s="170">
         <v>148.85000600000001</v>
       </c>
-      <c r="D6" s="172">
+      <c r="D6" s="171">
         <v>169.62449599999999</v>
       </c>
-      <c r="E6" s="172">
+      <c r="E6" s="171">
         <v>42.970001000000003</v>
       </c>
-      <c r="F6" s="68">
+      <c r="F6" s="67">
         <v>167.83000200000001</v>
       </c>
-      <c r="H6" s="159"/>
-      <c r="I6" s="169">
+      <c r="H6" s="158"/>
+      <c r="I6" s="168">
         <v>44941</v>
       </c>
-      <c r="J6" s="161"/>
-      <c r="K6" s="161"/>
+      <c r="J6" s="160"/>
+      <c r="K6" s="160"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1">
-      <c r="A7" s="174">
+      <c r="A7" s="173">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="75">
+      <c r="B7" s="74">
         <f t="shared" ref="B7:B52" si="1">+B6+1</f>
         <v>44940</v>
       </c>
-      <c r="C7" s="171">
+      <c r="C7" s="170">
         <v>152.570007</v>
       </c>
-      <c r="D7" s="172">
+      <c r="D7" s="171">
         <v>172.328506</v>
       </c>
-      <c r="E7" s="172">
+      <c r="E7" s="171">
         <v>43.18</v>
       </c>
-      <c r="F7" s="68">
+      <c r="F7" s="67">
         <v>170.36000100000001</v>
       </c>
-      <c r="H7" s="159"/>
-      <c r="I7" s="169">
+      <c r="H7" s="158"/>
+      <c r="I7" s="168">
         <v>44957</v>
       </c>
-      <c r="J7" s="161"/>
-      <c r="K7" s="161"/>
+      <c r="J7" s="160"/>
+      <c r="K7" s="160"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1">
-      <c r="A8" s="174">
+      <c r="A8" s="173">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="75">
+      <c r="B8" s="74">
         <f t="shared" si="1"/>
         <v>44941</v>
       </c>
-      <c r="C8" s="171">
+      <c r="C8" s="170">
         <v>149.800003</v>
       </c>
-      <c r="D8" s="172">
+      <c r="D8" s="171">
         <v>168.62150600000001</v>
       </c>
-      <c r="E8" s="172">
+      <c r="E8" s="171">
         <v>43.740001999999997</v>
       </c>
-      <c r="F8" s="68">
+      <c r="F8" s="67">
         <v>169.88999899999999</v>
       </c>
-      <c r="H8" s="159"/>
-      <c r="I8" s="169">
+      <c r="H8" s="158"/>
+      <c r="I8" s="168">
         <v>44972</v>
       </c>
-      <c r="J8" s="161"/>
-      <c r="K8" s="161"/>
+      <c r="J8" s="160"/>
+      <c r="K8" s="160"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1">
-      <c r="A9" s="174">
+      <c r="A9" s="173">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B9" s="75">
+      <c r="B9" s="74">
         <f t="shared" si="1"/>
         <v>44942</v>
       </c>
-      <c r="C9" s="171">
+      <c r="C9" s="170">
         <v>148.96000699999999</v>
       </c>
-      <c r="D9" s="172">
+      <c r="D9" s="171">
         <v>165.90550200000001</v>
       </c>
-      <c r="E9" s="172">
+      <c r="E9" s="171">
         <v>43.639999000000003</v>
       </c>
-      <c r="F9" s="68">
+      <c r="F9" s="67">
         <v>169.800003</v>
       </c>
-      <c r="H9" s="158"/>
-      <c r="I9" s="168">
+      <c r="H9" s="157"/>
+      <c r="I9" s="167">
         <v>44985</v>
       </c>
-      <c r="J9" s="163"/>
-      <c r="K9" s="163"/>
+      <c r="J9" s="162"/>
+      <c r="K9" s="162"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
-      <c r="A10" s="174">
+      <c r="A10" s="173">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="75">
+      <c r="B10" s="74">
         <f t="shared" si="1"/>
         <v>44943</v>
       </c>
-      <c r="C10" s="171">
+      <c r="C10" s="170">
         <v>150.020004</v>
       </c>
-      <c r="D10" s="172">
+      <c r="D10" s="171">
         <v>165.637497</v>
       </c>
-      <c r="E10" s="172">
+      <c r="E10" s="171">
         <v>45.450001</v>
       </c>
-      <c r="F10" s="68">
+      <c r="F10" s="67">
         <v>170.470001</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
-      <c r="A11" s="174">
+      <c r="A11" s="173">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="74">
         <f t="shared" si="1"/>
         <v>44944</v>
       </c>
-      <c r="C11" s="171">
+      <c r="C11" s="170">
         <v>151.490005</v>
       </c>
-      <c r="D11" s="172">
+      <c r="D11" s="171">
         <v>169.199997</v>
       </c>
-      <c r="E11" s="172">
+      <c r="E11" s="171">
         <v>44.82</v>
       </c>
-      <c r="F11" s="68">
+      <c r="F11" s="67">
         <v>170.529999</v>
       </c>
-      <c r="H11" s="173" t="s">
+      <c r="H11" s="172" t="s">
         <v>224</v>
       </c>
-      <c r="I11" s="152"/>
-      <c r="J11" s="153" t="s">
+      <c r="I11" s="151"/>
+      <c r="J11" s="152" t="s">
         <v>220</v>
       </c>
-      <c r="K11" s="153" t="s">
+      <c r="K11" s="152" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
-      <c r="A12" s="174">
+      <c r="A12" s="173">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B12" s="75">
+      <c r="B12" s="74">
         <f t="shared" si="1"/>
         <v>44945</v>
       </c>
-      <c r="C12" s="171">
+      <c r="C12" s="170">
         <v>150.96000699999999</v>
       </c>
-      <c r="D12" s="172">
+      <c r="D12" s="171">
         <v>173.85000600000001</v>
       </c>
-      <c r="E12" s="172">
+      <c r="E12" s="171">
         <v>43.849997999999999</v>
       </c>
-      <c r="F12" s="68">
+      <c r="F12" s="67">
         <v>168.28999300000001</v>
       </c>
-      <c r="H12" s="165" t="s">
+      <c r="H12" s="164" t="s">
         <v>222</v>
       </c>
-      <c r="I12" s="166"/>
-      <c r="J12" s="167"/>
-      <c r="K12" s="167"/>
+      <c r="I12" s="165"/>
+      <c r="J12" s="166"/>
+      <c r="K12" s="166"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1">
-      <c r="A13" s="174">
+      <c r="A13" s="173">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="74">
         <f t="shared" si="1"/>
         <v>44946</v>
       </c>
-      <c r="C13" s="171">
+      <c r="C13" s="170">
         <v>151.279999</v>
       </c>
-      <c r="D13" s="172">
+      <c r="D13" s="171">
         <v>175.94949299999999</v>
       </c>
-      <c r="E13" s="172">
+      <c r="E13" s="171">
         <v>48.610000999999997</v>
       </c>
-      <c r="F13" s="68">
+      <c r="F13" s="67">
         <v>168.050003</v>
       </c>
-      <c r="H13" s="159"/>
-      <c r="I13" s="169">
+      <c r="H13" s="158"/>
+      <c r="I13" s="168">
         <v>44941</v>
       </c>
-      <c r="J13" s="161"/>
-      <c r="K13" s="161"/>
+      <c r="J13" s="160"/>
+      <c r="K13" s="160"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1">
-      <c r="A14" s="174">
+      <c r="A14" s="173">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B14" s="75">
+      <c r="B14" s="74">
         <f t="shared" si="1"/>
         <v>44947</v>
       </c>
-      <c r="C14" s="171">
+      <c r="C14" s="170">
         <v>150.44000199999999</v>
       </c>
-      <c r="D14" s="172">
+      <c r="D14" s="171">
         <v>174.449005</v>
       </c>
-      <c r="E14" s="172">
+      <c r="E14" s="171">
         <v>48.330002</v>
       </c>
-      <c r="F14" s="68">
+      <c r="F14" s="67">
         <v>169.05999800000001</v>
       </c>
-      <c r="H14" s="159"/>
-      <c r="I14" s="169">
+      <c r="H14" s="158"/>
+      <c r="I14" s="168">
         <v>44957</v>
       </c>
-      <c r="J14" s="161"/>
-      <c r="K14" s="161"/>
+      <c r="J14" s="160"/>
+      <c r="K14" s="160"/>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1">
-      <c r="A15" s="174">
+      <c r="A15" s="173">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="74">
         <f t="shared" si="1"/>
         <v>44948</v>
       </c>
-      <c r="C15" s="171">
+      <c r="C15" s="170">
         <v>150.80999800000001</v>
       </c>
-      <c r="D15" s="172">
+      <c r="D15" s="171">
         <v>178.81149300000001</v>
       </c>
-      <c r="E15" s="172">
+      <c r="E15" s="171">
         <v>47.299999</v>
       </c>
-      <c r="F15" s="68">
+      <c r="F15" s="67">
         <v>167.779999</v>
       </c>
-      <c r="H15" s="159"/>
-      <c r="I15" s="169">
+      <c r="H15" s="158"/>
+      <c r="I15" s="168">
         <v>44972</v>
       </c>
-      <c r="J15" s="161"/>
-      <c r="K15" s="161"/>
+      <c r="J15" s="160"/>
+      <c r="K15" s="160"/>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1">
-      <c r="A16" s="174">
+      <c r="A16" s="173">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B16" s="75">
+      <c r="B16" s="74">
         <f t="shared" si="1"/>
         <v>44949</v>
       </c>
-      <c r="C16" s="171">
+      <c r="C16" s="170">
         <v>147.91999799999999</v>
       </c>
-      <c r="D16" s="172">
+      <c r="D16" s="171">
         <v>174.10249300000001</v>
       </c>
-      <c r="E16" s="172">
+      <c r="E16" s="171">
         <v>49.02</v>
       </c>
-      <c r="F16" s="68">
+      <c r="F16" s="67">
         <v>167.61999499999999</v>
       </c>
-      <c r="H16" s="158"/>
-      <c r="I16" s="168">
+      <c r="H16" s="157"/>
+      <c r="I16" s="167">
         <v>44985</v>
       </c>
-      <c r="J16" s="163"/>
-      <c r="K16" s="163"/>
+      <c r="J16" s="162"/>
+      <c r="K16" s="162"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1">
-      <c r="A17" s="174">
+      <c r="A17" s="173">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="74">
         <f t="shared" si="1"/>
         <v>44950</v>
       </c>
-      <c r="C17" s="171">
+      <c r="C17" s="170">
         <v>147.86999499999999</v>
       </c>
-      <c r="D17" s="172">
+      <c r="D17" s="171">
         <v>173.625</v>
       </c>
-      <c r="E17" s="172">
+      <c r="E17" s="171">
         <v>50.18</v>
       </c>
-      <c r="F17" s="68">
+      <c r="F17" s="67">
         <v>167.61000100000001</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1">
-      <c r="A18" s="174">
+      <c r="A18" s="173">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B18" s="75">
+      <c r="B18" s="74">
         <f t="shared" si="1"/>
         <v>44951</v>
       </c>
-      <c r="C18" s="171">
+      <c r="C18" s="170">
         <v>149.990005</v>
       </c>
-      <c r="D18" s="172">
+      <c r="D18" s="171">
         <v>176.257507</v>
       </c>
-      <c r="E18" s="172">
+      <c r="E18" s="171">
         <v>49.73</v>
       </c>
-      <c r="F18" s="68">
+      <c r="F18" s="67">
         <v>166.86000100000001</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1">
-      <c r="A19" s="174">
+      <c r="A19" s="173">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="74">
         <f t="shared" si="1"/>
         <v>44952</v>
       </c>
-      <c r="C19" s="171">
+      <c r="C19" s="170">
         <v>150</v>
       </c>
-      <c r="D19" s="172">
+      <c r="D19" s="171">
         <v>177.283997</v>
       </c>
-      <c r="E19" s="172">
+      <c r="E19" s="171">
         <v>49.650002000000001</v>
       </c>
-      <c r="F19" s="68">
+      <c r="F19" s="67">
         <v>166.55999800000001</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1">
-      <c r="A20" s="174">
+      <c r="A20" s="173">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B20" s="75">
+      <c r="B20" s="74">
         <f t="shared" si="1"/>
         <v>44953</v>
       </c>
-      <c r="C20" s="171">
+      <c r="C20" s="170">
         <v>151</v>
       </c>
-      <c r="D20" s="172">
+      <c r="D20" s="171">
         <v>177.03500399999999</v>
       </c>
-      <c r="E20" s="172">
+      <c r="E20" s="171">
         <v>49.599997999999999</v>
       </c>
-      <c r="F20" s="68">
+      <c r="F20" s="67">
         <v>165.36000100000001</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1">
-      <c r="A21" s="174">
+      <c r="A21" s="173">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B21" s="75">
+      <c r="B21" s="74">
         <f t="shared" si="1"/>
         <v>44954</v>
       </c>
-      <c r="C21" s="171">
+      <c r="C21" s="170">
         <v>153.490005</v>
       </c>
-      <c r="D21" s="172">
+      <c r="D21" s="171">
         <v>177.449997</v>
       </c>
-      <c r="E21" s="172">
+      <c r="E21" s="171">
         <v>50.869999</v>
       </c>
-      <c r="F21" s="68">
+      <c r="F21" s="67">
         <v>164.470001</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1">
-      <c r="A22" s="174">
+      <c r="A22" s="173">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B22" s="75">
+      <c r="B22" s="74">
         <f t="shared" si="1"/>
         <v>44955</v>
       </c>
-      <c r="C22" s="171">
+      <c r="C22" s="170">
         <v>157.86999499999999</v>
       </c>
-      <c r="D22" s="172">
+      <c r="D22" s="171">
         <v>184.80299400000001</v>
       </c>
-      <c r="E22" s="172">
+      <c r="E22" s="171">
         <v>51.41</v>
       </c>
-      <c r="F22" s="68">
+      <c r="F22" s="67">
         <v>163.050003</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1">
-      <c r="A23" s="174">
+      <c r="A23" s="173">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B23" s="75">
+      <c r="B23" s="74">
         <f t="shared" si="1"/>
         <v>44956</v>
       </c>
-      <c r="C23" s="171">
+      <c r="C23" s="170">
         <v>160.550003</v>
       </c>
-      <c r="D23" s="172">
+      <c r="D23" s="171">
         <v>183.828506</v>
       </c>
-      <c r="E23" s="172">
+      <c r="E23" s="171">
         <v>50.799999</v>
       </c>
-      <c r="F23" s="68">
+      <c r="F23" s="67">
         <v>160.91999799999999</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1">
-      <c r="A24" s="174">
+      <c r="A24" s="173">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B24" s="75">
+      <c r="B24" s="74">
         <f t="shared" si="1"/>
         <v>44957</v>
       </c>
-      <c r="C24" s="171">
+      <c r="C24" s="170">
         <v>161.020004</v>
       </c>
-      <c r="D24" s="172">
+      <c r="D24" s="171">
         <v>178.62849399999999</v>
       </c>
-      <c r="E24" s="172">
+      <c r="E24" s="171">
         <v>51.200001</v>
       </c>
-      <c r="F24" s="68">
+      <c r="F24" s="67">
         <v>164.35000600000001</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1">
-      <c r="A25" s="174">
+      <c r="A25" s="173">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B25" s="75">
+      <c r="B25" s="74">
         <f t="shared" si="1"/>
         <v>44958</v>
       </c>
-      <c r="C25" s="171">
+      <c r="C25" s="170">
         <v>161.41000399999999</v>
       </c>
-      <c r="D25" s="172">
+      <c r="D25" s="171">
         <v>179.00199900000001</v>
       </c>
-      <c r="E25" s="172">
+      <c r="E25" s="171">
         <v>51.080002</v>
       </c>
-      <c r="F25" s="68">
+      <c r="F25" s="67">
         <v>168.279999</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1">
-      <c r="A26" s="174">
+      <c r="A26" s="173">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B26" s="75">
+      <c r="B26" s="74">
         <f t="shared" si="1"/>
         <v>44959</v>
       </c>
-      <c r="C26" s="171">
+      <c r="C26" s="170">
         <v>161.94000199999999</v>
       </c>
-      <c r="D26" s="172">
+      <c r="D26" s="171">
         <v>179.02049299999999</v>
       </c>
-      <c r="E26" s="172">
+      <c r="E26" s="171">
         <v>50.889999000000003</v>
       </c>
-      <c r="F26" s="68">
+      <c r="F26" s="67">
         <v>166.96000699999999</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1">
-      <c r="A27" s="174">
+      <c r="A27" s="173">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B27" s="75">
+      <c r="B27" s="74">
         <f t="shared" si="1"/>
         <v>44960</v>
       </c>
-      <c r="C27" s="171">
+      <c r="C27" s="170">
         <v>156.80999800000001</v>
       </c>
-      <c r="D27" s="172">
+      <c r="D27" s="171">
         <v>175.22799699999999</v>
       </c>
-      <c r="E27" s="172">
+      <c r="E27" s="171">
         <v>54</v>
       </c>
-      <c r="F27" s="68">
+      <c r="F27" s="67">
         <v>161.929993</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1">
-      <c r="A28" s="174">
+      <c r="A28" s="173">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B28" s="75">
+      <c r="B28" s="74">
         <f t="shared" si="1"/>
         <v>44961</v>
       </c>
-      <c r="C28" s="171">
+      <c r="C28" s="170">
         <v>160.240005</v>
       </c>
-      <c r="D28" s="172">
+      <c r="D28" s="171">
         <v>178.078506</v>
       </c>
-      <c r="E28" s="172">
+      <c r="E28" s="171">
         <v>52.400002000000001</v>
       </c>
-      <c r="F28" s="68">
+      <c r="F28" s="67">
         <v>161.229996</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1">
-      <c r="A29" s="174">
+      <c r="A29" s="173">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B29" s="75">
+      <c r="B29" s="74">
         <f t="shared" si="1"/>
         <v>44962</v>
       </c>
-      <c r="C29" s="171">
+      <c r="C29" s="170">
         <v>165.300003</v>
       </c>
-      <c r="D29" s="172">
+      <c r="D29" s="171">
         <v>175.3535</v>
       </c>
-      <c r="E29" s="172">
+      <c r="E29" s="171">
         <v>53.73</v>
       </c>
-      <c r="F29" s="68">
+      <c r="F29" s="67">
         <v>158.83000200000001</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1">
-      <c r="A30" s="174">
+      <c r="A30" s="173">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B30" s="75">
+      <c r="B30" s="74">
         <f t="shared" si="1"/>
         <v>44963</v>
       </c>
-      <c r="C30" s="171">
+      <c r="C30" s="170">
         <v>164.770004</v>
       </c>
-      <c r="D30" s="172">
+      <c r="D30" s="171">
         <v>172.18600499999999</v>
       </c>
-      <c r="E30" s="172">
+      <c r="E30" s="171">
         <v>54.68</v>
       </c>
-      <c r="F30" s="68">
+      <c r="F30" s="67">
         <v>157.88999899999999</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1">
-      <c r="A31" s="174">
+      <c r="A31" s="173">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B31" s="75">
+      <c r="B31" s="74">
         <f t="shared" si="1"/>
         <v>44964</v>
       </c>
-      <c r="C31" s="171">
+      <c r="C31" s="170">
         <v>163.759995</v>
       </c>
-      <c r="D31" s="172">
+      <c r="D31" s="171">
         <v>171.86799600000001</v>
       </c>
-      <c r="E31" s="172">
+      <c r="E31" s="171">
         <v>53.040000999999997</v>
       </c>
-      <c r="F31" s="68">
+      <c r="F31" s="67">
         <v>161.21000699999999</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1">
-      <c r="A32" s="174">
+      <c r="A32" s="173">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B32" s="75">
+      <c r="B32" s="74">
         <f t="shared" si="1"/>
         <v>44965</v>
       </c>
-      <c r="C32" s="171">
+      <c r="C32" s="170">
         <v>161.83999600000001</v>
       </c>
-      <c r="D32" s="172">
+      <c r="D32" s="171">
         <v>169.48950199999999</v>
       </c>
-      <c r="E32" s="172">
+      <c r="E32" s="171">
         <v>54.27</v>
       </c>
-      <c r="F32" s="68">
+      <c r="F32" s="67">
         <v>158.28999300000001</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1">
-      <c r="A33" s="174">
+      <c r="A33" s="173">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B33" s="75">
+      <c r="B33" s="74">
         <f t="shared" si="1"/>
         <v>44966</v>
       </c>
-      <c r="C33" s="171">
+      <c r="C33" s="170">
         <v>165.320007</v>
       </c>
-      <c r="D33" s="172">
+      <c r="D33" s="171">
         <v>171.36850000000001</v>
       </c>
-      <c r="E33" s="172">
+      <c r="E33" s="171">
         <v>51.48</v>
       </c>
-      <c r="F33" s="68">
+      <c r="F33" s="67">
         <v>160.16000399999999</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1">
-      <c r="A34" s="174">
+      <c r="A34" s="173">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B34" s="75">
+      <c r="B34" s="74">
         <f t="shared" si="1"/>
         <v>44967</v>
       </c>
-      <c r="C34" s="171">
+      <c r="C34" s="170">
         <v>171.179993</v>
       </c>
-      <c r="D34" s="172">
+      <c r="D34" s="171">
         <v>176.16450499999999</v>
       </c>
-      <c r="E34" s="172">
+      <c r="E34" s="171">
         <v>51.720001000000003</v>
       </c>
-      <c r="F34" s="68">
+      <c r="F34" s="67">
         <v>162.570007</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1">
-      <c r="A35" s="174">
+      <c r="A35" s="173">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B35" s="75">
+      <c r="B35" s="74">
         <f t="shared" si="1"/>
         <v>44968</v>
       </c>
-      <c r="C35" s="171">
+      <c r="C35" s="170">
         <v>175.08000200000001</v>
       </c>
-      <c r="D35" s="172">
+      <c r="D35" s="171">
         <v>176.158005</v>
       </c>
-      <c r="E35" s="172">
+      <c r="E35" s="171">
         <v>51.400002000000001</v>
       </c>
-      <c r="F35" s="68">
+      <c r="F35" s="67">
         <v>160.71000699999999</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1">
-      <c r="A36" s="174">
+      <c r="A36" s="173">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B36" s="75">
+      <c r="B36" s="74">
         <f t="shared" si="1"/>
         <v>44969</v>
       </c>
-      <c r="C36" s="171">
+      <c r="C36" s="170">
         <v>174.55999800000001</v>
       </c>
-      <c r="D36" s="172">
+      <c r="D36" s="171">
         <v>174.17100500000001</v>
       </c>
-      <c r="E36" s="172">
+      <c r="E36" s="171">
         <v>52.080002</v>
       </c>
-      <c r="F36" s="68">
+      <c r="F36" s="67">
         <v>160.46000699999999</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1">
-      <c r="A37" s="174">
+      <c r="A37" s="173">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B37" s="75">
+      <c r="B37" s="74">
         <f t="shared" si="1"/>
         <v>44970</v>
       </c>
-      <c r="C37" s="171">
+      <c r="C37" s="170">
         <v>179.449997</v>
       </c>
-      <c r="D37" s="172">
+      <c r="D37" s="171">
         <v>172.212006</v>
       </c>
-      <c r="E37" s="172">
+      <c r="E37" s="171">
         <v>52.779998999999997</v>
       </c>
-      <c r="F37" s="68">
+      <c r="F37" s="67">
         <v>159.820007</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1">
-      <c r="A38" s="174">
+      <c r="A38" s="173">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B38" s="75">
+      <c r="B38" s="74">
         <f t="shared" si="1"/>
         <v>44971</v>
       </c>
-      <c r="C38" s="171">
+      <c r="C38" s="170">
         <v>175.740005</v>
       </c>
-      <c r="D38" s="172">
+      <c r="D38" s="171">
         <v>169.56750500000001</v>
       </c>
-      <c r="E38" s="172">
+      <c r="E38" s="171">
         <v>55.200001</v>
       </c>
-      <c r="F38" s="68">
+      <c r="F38" s="67">
         <v>157.91999799999999</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1">
-      <c r="A39" s="174">
+      <c r="A39" s="173">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B39" s="75">
+      <c r="B39" s="74">
         <f t="shared" si="1"/>
         <v>44972</v>
       </c>
-      <c r="C39" s="171">
+      <c r="C39" s="170">
         <v>174.33000200000001</v>
       </c>
-      <c r="D39" s="172">
+      <c r="D39" s="171">
         <v>169.09150700000001</v>
       </c>
-      <c r="E39" s="172">
+      <c r="E39" s="171">
         <v>55.540000999999997</v>
       </c>
-      <c r="F39" s="68">
+      <c r="F39" s="67">
         <v>159.13000500000001</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1">
-      <c r="A40" s="174">
+      <c r="A40" s="173">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B40" s="75">
+      <c r="B40" s="74">
         <f t="shared" si="1"/>
         <v>44973</v>
       </c>
-      <c r="C40" s="171">
+      <c r="C40" s="170">
         <v>179.300003</v>
       </c>
-      <c r="D40" s="172">
+      <c r="D40" s="171">
         <v>173.31500199999999</v>
       </c>
-      <c r="E40" s="172">
+      <c r="E40" s="171">
         <v>58.799999</v>
       </c>
-      <c r="F40" s="68">
+      <c r="F40" s="67">
         <v>157.94000199999999</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1">
-      <c r="A41" s="174">
+      <c r="A41" s="173">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B41" s="75">
+      <c r="B41" s="74">
         <f t="shared" si="1"/>
         <v>44974</v>
       </c>
-      <c r="C41" s="171">
+      <c r="C41" s="170">
         <v>172.259995</v>
       </c>
-      <c r="D41" s="172">
+      <c r="D41" s="171">
         <v>168.871002</v>
       </c>
-      <c r="E41" s="172">
+      <c r="E41" s="171">
         <v>61.25</v>
       </c>
-      <c r="F41" s="68">
+      <c r="F41" s="67">
         <v>160.41000399999999</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1">
-      <c r="A42" s="174">
+      <c r="A42" s="173">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B42" s="75">
+      <c r="B42" s="74">
         <f t="shared" si="1"/>
         <v>44975</v>
       </c>
-      <c r="C42" s="171">
+      <c r="C42" s="170">
         <v>171.13999899999999</v>
       </c>
-      <c r="D42" s="172">
+      <c r="D42" s="171">
         <v>170.01750200000001</v>
       </c>
-      <c r="E42" s="172">
+      <c r="E42" s="171">
         <v>59.48</v>
       </c>
-      <c r="F42" s="68">
+      <c r="F42" s="67">
         <v>156.759995</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1">
-      <c r="A43" s="174">
+      <c r="A43" s="173">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B43" s="75">
+      <c r="B43" s="74">
         <f t="shared" si="1"/>
         <v>44976</v>
       </c>
-      <c r="C43" s="171">
+      <c r="C43" s="170">
         <v>169.75</v>
       </c>
-      <c r="D43" s="172">
+      <c r="D43" s="171">
         <v>167.07899499999999</v>
       </c>
-      <c r="E43" s="172">
+      <c r="E43" s="171">
         <v>61.02</v>
       </c>
-      <c r="F43" s="172">
+      <c r="F43" s="171">
         <v>153.94000199999999</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1">
-      <c r="A44" s="174">
+      <c r="A44" s="173">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B44" s="75">
+      <c r="B44" s="74">
         <f t="shared" si="1"/>
         <v>44977</v>
       </c>
-      <c r="C44" s="171">
+      <c r="C44" s="170">
         <v>172.990005</v>
       </c>
-      <c r="D44" s="172">
+      <c r="D44" s="171">
         <v>170.41700700000001</v>
       </c>
-      <c r="E44" s="172">
+      <c r="E44" s="171">
         <v>58.950001</v>
       </c>
-      <c r="F44" s="172">
+      <c r="F44" s="171">
         <v>156.08999600000001</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1">
-      <c r="A45" s="174">
+      <c r="A45" s="173">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B45" s="75">
+      <c r="B45" s="74">
         <f t="shared" si="1"/>
         <v>44978</v>
       </c>
-      <c r="C45" s="171">
+      <c r="C45" s="170">
         <v>175.63999899999999</v>
       </c>
-      <c r="D45" s="172">
+      <c r="D45" s="171">
         <v>171.037003</v>
       </c>
-      <c r="E45" s="172">
+      <c r="E45" s="171">
         <v>59.549999</v>
       </c>
-      <c r="F45" s="172">
+      <c r="F45" s="171">
         <v>156.699997</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1">
-      <c r="A46" s="174">
+      <c r="A46" s="173">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B46" s="75">
+      <c r="B46" s="74">
         <f t="shared" si="1"/>
         <v>44979</v>
       </c>
-      <c r="C46" s="171">
+      <c r="C46" s="170">
         <v>176.279999</v>
       </c>
-      <c r="D46" s="172">
+      <c r="D46" s="171">
         <v>171.06849700000001</v>
       </c>
-      <c r="E46" s="172">
+      <c r="E46" s="171">
         <v>58.709999000000003</v>
       </c>
-      <c r="F46" s="172">
+      <c r="F46" s="171">
         <v>157.259995</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1">
-      <c r="A47" s="174">
+      <c r="A47" s="173">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B47" s="75">
+      <c r="B47" s="74">
         <f t="shared" si="1"/>
         <v>44980</v>
       </c>
-      <c r="C47" s="171">
+      <c r="C47" s="170">
         <v>180.33000200000001</v>
       </c>
-      <c r="D47" s="172">
+      <c r="D47" s="171">
         <v>169.66949500000001</v>
       </c>
-      <c r="E47" s="172">
+      <c r="E47" s="171">
         <v>59.200001</v>
       </c>
-      <c r="F47" s="172">
+      <c r="F47" s="171">
         <v>158.16000399999999</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1">
-      <c r="A48" s="174">
+      <c r="A48" s="173">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B48" s="75">
+      <c r="B48" s="74">
         <f t="shared" si="1"/>
         <v>44981</v>
       </c>
-      <c r="C48" s="171">
+      <c r="C48" s="170">
         <v>179.28999300000001</v>
       </c>
-      <c r="D48" s="172">
+      <c r="D48" s="171">
         <v>170.66099500000001</v>
       </c>
-      <c r="E48" s="172">
+      <c r="E48" s="171">
         <v>58.009998000000003</v>
       </c>
-      <c r="F48" s="172">
+      <c r="F48" s="171">
         <v>158.63999899999999</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1">
-      <c r="A49" s="174">
+      <c r="A49" s="173">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B49" s="75">
+      <c r="B49" s="74">
         <f t="shared" si="1"/>
         <v>44982</v>
       </c>
-      <c r="C49" s="171">
+      <c r="C49" s="170">
         <v>179.38000500000001</v>
       </c>
-      <c r="D49" s="172">
+      <c r="D49" s="171">
         <v>169.20100400000001</v>
       </c>
-      <c r="E49" s="172">
+      <c r="E49" s="171">
         <v>57.580002</v>
       </c>
-      <c r="F49" s="172">
+      <c r="F49" s="171">
         <v>158.55999800000001</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1">
-      <c r="A50" s="174">
+      <c r="A50" s="173">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B50" s="75">
+      <c r="B50" s="74">
         <f t="shared" si="1"/>
         <v>44983</v>
       </c>
-      <c r="C50" s="171">
+      <c r="C50" s="170">
         <v>178.199997</v>
       </c>
-      <c r="D50" s="172">
+      <c r="D50" s="171">
         <v>168.64450099999999</v>
       </c>
-      <c r="E50" s="172">
+      <c r="E50" s="171">
         <v>58.400002000000001</v>
       </c>
-      <c r="F50" s="172">
+      <c r="F50" s="171">
         <v>158.479996</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1">
-      <c r="A51" s="174">
+      <c r="A51" s="173">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B51" s="75">
+      <c r="B51" s="74">
         <f t="shared" si="1"/>
         <v>44984</v>
       </c>
-      <c r="C51" s="171">
+      <c r="C51" s="170">
         <v>177.570007</v>
       </c>
-      <c r="D51" s="172">
+      <c r="D51" s="171">
         <v>166.716995</v>
       </c>
-      <c r="E51" s="172">
+      <c r="E51" s="171">
         <v>59.049999</v>
       </c>
-      <c r="F51" s="172">
+      <c r="F51" s="171">
         <v>158.35000600000001</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1">
-      <c r="A52" s="174">
+      <c r="A52" s="173">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B52" s="75">
+      <c r="B52" s="74">
         <f t="shared" si="1"/>
         <v>44985</v>
       </c>
-      <c r="C52" s="171">
+      <c r="C52" s="170">
         <v>182.009995</v>
       </c>
-      <c r="D52" s="172">
+      <c r="D52" s="171">
         <v>170.404495</v>
       </c>
-      <c r="E52" s="172">
+      <c r="E52" s="171">
         <v>56.650002000000001</v>
       </c>
-      <c r="F52" s="172">
+      <c r="F52" s="171">
         <v>161.699997</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1">
-      <c r="C53" s="170"/>
-      <c r="D53" s="172"/>
-      <c r="F53" s="172"/>
+      <c r="C53" s="169"/>
+      <c r="D53" s="171"/>
+      <c r="F53" s="171"/>
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1">
-      <c r="C54" s="170"/>
-      <c r="D54" s="172"/>
-      <c r="F54" s="172"/>
+      <c r="C54" s="169"/>
+      <c r="D54" s="171"/>
+      <c r="F54" s="171"/>
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1">
-      <c r="C55" s="170"/>
-      <c r="D55" s="172"/>
-      <c r="F55" s="172"/>
+      <c r="C55" s="169"/>
+      <c r="D55" s="171"/>
+      <c r="F55" s="171"/>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1">
-      <c r="C56" s="170"/>
-      <c r="D56" s="172"/>
-      <c r="F56" s="172"/>
+      <c r="C56" s="169"/>
+      <c r="D56" s="171"/>
+      <c r="F56" s="171"/>
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1">
-      <c r="C57" s="170"/>
-      <c r="D57" s="172"/>
-      <c r="F57" s="172"/>
+      <c r="C57" s="169"/>
+      <c r="D57" s="171"/>
+      <c r="F57" s="171"/>
     </row>
     <row r="58" spans="1:6" ht="15" customHeight="1">
-      <c r="D58" s="172"/>
-      <c r="F58" s="172"/>
+      <c r="D58" s="171"/>
+      <c r="F58" s="171"/>
     </row>
     <row r="59" spans="1:6" ht="15" customHeight="1">
-      <c r="D59" s="172"/>
-      <c r="F59" s="172"/>
+      <c r="D59" s="171"/>
+      <c r="F59" s="171"/>
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1">
-      <c r="D60" s="172"/>
-      <c r="F60" s="172"/>
+      <c r="D60" s="171"/>
+      <c r="F60" s="171"/>
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1">
-      <c r="F61" s="172"/>
+      <c r="F61" s="171"/>
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1">
-      <c r="F62" s="172"/>
+      <c r="F62" s="171"/>
     </row>
     <row r="63" spans="1:6" ht="15" customHeight="1">
-      <c r="F63" s="172"/>
+      <c r="F63" s="171"/>
     </row>
     <row r="64" spans="1:6" ht="15" customHeight="1">
-      <c r="F64" s="172"/>
+      <c r="F64" s="171"/>
     </row>
     <row r="65" spans="6:6" ht="15" customHeight="1">
-      <c r="F65" s="172"/>
+      <c r="F65" s="171"/>
     </row>
   </sheetData>
   <phoneticPr fontId="35" type="noConversion"/>
@@ -22983,15 +23173,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.69921875" style="113" customWidth="1"/>
-    <col min="2" max="2" width="2.69921875" style="114" customWidth="1"/>
-    <col min="3" max="6" width="2.69921875" style="113" customWidth="1"/>
-    <col min="7" max="7" width="29.3984375" style="113" customWidth="1"/>
-    <col min="8" max="16384" width="8.8984375" style="113"/>
+    <col min="1" max="1" width="2.69921875" style="112" customWidth="1"/>
+    <col min="2" max="2" width="2.69921875" style="113" customWidth="1"/>
+    <col min="3" max="6" width="2.69921875" style="112" customWidth="1"/>
+    <col min="7" max="7" width="29.3984375" style="112" customWidth="1"/>
+    <col min="8" max="16384" width="8.8984375" style="112"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1">
@@ -23009,30 +23201,30 @@
     </row>
     <row r="3" spans="1:12" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="3"/>
-      <c r="B3" s="135" t="s">
+      <c r="B3" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="136">
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="135">
         <v>2017</v>
       </c>
-      <c r="I3" s="136">
+      <c r="I3" s="135">
         <f t="shared" ref="I3" si="0">+H3+1</f>
         <v>2018</v>
       </c>
-      <c r="J3" s="136">
+      <c r="J3" s="135">
         <f t="shared" ref="J3" si="1">+I3+1</f>
         <v>2019</v>
       </c>
-      <c r="K3" s="136">
+      <c r="K3" s="135">
         <f t="shared" ref="K3" si="2">+J3+1</f>
         <v>2020</v>
       </c>
-      <c r="L3" s="136">
+      <c r="L3" s="135">
         <f t="shared" ref="L3" si="3">+K3+1</f>
         <v>2021</v>
       </c>
@@ -23114,7 +23306,7 @@
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
-      <c r="G7" s="133"/>
+      <c r="G7" s="132"/>
       <c r="H7" s="21">
         <v>6.8346</v>
       </c>
@@ -23192,7 +23384,7 @@
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
-      <c r="G10" s="134"/>
+      <c r="G10" s="133"/>
       <c r="H10" s="23">
         <v>0.51800000000000002</v>
       </c>
@@ -23348,7 +23540,7 @@
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="133"/>
+      <c r="G16" s="132"/>
       <c r="H16" s="21">
         <v>4.3810000000000002</v>
       </c>
@@ -23374,7 +23566,7 @@
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
-      <c r="G17" s="134"/>
+      <c r="G17" s="133"/>
       <c r="H17" s="23">
         <v>-6.3500000000000001E-2</v>
       </c>
@@ -23400,7 +23592,7 @@
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
-      <c r="G18" s="133"/>
+      <c r="G18" s="132"/>
       <c r="H18" s="24">
         <v>4.3174999999999999</v>
       </c>
@@ -23426,7 +23618,7 @@
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
-      <c r="G19" s="134"/>
+      <c r="G19" s="133"/>
       <c r="H19" s="23">
         <v>1.4325999999999999</v>
       </c>
@@ -23473,30 +23665,30 @@
       <c r="G21" s="17"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1">
-      <c r="B22" s="135" t="s">
+      <c r="B22" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="135"/>
-      <c r="D22" s="135"/>
-      <c r="E22" s="135"/>
-      <c r="F22" s="135"/>
-      <c r="G22" s="135"/>
-      <c r="H22" s="136">
+      <c r="C22" s="134"/>
+      <c r="D22" s="134"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="135">
         <v>2017</v>
       </c>
-      <c r="I22" s="136">
+      <c r="I22" s="135">
         <f t="shared" ref="I22" si="4">+H22+1</f>
         <v>2018</v>
       </c>
-      <c r="J22" s="136">
+      <c r="J22" s="135">
         <f t="shared" ref="J22" si="5">+I22+1</f>
         <v>2019</v>
       </c>
-      <c r="K22" s="136">
+      <c r="K22" s="135">
         <f t="shared" ref="K22" si="6">+J22+1</f>
         <v>2020</v>
       </c>
-      <c r="L22" s="136">
+      <c r="L22" s="135">
         <f t="shared" ref="L22" si="7">+K22+1</f>
         <v>2021</v>
       </c>
@@ -23521,46 +23713,46 @@
       <c r="B24" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="140"/>
-      <c r="D24" s="140"/>
-      <c r="E24" s="140"/>
-      <c r="F24" s="140"/>
+      <c r="C24" s="139"/>
+      <c r="D24" s="139"/>
+      <c r="E24" s="139"/>
+      <c r="F24" s="139"/>
       <c r="G24" s="17"/>
-      <c r="H24" s="141"/>
-      <c r="I24" s="140"/>
-      <c r="J24" s="140"/>
-      <c r="K24" s="140"/>
-      <c r="L24" s="140"/>
+      <c r="H24" s="140"/>
+      <c r="I24" s="139"/>
+      <c r="J24" s="139"/>
+      <c r="K24" s="139"/>
+      <c r="L24" s="139"/>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1">
-      <c r="B25" s="138" t="s">
+      <c r="B25" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="142"/>
-      <c r="D25" s="142"/>
-      <c r="E25" s="142"/>
-      <c r="F25" s="142"/>
-      <c r="G25" s="139"/>
-      <c r="H25" s="142"/>
-      <c r="I25" s="142"/>
-      <c r="J25" s="142"/>
-      <c r="K25" s="142"/>
-      <c r="L25" s="142"/>
+      <c r="C25" s="141"/>
+      <c r="D25" s="141"/>
+      <c r="E25" s="141"/>
+      <c r="F25" s="141"/>
+      <c r="G25" s="138"/>
+      <c r="H25" s="141"/>
+      <c r="I25" s="141"/>
+      <c r="J25" s="141"/>
+      <c r="K25" s="141"/>
+      <c r="L25" s="141"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1">
-      <c r="B26" s="137" t="s">
+      <c r="B26" s="136" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="143"/>
-      <c r="D26" s="143"/>
-      <c r="E26" s="143"/>
-      <c r="F26" s="143"/>
-      <c r="G26" s="134"/>
-      <c r="H26" s="143"/>
-      <c r="I26" s="143"/>
-      <c r="J26" s="143"/>
-      <c r="K26" s="143"/>
-      <c r="L26" s="143"/>
+      <c r="C26" s="142"/>
+      <c r="D26" s="142"/>
+      <c r="E26" s="142"/>
+      <c r="F26" s="142"/>
+      <c r="G26" s="133"/>
+      <c r="H26" s="142"/>
+      <c r="I26" s="142"/>
+      <c r="J26" s="142"/>
+      <c r="K26" s="142"/>
+      <c r="L26" s="142"/>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1">
       <c r="G27" s="17"/>
@@ -23649,7 +23841,7 @@
         <v>2</v>
       </c>
       <c r="S3" s="8"/>
-      <c r="T3" s="180" t="s">
+      <c r="T3" s="226" t="s">
         <v>3</v>
       </c>
     </row>
@@ -23707,7 +23899,7 @@
       <c r="S4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="181"/>
+      <c r="T4" s="227"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1">
       <c r="B5" s="17"/>
@@ -23783,19 +23975,19 @@
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
-      <c r="H8" s="202">
+      <c r="H8" s="195">
         <v>2000</v>
       </c>
-      <c r="I8" s="202">
+      <c r="I8" s="195">
         <v>3000</v>
       </c>
-      <c r="J8" s="202">
+      <c r="J8" s="195">
         <v>4000</v>
       </c>
-      <c r="K8" s="202">
+      <c r="K8" s="195">
         <v>5000</v>
       </c>
-      <c r="L8" s="202">
+      <c r="L8" s="195">
         <v>6000</v>
       </c>
       <c r="M8" s="21"/>
@@ -23816,19 +24008,19 @@
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
-      <c r="H9" s="203">
+      <c r="H9" s="196">
         <v>1000</v>
       </c>
-      <c r="I9" s="203">
+      <c r="I9" s="196">
         <v>2000</v>
       </c>
-      <c r="J9" s="203">
+      <c r="J9" s="196">
         <v>2200</v>
       </c>
-      <c r="K9" s="203">
+      <c r="K9" s="196">
         <v>2800</v>
       </c>
-      <c r="L9" s="203">
+      <c r="L9" s="196">
         <v>3200</v>
       </c>
       <c r="M9" s="24"/>
@@ -23849,23 +24041,23 @@
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
-      <c r="H10" s="202">
+      <c r="H10" s="195">
         <f>+H8-H9</f>
         <v>1000</v>
       </c>
-      <c r="I10" s="202">
+      <c r="I10" s="195">
         <f t="shared" ref="I10:L10" si="1">+I8-I9</f>
         <v>1000</v>
       </c>
-      <c r="J10" s="202">
+      <c r="J10" s="195">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
-      <c r="K10" s="202">
+      <c r="K10" s="195">
         <f t="shared" si="1"/>
         <v>2200</v>
       </c>
-      <c r="L10" s="202">
+      <c r="L10" s="195">
         <f t="shared" si="1"/>
         <v>2800</v>
       </c>
@@ -23888,23 +24080,23 @@
       <c r="E11" s="33"/>
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
-      <c r="H11" s="205">
+      <c r="H11" s="198">
         <f>H10/H8</f>
         <v>0.5</v>
       </c>
-      <c r="I11" s="205">
+      <c r="I11" s="198">
         <f t="shared" ref="I11:L11" si="2">I10/I8</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="J11" s="205">
+      <c r="J11" s="198">
         <f t="shared" si="2"/>
         <v>0.45</v>
       </c>
-      <c r="K11" s="205">
+      <c r="K11" s="198">
         <f t="shared" si="2"/>
         <v>0.44</v>
       </c>
-      <c r="L11" s="205">
+      <c r="L11" s="198">
         <f t="shared" si="2"/>
         <v>0.46666666666666667</v>
       </c>
@@ -23926,19 +24118,19 @@
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
-      <c r="H12" s="204">
+      <c r="H12" s="197">
         <v>500</v>
       </c>
-      <c r="I12" s="204">
+      <c r="I12" s="197">
         <v>500</v>
       </c>
-      <c r="J12" s="204">
+      <c r="J12" s="197">
         <v>600</v>
       </c>
-      <c r="K12" s="204">
+      <c r="K12" s="197">
         <v>700</v>
       </c>
-      <c r="L12" s="204">
+      <c r="L12" s="197">
         <v>800</v>
       </c>
       <c r="M12" s="24"/>
@@ -23959,23 +24151,23 @@
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
-      <c r="H13" s="202">
+      <c r="H13" s="195">
         <f>+H10-H12</f>
         <v>500</v>
       </c>
-      <c r="I13" s="202">
+      <c r="I13" s="195">
         <f t="shared" ref="I13:L13" si="3">+I10-I12</f>
         <v>500</v>
       </c>
-      <c r="J13" s="202">
+      <c r="J13" s="195">
         <f t="shared" si="3"/>
         <v>1200</v>
       </c>
-      <c r="K13" s="202">
+      <c r="K13" s="195">
         <f t="shared" si="3"/>
         <v>1500</v>
       </c>
-      <c r="L13" s="202">
+      <c r="L13" s="195">
         <f t="shared" si="3"/>
         <v>2000</v>
       </c>
@@ -23995,23 +24187,23 @@
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
-      <c r="H14" s="205">
+      <c r="H14" s="198">
         <f>H13/H8</f>
         <v>0.25</v>
       </c>
-      <c r="I14" s="205">
+      <c r="I14" s="198">
         <f t="shared" ref="I14:L14" si="4">I13/I8</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="J14" s="205">
+      <c r="J14" s="198">
         <f t="shared" si="4"/>
         <v>0.3</v>
       </c>
-      <c r="K14" s="205">
+      <c r="K14" s="198">
         <f t="shared" si="4"/>
         <v>0.3</v>
       </c>
-      <c r="L14" s="205">
+      <c r="L14" s="198">
         <f t="shared" si="4"/>
         <v>0.33333333333333331</v>
       </c>
@@ -24030,8 +24222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K60" sqref="K60"/>
+    <sheetView showGridLines="0" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q55" sqref="Q55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15" customHeight="1"/>
@@ -24079,7 +24271,7 @@
         <v>2</v>
       </c>
       <c r="S3" s="6"/>
-      <c r="T3" s="227" t="s">
+      <c r="T3" s="230" t="s">
         <v>3</v>
       </c>
     </row>
@@ -24137,7 +24329,7 @@
       <c r="S4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="228"/>
+      <c r="T4" s="231"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1">
       <c r="B5" s="17"/>
@@ -24209,26 +24401,26 @@
     </row>
     <row r="8" spans="1:20" ht="15" customHeight="1">
       <c r="B8" s="20"/>
-      <c r="C8" s="211" t="s">
+      <c r="C8" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="212"/>
-      <c r="E8" s="212"/>
-      <c r="F8" s="212"/>
-      <c r="G8" s="212"/>
-      <c r="H8" s="213">
+      <c r="D8" s="205"/>
+      <c r="E8" s="205"/>
+      <c r="F8" s="205"/>
+      <c r="G8" s="205"/>
+      <c r="H8" s="206">
         <v>22.386800000000001</v>
       </c>
-      <c r="I8" s="214">
+      <c r="I8" s="207">
         <v>24.7195</v>
       </c>
-      <c r="J8" s="214">
+      <c r="J8" s="207">
         <v>26.508599999999998</v>
       </c>
-      <c r="K8" s="214">
+      <c r="K8" s="207">
         <v>23.518000000000001</v>
       </c>
-      <c r="L8" s="215">
+      <c r="L8" s="208">
         <v>29.060599999999997</v>
       </c>
       <c r="M8" s="21"/>
@@ -24242,26 +24434,26 @@
     </row>
     <row r="9" spans="1:20" ht="15" customHeight="1" thickBot="1">
       <c r="B9" s="17"/>
-      <c r="C9" s="216" t="s">
+      <c r="C9" s="209" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="206"/>
-      <c r="E9" s="206"/>
-      <c r="F9" s="206"/>
-      <c r="G9" s="206"/>
-      <c r="H9" s="209">
+      <c r="D9" s="199"/>
+      <c r="E9" s="199"/>
+      <c r="F9" s="199"/>
+      <c r="G9" s="199"/>
+      <c r="H9" s="202">
         <v>15.552199999999999</v>
       </c>
-      <c r="I9" s="207">
+      <c r="I9" s="200">
         <v>17.402900000000002</v>
       </c>
-      <c r="J9" s="207">
+      <c r="J9" s="200">
         <v>19.020499999999998</v>
       </c>
-      <c r="K9" s="207">
+      <c r="K9" s="200">
         <v>18.376900000000003</v>
       </c>
-      <c r="L9" s="217">
+      <c r="L9" s="210">
         <v>20.6252</v>
       </c>
       <c r="M9" s="24"/>
@@ -24275,26 +24467,26 @@
     </row>
     <row r="10" spans="1:20" ht="15" customHeight="1" thickTop="1">
       <c r="B10" s="20"/>
-      <c r="C10" s="218" t="s">
+      <c r="C10" s="211" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="184"/>
-      <c r="E10" s="184"/>
-      <c r="F10" s="184"/>
-      <c r="G10" s="184"/>
-      <c r="H10" s="208">
+      <c r="D10" s="179"/>
+      <c r="E10" s="179"/>
+      <c r="F10" s="179"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="201">
         <v>6.8346</v>
       </c>
-      <c r="I10" s="185">
+      <c r="I10" s="180">
         <v>7.3166000000000002</v>
       </c>
-      <c r="J10" s="185">
+      <c r="J10" s="180">
         <v>7.4881000000000002</v>
       </c>
-      <c r="K10" s="185">
+      <c r="K10" s="180">
         <v>5.1411000000000007</v>
       </c>
-      <c r="L10" s="219">
+      <c r="L10" s="212">
         <v>8.4353999999999996</v>
       </c>
       <c r="M10" s="24"/>
@@ -24308,26 +24500,26 @@
     </row>
     <row r="11" spans="1:20" ht="15" customHeight="1">
       <c r="B11" s="17"/>
-      <c r="C11" s="220" t="s">
+      <c r="C11" s="213" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="187"/>
-      <c r="E11" s="187"/>
-      <c r="F11" s="187"/>
-      <c r="G11" s="187"/>
-      <c r="H11" s="210">
+      <c r="D11" s="182"/>
+      <c r="E11" s="182"/>
+      <c r="F11" s="182"/>
+      <c r="G11" s="182"/>
+      <c r="H11" s="203">
         <v>1.4084000000000001</v>
       </c>
-      <c r="I11" s="186">
+      <c r="I11" s="181">
         <v>1.7045999999999999</v>
       </c>
-      <c r="J11" s="186">
+      <c r="J11" s="181">
         <v>1.8240999999999998</v>
       </c>
-      <c r="K11" s="186">
+      <c r="K11" s="181">
         <v>1.6796</v>
       </c>
-      <c r="L11" s="221">
+      <c r="L11" s="214">
         <v>1.9325999999999999</v>
       </c>
       <c r="M11" s="24"/>
@@ -24341,26 +24533,26 @@
     </row>
     <row r="12" spans="1:20" ht="15" customHeight="1">
       <c r="B12" s="17"/>
-      <c r="C12" s="220" t="s">
+      <c r="C12" s="213" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="187"/>
-      <c r="E12" s="187"/>
-      <c r="F12" s="187"/>
-      <c r="G12" s="187"/>
-      <c r="H12" s="210">
+      <c r="D12" s="182"/>
+      <c r="E12" s="182"/>
+      <c r="F12" s="182"/>
+      <c r="G12" s="182"/>
+      <c r="H12" s="203">
         <v>1.0114000000000001</v>
       </c>
-      <c r="I12" s="186">
+      <c r="I12" s="181">
         <v>1.2470000000000001</v>
       </c>
-      <c r="J12" s="186">
+      <c r="J12" s="181">
         <v>1.3773</v>
       </c>
-      <c r="K12" s="186">
+      <c r="K12" s="181">
         <v>1.4313</v>
       </c>
-      <c r="L12" s="221">
+      <c r="L12" s="214">
         <v>1.4417</v>
       </c>
       <c r="M12" s="24"/>
@@ -24374,26 +24566,26 @@
     </row>
     <row r="13" spans="1:20" ht="15" customHeight="1" thickBot="1">
       <c r="B13" s="17"/>
-      <c r="C13" s="216" t="s">
+      <c r="C13" s="209" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="206"/>
-      <c r="E13" s="206"/>
-      <c r="F13" s="206"/>
-      <c r="G13" s="206"/>
-      <c r="H13" s="209">
+      <c r="D13" s="199"/>
+      <c r="E13" s="199"/>
+      <c r="F13" s="199"/>
+      <c r="G13" s="199"/>
+      <c r="H13" s="202">
         <v>0.51800000000000002</v>
       </c>
-      <c r="I13" s="207">
+      <c r="I13" s="200">
         <v>0.55489999999999995</v>
       </c>
-      <c r="J13" s="207">
+      <c r="J13" s="200">
         <v>0.371</v>
       </c>
-      <c r="K13" s="207">
+      <c r="K13" s="200">
         <v>0.43030000000000002</v>
       </c>
-      <c r="L13" s="217">
+      <c r="L13" s="210">
         <v>0.35949999999999999</v>
       </c>
       <c r="M13" s="24"/>
@@ -24407,26 +24599,26 @@
     </row>
     <row r="14" spans="1:20" ht="15" customHeight="1" thickTop="1">
       <c r="B14" s="20"/>
-      <c r="C14" s="218" t="s">
+      <c r="C14" s="211" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="184"/>
-      <c r="E14" s="184"/>
-      <c r="F14" s="184"/>
-      <c r="G14" s="184"/>
-      <c r="H14" s="208">
+      <c r="D14" s="179"/>
+      <c r="E14" s="179"/>
+      <c r="F14" s="179"/>
+      <c r="G14" s="179"/>
+      <c r="H14" s="201">
         <v>3.8968000000000003</v>
       </c>
-      <c r="I14" s="185">
+      <c r="I14" s="180">
         <v>3.8100999999999998</v>
       </c>
-      <c r="J14" s="185">
+      <c r="J14" s="180">
         <v>3.9156999999999997</v>
       </c>
-      <c r="K14" s="185">
+      <c r="K14" s="180">
         <v>1.5999000000000001</v>
       </c>
-      <c r="L14" s="219">
+      <c r="L14" s="212">
         <v>4.7016</v>
       </c>
       <c r="M14" s="24"/>
@@ -24440,26 +24632,26 @@
     </row>
     <row r="15" spans="1:20" ht="15" customHeight="1">
       <c r="B15" s="17"/>
-      <c r="C15" s="220" t="s">
+      <c r="C15" s="213" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="187"/>
-      <c r="E15" s="187"/>
-      <c r="F15" s="187"/>
-      <c r="G15" s="187"/>
-      <c r="H15" s="210">
+      <c r="D15" s="182"/>
+      <c r="E15" s="182"/>
+      <c r="F15" s="182"/>
+      <c r="G15" s="182"/>
+      <c r="H15" s="203">
         <v>-9.2499999999999999E-2</v>
       </c>
-      <c r="I15" s="186">
+      <c r="I15" s="181">
         <v>-0.17030000000000001</v>
       </c>
-      <c r="J15" s="186">
+      <c r="J15" s="181">
         <v>-0.33100000000000002</v>
       </c>
-      <c r="K15" s="186">
+      <c r="K15" s="181">
         <v>-0.437</v>
       </c>
-      <c r="L15" s="221">
+      <c r="L15" s="214">
         <v>-0.4698</v>
       </c>
       <c r="M15" s="24"/>
@@ -24473,26 +24665,26 @@
     </row>
     <row r="16" spans="1:20" ht="15" customHeight="1">
       <c r="B16" s="17"/>
-      <c r="C16" s="220" t="s">
+      <c r="C16" s="213" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="187"/>
-      <c r="E16" s="187"/>
-      <c r="F16" s="187"/>
-      <c r="G16" s="187"/>
-      <c r="H16" s="210">
+      <c r="D16" s="182"/>
+      <c r="E16" s="182"/>
+      <c r="F16" s="182"/>
+      <c r="G16" s="182"/>
+      <c r="H16" s="203">
         <v>1.67E-2</v>
       </c>
-      <c r="I16" s="186">
+      <c r="I16" s="181">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="J16" s="186">
+      <c r="J16" s="181">
         <v>0.1313</v>
       </c>
-      <c r="K16" s="186">
+      <c r="K16" s="181">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="L16" s="221">
+      <c r="L16" s="214">
         <v>6.9099999999999995E-2</v>
       </c>
       <c r="M16" s="24"/>
@@ -24506,26 +24698,26 @@
     </row>
     <row r="17" spans="1:20" ht="15" customHeight="1">
       <c r="B17" s="17"/>
-      <c r="C17" s="220" t="s">
+      <c r="C17" s="213" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="187"/>
-      <c r="E17" s="187"/>
-      <c r="F17" s="187"/>
-      <c r="G17" s="187"/>
-      <c r="H17" s="210">
+      <c r="D17" s="182"/>
+      <c r="E17" s="182"/>
+      <c r="F17" s="182"/>
+      <c r="G17" s="182"/>
+      <c r="H17" s="203">
         <v>0.39139999999999997</v>
       </c>
-      <c r="I17" s="186">
+      <c r="I17" s="181">
         <v>0.30119999999999997</v>
       </c>
-      <c r="J17" s="186">
+      <c r="J17" s="181">
         <v>0.29799999999999999</v>
       </c>
-      <c r="K17" s="186">
+      <c r="K17" s="181">
         <v>0.32250000000000001</v>
       </c>
-      <c r="L17" s="221">
+      <c r="L17" s="214">
         <v>0.38530000000000003</v>
       </c>
       <c r="M17" s="24"/>
@@ -24539,26 +24731,26 @@
     </row>
     <row r="18" spans="1:20" ht="15" customHeight="1" thickBot="1">
       <c r="B18" s="17"/>
-      <c r="C18" s="216" t="s">
+      <c r="C18" s="209" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="206"/>
-      <c r="E18" s="206"/>
-      <c r="F18" s="206"/>
-      <c r="G18" s="206"/>
-      <c r="H18" s="209">
+      <c r="D18" s="199"/>
+      <c r="E18" s="199"/>
+      <c r="F18" s="199"/>
+      <c r="G18" s="199"/>
+      <c r="H18" s="202">
         <v>0.10590000000000001</v>
       </c>
-      <c r="I18" s="207">
+      <c r="I18" s="200">
         <v>0.15719999999999998</v>
       </c>
-      <c r="J18" s="207">
+      <c r="J18" s="200">
         <v>-7.7999999999999996E-3</v>
       </c>
-      <c r="K18" s="207">
+      <c r="K18" s="200">
         <v>-1.0500000000000001E-2</v>
       </c>
-      <c r="L18" s="217">
+      <c r="L18" s="210">
         <v>-1E-3</v>
       </c>
       <c r="M18" s="24"/>
@@ -24572,26 +24764,26 @@
     </row>
     <row r="19" spans="1:20" ht="15" customHeight="1" thickTop="1">
       <c r="B19" s="20"/>
-      <c r="C19" s="218" t="s">
+      <c r="C19" s="211" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="184"/>
-      <c r="E19" s="184"/>
-      <c r="F19" s="184"/>
-      <c r="G19" s="184"/>
-      <c r="H19" s="208">
+      <c r="D19" s="179"/>
+      <c r="E19" s="179"/>
+      <c r="F19" s="179"/>
+      <c r="G19" s="179"/>
+      <c r="H19" s="201">
         <v>4.3810000000000002</v>
       </c>
-      <c r="I19" s="185">
+      <c r="I19" s="180">
         <v>4.1376999999999997</v>
       </c>
-      <c r="J19" s="185">
+      <c r="J19" s="180">
         <v>3.9783000000000004</v>
       </c>
-      <c r="K19" s="185">
+      <c r="K19" s="180">
         <v>1.5202</v>
       </c>
-      <c r="L19" s="219">
+      <c r="L19" s="212">
         <v>4.7054</v>
       </c>
       <c r="M19" s="24"/>
@@ -24605,26 +24797,26 @@
     </row>
     <row r="20" spans="1:20" ht="15" customHeight="1" thickBot="1">
       <c r="B20" s="17"/>
-      <c r="C20" s="216" t="s">
+      <c r="C20" s="209" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="206"/>
-      <c r="E20" s="206"/>
-      <c r="F20" s="206"/>
-      <c r="G20" s="206"/>
-      <c r="H20" s="209">
+      <c r="D20" s="199"/>
+      <c r="E20" s="199"/>
+      <c r="F20" s="199"/>
+      <c r="G20" s="199"/>
+      <c r="H20" s="202">
         <v>-6.3500000000000001E-2</v>
       </c>
-      <c r="I20" s="207">
+      <c r="I20" s="200">
         <v>1.6459000000000001</v>
       </c>
-      <c r="J20" s="207">
+      <c r="J20" s="200">
         <v>0.48789999999999994</v>
       </c>
-      <c r="K20" s="207">
+      <c r="K20" s="200">
         <v>-0.35580000000000001</v>
       </c>
-      <c r="L20" s="217">
+      <c r="L20" s="210">
         <v>0.65149999999999997</v>
       </c>
       <c r="M20" s="24"/>
@@ -24638,26 +24830,26 @@
     </row>
     <row r="21" spans="1:20" ht="15" customHeight="1" thickTop="1">
       <c r="B21" s="17"/>
-      <c r="C21" s="218" t="s">
+      <c r="C21" s="211" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="187"/>
-      <c r="E21" s="187"/>
-      <c r="F21" s="187"/>
-      <c r="G21" s="187"/>
-      <c r="H21" s="210">
+      <c r="D21" s="182"/>
+      <c r="E21" s="182"/>
+      <c r="F21" s="182"/>
+      <c r="G21" s="182"/>
+      <c r="H21" s="203">
         <v>4.3174999999999999</v>
       </c>
-      <c r="I21" s="186">
+      <c r="I21" s="181">
         <v>5.78</v>
       </c>
-      <c r="J21" s="186">
+      <c r="J21" s="181">
         <v>4.4661999999999997</v>
       </c>
-      <c r="K21" s="186">
+      <c r="K21" s="181">
         <v>1.1644000000000001</v>
       </c>
-      <c r="L21" s="221">
+      <c r="L21" s="214">
         <v>5.3568999999999996</v>
       </c>
       <c r="M21" s="24"/>
@@ -24671,26 +24863,26 @@
     </row>
     <row r="22" spans="1:20" ht="15" customHeight="1" thickBot="1">
       <c r="B22" s="17"/>
-      <c r="C22" s="216" t="s">
+      <c r="C22" s="209" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="206"/>
-      <c r="E22" s="206"/>
-      <c r="F22" s="206"/>
-      <c r="G22" s="206"/>
-      <c r="H22" s="209">
+      <c r="D22" s="199"/>
+      <c r="E22" s="199"/>
+      <c r="F22" s="199"/>
+      <c r="G22" s="199"/>
+      <c r="H22" s="202">
         <v>1.4325999999999999</v>
       </c>
-      <c r="I22" s="207">
+      <c r="I22" s="200">
         <v>1.262</v>
       </c>
-      <c r="J22" s="207">
+      <c r="J22" s="200">
         <v>0.87160000000000004</v>
       </c>
-      <c r="K22" s="207">
+      <c r="K22" s="200">
         <v>0.2397</v>
       </c>
-      <c r="L22" s="217">
+      <c r="L22" s="210">
         <v>1.1565999999999999</v>
       </c>
       <c r="M22" s="24"/>
@@ -24704,26 +24896,26 @@
     </row>
     <row r="23" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="B23" s="20"/>
-      <c r="C23" s="222" t="s">
+      <c r="C23" s="215" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="223"/>
-      <c r="E23" s="223"/>
-      <c r="F23" s="223"/>
-      <c r="G23" s="223"/>
-      <c r="H23" s="224">
+      <c r="D23" s="216"/>
+      <c r="E23" s="216"/>
+      <c r="F23" s="216"/>
+      <c r="G23" s="216"/>
+      <c r="H23" s="217">
         <v>2.8849</v>
       </c>
-      <c r="I23" s="225">
+      <c r="I23" s="218">
         <v>4.5179999999999998</v>
       </c>
-      <c r="J23" s="225">
+      <c r="J23" s="218">
         <v>3.5945999999999998</v>
       </c>
-      <c r="K23" s="225">
+      <c r="K23" s="218">
         <v>0.92470000000000008</v>
       </c>
-      <c r="L23" s="226">
+      <c r="L23" s="219">
         <v>4.2003000000000004</v>
       </c>
       <c r="M23" s="24"/>
@@ -25202,23 +25394,23 @@
       <c r="L39" s="24">
         <v>2.4305999999999983</v>
       </c>
-      <c r="M39" s="229">
+      <c r="M39" s="220">
         <f>L39</f>
         <v>2.4305999999999983</v>
       </c>
-      <c r="N39" s="229">
+      <c r="N39" s="220">
         <f t="shared" ref="N39:Q39" si="1">M39</f>
         <v>2.4305999999999983</v>
       </c>
-      <c r="O39" s="229">
+      <c r="O39" s="220">
         <f t="shared" si="1"/>
         <v>2.4305999999999983</v>
       </c>
-      <c r="P39" s="229">
+      <c r="P39" s="220">
         <f t="shared" si="1"/>
         <v>2.4305999999999983</v>
       </c>
-      <c r="Q39" s="229">
+      <c r="Q39" s="220">
         <f t="shared" si="1"/>
         <v>2.4305999999999983</v>
       </c>
@@ -25568,23 +25760,23 @@
       <c r="L50" s="24">
         <v>0.73649999999999594</v>
       </c>
-      <c r="M50" s="230">
+      <c r="M50" s="221">
         <f>L50</f>
         <v>0.73649999999999594</v>
       </c>
-      <c r="N50" s="231">
+      <c r="N50" s="222">
         <f t="shared" ref="N50:Q50" si="2">M50</f>
         <v>0.73649999999999594</v>
       </c>
-      <c r="O50" s="231">
+      <c r="O50" s="222">
         <f t="shared" si="2"/>
         <v>0.73649999999999594</v>
       </c>
-      <c r="P50" s="231">
+      <c r="P50" s="222">
         <f t="shared" si="2"/>
         <v>0.73649999999999594</v>
       </c>
-      <c r="Q50" s="232">
+      <c r="Q50" s="223">
         <f t="shared" si="2"/>
         <v>0.73649999999999594</v>
       </c>
@@ -25835,23 +26027,23 @@
       <c r="L58" s="21">
         <v>6.7000000000003723E-3</v>
       </c>
-      <c r="M58" s="229">
+      <c r="M58" s="220">
         <f>L58</f>
         <v>6.7000000000003723E-3</v>
       </c>
-      <c r="N58" s="229">
+      <c r="N58" s="220">
         <f t="shared" ref="N58:Q58" si="3">M58</f>
         <v>6.7000000000003723E-3</v>
       </c>
-      <c r="O58" s="229">
+      <c r="O58" s="220">
         <f t="shared" si="3"/>
         <v>6.7000000000003723E-3</v>
       </c>
-      <c r="P58" s="229">
+      <c r="P58" s="220">
         <f t="shared" si="3"/>
         <v>6.7000000000003723E-3</v>
       </c>
-      <c r="Q58" s="229">
+      <c r="Q58" s="220">
         <f t="shared" si="3"/>
         <v>6.7000000000003723E-3</v>
       </c>
@@ -26698,9 +26890,14 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:T86"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -26747,7 +26944,7 @@
         <v>2</v>
       </c>
       <c r="S3" s="8"/>
-      <c r="T3" s="180" t="s">
+      <c r="T3" s="226" t="s">
         <v>3</v>
       </c>
     </row>
@@ -26805,7 +27002,7 @@
       <c r="S4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="181"/>
+      <c r="T4" s="227"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1">
       <c r="B5" s="17"/>
@@ -29323,7 +29520,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -29370,7 +29569,7 @@
         <v>2</v>
       </c>
       <c r="S3" s="8"/>
-      <c r="T3" s="180" t="s">
+      <c r="T3" s="226" t="s">
         <v>3</v>
       </c>
     </row>
@@ -29428,7 +29627,7 @@
       <c r="S4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="181"/>
+      <c r="T4" s="227"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1">
       <c r="B5" s="17"/>
@@ -30082,11 +30281,26 @@
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
+      <c r="H27" s="21">
+        <f>H8</f>
+        <v>22.386800000000001</v>
+      </c>
+      <c r="I27" s="21">
+        <f t="shared" ref="I27:L27" si="1">I8</f>
+        <v>24.7195</v>
+      </c>
+      <c r="J27" s="21">
+        <f t="shared" si="1"/>
+        <v>26.508599999999998</v>
+      </c>
+      <c r="K27" s="21">
+        <f t="shared" si="1"/>
+        <v>23.518000000000001</v>
+      </c>
+      <c r="L27" s="21">
+        <f t="shared" si="1"/>
+        <v>29.060599999999997</v>
+      </c>
       <c r="M27" s="21"/>
       <c r="N27" s="21"/>
       <c r="O27" s="21"/>
@@ -30105,11 +30319,26 @@
       <c r="E28" s="22"/>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
+      <c r="H28" s="21">
+        <f t="shared" ref="H28:L28" si="2">H9</f>
+        <v>15.552200000000001</v>
+      </c>
+      <c r="I28" s="21">
+        <f t="shared" si="2"/>
+        <v>17.402900000000002</v>
+      </c>
+      <c r="J28" s="21">
+        <f t="shared" si="2"/>
+        <v>19.020499999999998</v>
+      </c>
+      <c r="K28" s="21">
+        <f t="shared" si="2"/>
+        <v>18.376900000000003</v>
+      </c>
+      <c r="L28" s="21">
+        <f t="shared" si="2"/>
+        <v>20.6252</v>
+      </c>
       <c r="M28" s="24"/>
       <c r="N28" s="24"/>
       <c r="O28" s="24"/>
@@ -30128,11 +30357,26 @@
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
       <c r="G29" s="20"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
+      <c r="H29" s="21">
+        <f t="shared" ref="H29:L29" si="3">H10</f>
+        <v>6.8346</v>
+      </c>
+      <c r="I29" s="21">
+        <f t="shared" si="3"/>
+        <v>7.3166000000000002</v>
+      </c>
+      <c r="J29" s="21">
+        <f t="shared" si="3"/>
+        <v>7.4881000000000002</v>
+      </c>
+      <c r="K29" s="21">
+        <f t="shared" si="3"/>
+        <v>5.1411000000000007</v>
+      </c>
+      <c r="L29" s="21">
+        <f t="shared" si="3"/>
+        <v>8.4353999999999996</v>
+      </c>
       <c r="M29" s="24"/>
       <c r="N29" s="24"/>
       <c r="O29" s="24"/>
@@ -30151,11 +30395,26 @@
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
+      <c r="H30" s="21">
+        <f t="shared" ref="H30:L30" si="4">H11</f>
+        <v>1.4084000000000001</v>
+      </c>
+      <c r="I30" s="21">
+        <f t="shared" si="4"/>
+        <v>1.7045999999999999</v>
+      </c>
+      <c r="J30" s="21">
+        <f t="shared" si="4"/>
+        <v>1.8240999999999998</v>
+      </c>
+      <c r="K30" s="21">
+        <f t="shared" si="4"/>
+        <v>1.6796</v>
+      </c>
+      <c r="L30" s="21">
+        <f t="shared" si="4"/>
+        <v>1.9325999999999999</v>
+      </c>
       <c r="M30" s="24"/>
       <c r="N30" s="24"/>
       <c r="O30" s="24"/>
@@ -30174,11 +30433,26 @@
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
+      <c r="H31" s="21">
+        <f t="shared" ref="H31:L31" si="5">H12</f>
+        <v>1.0114000000000001</v>
+      </c>
+      <c r="I31" s="21">
+        <f t="shared" si="5"/>
+        <v>1.2470000000000001</v>
+      </c>
+      <c r="J31" s="21">
+        <f t="shared" si="5"/>
+        <v>1.3773</v>
+      </c>
+      <c r="K31" s="21">
+        <f t="shared" si="5"/>
+        <v>1.4313</v>
+      </c>
+      <c r="L31" s="21">
+        <f t="shared" si="5"/>
+        <v>1.4417</v>
+      </c>
       <c r="M31" s="24"/>
       <c r="N31" s="24"/>
       <c r="O31" s="24"/>
@@ -30197,11 +30471,26 @@
       <c r="E32" s="22"/>
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
+      <c r="H32" s="21">
+        <f t="shared" ref="H32:L32" si="6">H13</f>
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="I32" s="21">
+        <f t="shared" si="6"/>
+        <v>0.55489999999999995</v>
+      </c>
+      <c r="J32" s="21">
+        <f t="shared" si="6"/>
+        <v>0.371</v>
+      </c>
+      <c r="K32" s="21">
+        <f t="shared" si="6"/>
+        <v>0.43030000000000002</v>
+      </c>
+      <c r="L32" s="21">
+        <f t="shared" si="6"/>
+        <v>0.35949999999999999</v>
+      </c>
       <c r="M32" s="24"/>
       <c r="N32" s="24"/>
       <c r="O32" s="24"/>
@@ -30220,11 +30509,26 @@
       <c r="E33" s="20"/>
       <c r="F33" s="20"/>
       <c r="G33" s="20"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
+      <c r="H33" s="21">
+        <f t="shared" ref="H33:L33" si="7">H14</f>
+        <v>3.8968000000000003</v>
+      </c>
+      <c r="I33" s="21">
+        <f t="shared" si="7"/>
+        <v>3.8100999999999998</v>
+      </c>
+      <c r="J33" s="21">
+        <f t="shared" si="7"/>
+        <v>3.9156999999999997</v>
+      </c>
+      <c r="K33" s="21">
+        <f t="shared" si="7"/>
+        <v>1.5999000000000001</v>
+      </c>
+      <c r="L33" s="21">
+        <f t="shared" si="7"/>
+        <v>4.7016</v>
+      </c>
       <c r="M33" s="24"/>
       <c r="N33" s="24"/>
       <c r="O33" s="24"/>
@@ -30243,11 +30547,26 @@
       <c r="E34" s="17"/>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
+      <c r="H34" s="21">
+        <f>H15</f>
+        <v>-9.2499999999999999E-2</v>
+      </c>
+      <c r="I34" s="21">
+        <f>I15</f>
+        <v>-0.17030000000000001</v>
+      </c>
+      <c r="J34" s="21">
+        <f>J15</f>
+        <v>-0.33100000000000002</v>
+      </c>
+      <c r="K34" s="21">
+        <f>K15</f>
+        <v>-0.437</v>
+      </c>
+      <c r="L34" s="21">
+        <f>L15</f>
+        <v>-0.4698</v>
+      </c>
       <c r="M34" s="24"/>
       <c r="N34" s="24"/>
       <c r="O34" s="24"/>
@@ -30266,11 +30585,26 @@
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
+      <c r="H35" s="21">
+        <f t="shared" ref="H35:L35" si="8">H16</f>
+        <v>1.67E-2</v>
+      </c>
+      <c r="I35" s="21">
+        <f t="shared" si="8"/>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="J35" s="21">
+        <f t="shared" si="8"/>
+        <v>0.1313</v>
+      </c>
+      <c r="K35" s="21">
+        <f t="shared" si="8"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="L35" s="21">
+        <f t="shared" si="8"/>
+        <v>6.9099999999999995E-2</v>
+      </c>
       <c r="M35" s="24"/>
       <c r="N35" s="24"/>
       <c r="O35" s="24"/>
@@ -30289,11 +30623,26 @@
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
+      <c r="H36" s="21">
+        <f t="shared" ref="H36:L36" si="9">H17</f>
+        <v>0.39139999999999997</v>
+      </c>
+      <c r="I36" s="21">
+        <f t="shared" si="9"/>
+        <v>0.30119999999999997</v>
+      </c>
+      <c r="J36" s="21">
+        <f t="shared" si="9"/>
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="K36" s="21">
+        <f t="shared" si="9"/>
+        <v>0.32250000000000001</v>
+      </c>
+      <c r="L36" s="21">
+        <f t="shared" si="9"/>
+        <v>0.38530000000000003</v>
+      </c>
       <c r="M36" s="24"/>
       <c r="N36" s="24"/>
       <c r="O36" s="24"/>
@@ -30312,11 +30661,26 @@
       <c r="E37" s="22"/>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23"/>
+      <c r="H37" s="21">
+        <f t="shared" ref="H37:L37" si="10">H18</f>
+        <v>0.10590000000000001</v>
+      </c>
+      <c r="I37" s="21">
+        <f t="shared" si="10"/>
+        <v>0.15719999999999998</v>
+      </c>
+      <c r="J37" s="21">
+        <f t="shared" si="10"/>
+        <v>-7.7999999999999996E-3</v>
+      </c>
+      <c r="K37" s="21">
+        <f t="shared" si="10"/>
+        <v>-1.0500000000000001E-2</v>
+      </c>
+      <c r="L37" s="21">
+        <f t="shared" si="10"/>
+        <v>-1E-3</v>
+      </c>
       <c r="M37" s="24"/>
       <c r="N37" s="24"/>
       <c r="O37" s="24"/>
@@ -30335,11 +30699,26 @@
       <c r="E38" s="20"/>
       <c r="F38" s="20"/>
       <c r="G38" s="20"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
+      <c r="H38" s="21">
+        <f t="shared" ref="H38:L38" si="11">H19</f>
+        <v>4.3810000000000002</v>
+      </c>
+      <c r="I38" s="21">
+        <f t="shared" si="11"/>
+        <v>4.1376999999999997</v>
+      </c>
+      <c r="J38" s="21">
+        <f t="shared" si="11"/>
+        <v>3.9783000000000004</v>
+      </c>
+      <c r="K38" s="21">
+        <f t="shared" si="11"/>
+        <v>1.5202</v>
+      </c>
+      <c r="L38" s="21">
+        <f t="shared" si="11"/>
+        <v>4.7054</v>
+      </c>
       <c r="M38" s="24"/>
       <c r="N38" s="24"/>
       <c r="O38" s="24"/>
@@ -30358,11 +30737,26 @@
       <c r="E39" s="22"/>
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
+      <c r="H39" s="21">
+        <f t="shared" ref="H39:L39" si="12">H20</f>
+        <v>-6.3500000000000001E-2</v>
+      </c>
+      <c r="I39" s="21">
+        <f t="shared" si="12"/>
+        <v>1.6459000000000001</v>
+      </c>
+      <c r="J39" s="21">
+        <f t="shared" si="12"/>
+        <v>0.48789999999999994</v>
+      </c>
+      <c r="K39" s="21">
+        <f t="shared" si="12"/>
+        <v>-0.35580000000000001</v>
+      </c>
+      <c r="L39" s="21">
+        <f t="shared" si="12"/>
+        <v>0.65149999999999997</v>
+      </c>
       <c r="M39" s="24"/>
       <c r="N39" s="24"/>
       <c r="O39" s="24"/>
@@ -30381,11 +30775,26 @@
       <c r="E40" s="17"/>
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
+      <c r="H40" s="21">
+        <f t="shared" ref="H40:L40" si="13">H21</f>
+        <v>4.3174999999999999</v>
+      </c>
+      <c r="I40" s="21">
+        <f t="shared" si="13"/>
+        <v>5.78</v>
+      </c>
+      <c r="J40" s="21">
+        <f t="shared" si="13"/>
+        <v>4.4661999999999997</v>
+      </c>
+      <c r="K40" s="21">
+        <f t="shared" si="13"/>
+        <v>1.1644000000000001</v>
+      </c>
+      <c r="L40" s="21">
+        <f t="shared" si="13"/>
+        <v>5.3568999999999996</v>
+      </c>
       <c r="M40" s="24"/>
       <c r="N40" s="24"/>
       <c r="O40" s="24"/>
@@ -30404,11 +30813,26 @@
       <c r="E41" s="22"/>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
+      <c r="H41" s="21">
+        <f t="shared" ref="H41:L41" si="14">H22</f>
+        <v>1.4325999999999999</v>
+      </c>
+      <c r="I41" s="21">
+        <f t="shared" si="14"/>
+        <v>1.262</v>
+      </c>
+      <c r="J41" s="21">
+        <f t="shared" si="14"/>
+        <v>0.87160000000000004</v>
+      </c>
+      <c r="K41" s="21">
+        <f t="shared" si="14"/>
+        <v>0.2397</v>
+      </c>
+      <c r="L41" s="21">
+        <f t="shared" si="14"/>
+        <v>1.1565999999999999</v>
+      </c>
       <c r="M41" s="24"/>
       <c r="N41" s="24"/>
       <c r="O41" s="24"/>
@@ -30427,11 +30851,26 @@
       <c r="E42" s="20"/>
       <c r="F42" s="20"/>
       <c r="G42" s="20"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="21"/>
+      <c r="H42" s="21">
+        <f t="shared" ref="H42:L42" si="15">H23</f>
+        <v>2.8849</v>
+      </c>
+      <c r="I42" s="21">
+        <f t="shared" si="15"/>
+        <v>4.5179999999999998</v>
+      </c>
+      <c r="J42" s="21">
+        <f t="shared" si="15"/>
+        <v>3.5945999999999998</v>
+      </c>
+      <c r="K42" s="21">
+        <f t="shared" si="15"/>
+        <v>0.92470000000000008</v>
+      </c>
+      <c r="L42" s="21">
+        <f t="shared" si="15"/>
+        <v>4.2003000000000004</v>
+      </c>
       <c r="M42" s="24"/>
       <c r="N42" s="24"/>
       <c r="O42" s="24"/>
@@ -30455,7 +30894,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -30502,7 +30943,7 @@
         <v>2</v>
       </c>
       <c r="S3" s="8"/>
-      <c r="T3" s="180" t="s">
+      <c r="T3" s="226" t="s">
         <v>3</v>
       </c>
     </row>
@@ -30560,7 +31001,7 @@
       <c r="S4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="181"/>
+      <c r="T4" s="227"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1">
       <c r="B5" s="17"/>
@@ -31235,7 +31676,10 @@
         <v>29.060599999999997</v>
       </c>
       <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
+      <c r="N27" s="21">
+        <f>1000</f>
+        <v>1000</v>
+      </c>
       <c r="O27" s="21"/>
       <c r="P27" s="21"/>
       <c r="Q27" s="21"/>
@@ -31273,7 +31717,10 @@
         <v>20.6252</v>
       </c>
       <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
+      <c r="N28" s="24">
+        <f>10</f>
+        <v>10</v>
+      </c>
       <c r="O28" s="24"/>
       <c r="P28" s="24"/>
       <c r="Q28" s="24"/>
@@ -31827,7 +32274,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -31874,7 +32323,7 @@
         <v>2</v>
       </c>
       <c r="S3" s="8"/>
-      <c r="T3" s="180" t="s">
+      <c r="T3" s="226" t="s">
         <v>3</v>
       </c>
     </row>
@@ -31932,7 +32381,7 @@
       <c r="S4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="181"/>
+      <c r="T4" s="227"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1">
       <c r="B5" s="17"/>
@@ -32029,11 +32478,30 @@
       <c r="D9" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
+      <c r="H9" s="40">
+        <f>+SUM(H10:H12)</f>
+        <v>11.1934</v>
+      </c>
+      <c r="I9" s="40">
+        <f t="shared" ref="I9:L9" si="1">+SUM(I10:I12)</f>
+        <v>12.35975</v>
+      </c>
+      <c r="J9" s="40">
+        <f t="shared" si="1"/>
+        <v>13.254299999999999</v>
+      </c>
+      <c r="K9" s="40">
+        <f t="shared" si="1"/>
+        <v>11.758999999999999</v>
+      </c>
+      <c r="L9" s="40">
+        <f t="shared" si="1"/>
+        <v>14.530299999999997</v>
+      </c>
+      <c r="M9" s="224">
+        <f>AVERAGE(H9:L9)</f>
+        <v>12.619350000000001</v>
+      </c>
     </row>
     <row r="10" spans="1:20" ht="15" customHeight="1">
       <c r="E10" s="11" t="s">
@@ -32054,6 +32522,10 @@
       <c r="L10" s="40">
         <v>8.7181799999999985</v>
       </c>
+      <c r="M10" s="224">
+        <f t="shared" ref="M10:M20" si="2">AVERAGE(H10:L10)</f>
+        <v>7.5716099999999997</v>
+      </c>
     </row>
     <row r="11" spans="1:20" ht="15" customHeight="1">
       <c r="E11" s="11" t="s">
@@ -32074,6 +32546,10 @@
       <c r="L11" s="40">
         <v>3.6325749999999997</v>
       </c>
+      <c r="M11" s="224">
+        <f t="shared" si="2"/>
+        <v>3.1548375000000002</v>
+      </c>
     </row>
     <row r="12" spans="1:20" ht="15" customHeight="1">
       <c r="E12" s="11" t="s">
@@ -32094,16 +32570,39 @@
       <c r="L12" s="40">
         <v>2.1795449999999996</v>
       </c>
+      <c r="M12" s="224">
+        <f t="shared" si="2"/>
+        <v>1.8929024999999999</v>
+      </c>
     </row>
     <row r="13" spans="1:20" ht="15" customHeight="1">
       <c r="D13" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
+      <c r="H13" s="40">
+        <f>+SUM(H14:H16)</f>
+        <v>6.7160400000000005</v>
+      </c>
+      <c r="I13" s="40">
+        <f t="shared" ref="I13" si="3">+SUM(I14:I16)</f>
+        <v>7.4158500000000007</v>
+      </c>
+      <c r="J13" s="40">
+        <f t="shared" ref="J13" si="4">+SUM(J14:J16)</f>
+        <v>7.9525799999999993</v>
+      </c>
+      <c r="K13" s="40">
+        <f t="shared" ref="K13" si="5">+SUM(K14:K16)</f>
+        <v>7.0553999999999988</v>
+      </c>
+      <c r="L13" s="40">
+        <f t="shared" ref="L13" si="6">+SUM(L14:L16)</f>
+        <v>8.7181799999999985</v>
+      </c>
+      <c r="M13" s="224">
+        <f t="shared" si="2"/>
+        <v>7.5716099999999997</v>
+      </c>
     </row>
     <row r="14" spans="1:20" ht="15" customHeight="1">
       <c r="E14" s="11" t="s">
@@ -32124,6 +32623,10 @@
       <c r="L14" s="40">
         <v>5.2309079999999986</v>
       </c>
+      <c r="M14" s="224">
+        <f t="shared" si="2"/>
+        <v>4.5429659999999998</v>
+      </c>
     </row>
     <row r="15" spans="1:20" ht="15" customHeight="1">
       <c r="E15" s="11" t="s">
@@ -32144,6 +32647,10 @@
       <c r="L15" s="40">
         <v>3.0513629999999994</v>
       </c>
+      <c r="M15" s="224">
+        <f t="shared" si="2"/>
+        <v>2.6500634999999995</v>
+      </c>
     </row>
     <row r="16" spans="1:20" ht="15" customHeight="1">
       <c r="E16" s="11" t="s">
@@ -32164,18 +32671,41 @@
       <c r="L16" s="40">
         <v>0.43590899999999994</v>
       </c>
-    </row>
-    <row r="17" spans="4:12" ht="15" customHeight="1">
+      <c r="M16" s="224">
+        <f t="shared" si="2"/>
+        <v>0.37858049999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="4:13" ht="15" customHeight="1">
       <c r="D17" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-    </row>
-    <row r="18" spans="4:12" ht="15" customHeight="1">
+      <c r="H17" s="40">
+        <f>+SUM(H18:H20)</f>
+        <v>4.47736</v>
+      </c>
+      <c r="I17" s="40">
+        <f t="shared" ref="I17" si="7">+SUM(I18:I20)</f>
+        <v>4.9439000000000002</v>
+      </c>
+      <c r="J17" s="40">
+        <f t="shared" ref="J17" si="8">+SUM(J18:J20)</f>
+        <v>5.3017199999999987</v>
+      </c>
+      <c r="K17" s="40">
+        <f t="shared" ref="K17" si="9">+SUM(K18:K20)</f>
+        <v>4.7036000000000007</v>
+      </c>
+      <c r="L17" s="40">
+        <f t="shared" ref="L17" si="10">+SUM(L18:L20)</f>
+        <v>5.8121200000000002</v>
+      </c>
+      <c r="M17" s="224">
+        <f t="shared" si="2"/>
+        <v>5.0477400000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="4:13" ht="15" customHeight="1">
       <c r="E18" s="11" t="s">
         <v>84</v>
       </c>
@@ -32194,8 +32724,12 @@
       <c r="L18" s="40">
         <v>3.4872719999999999</v>
       </c>
-    </row>
-    <row r="19" spans="4:12" ht="15" customHeight="1">
+      <c r="M18" s="224">
+        <f t="shared" si="2"/>
+        <v>3.0286439999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="4:13" ht="15" customHeight="1">
       <c r="E19" s="11" t="s">
         <v>83</v>
       </c>
@@ -32214,8 +32748,12 @@
       <c r="L19" s="40">
         <v>1.45303</v>
       </c>
-    </row>
-    <row r="20" spans="4:12" ht="15" customHeight="1">
+      <c r="M19" s="224">
+        <f t="shared" si="2"/>
+        <v>1.261935</v>
+      </c>
+    </row>
+    <row r="20" spans="4:13" ht="15" customHeight="1">
       <c r="E20" s="11" t="s">
         <v>85</v>
       </c>
@@ -32233,6 +32771,10 @@
       </c>
       <c r="L20" s="40">
         <v>0.87181799999999998</v>
+      </c>
+      <c r="M20" s="224">
+        <f t="shared" si="2"/>
+        <v>0.75716099999999997</v>
       </c>
     </row>
   </sheetData>
@@ -32250,13 +32792,13 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="B14" sqref="B14:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.296875" style="30" customWidth="1"/>
+    <col min="2" max="2" width="32.296875" style="30" customWidth="1"/>
     <col min="3" max="7" width="8.296875" style="11" customWidth="1"/>
     <col min="8" max="10" width="8.296875" style="3" customWidth="1"/>
     <col min="11" max="26" width="8.296875" style="11" customWidth="1"/>
@@ -32330,7 +32872,7 @@
       <c r="E9" s="41"/>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1">
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="225" t="s">
         <v>120</v>
       </c>
       <c r="C10" s="43">
@@ -32344,7 +32886,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1">
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="225" t="s">
         <v>121</v>
       </c>
       <c r="C11" s="44">
@@ -32358,7 +32900,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1">
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="225" t="s">
         <v>122</v>
       </c>
       <c r="C12" s="44">
@@ -32386,7 +32928,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1">
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="225" t="s">
         <v>124</v>
       </c>
       <c r="C14" s="44">
@@ -32400,7 +32942,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1">
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="225" t="s">
         <v>125</v>
       </c>
       <c r="C15" s="44">
@@ -32414,7 +32956,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1">
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="225" t="s">
         <v>126</v>
       </c>
       <c r="C16" s="44">
@@ -32428,7 +32970,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="15" customHeight="1">
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="225" t="s">
         <v>127</v>
       </c>
       <c r="C17" s="44">
@@ -32442,7 +32984,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="15" customHeight="1">
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="225" t="s">
         <v>128</v>
       </c>
       <c r="C18" s="44">
@@ -32456,7 +32998,7 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="15" customHeight="1">
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="225" t="s">
         <v>129</v>
       </c>
       <c r="C19" s="44">
